--- a/results.xlsx
+++ b/results.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1087.459345722119</v>
+        <v>1084.242294408358</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.860355438303</v>
+        <v>1012.829575115333</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1153.860358755429</v>
+        <v>1132.856483328735</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1015.078160768957</v>
+        <v>949.3989960719556</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042.213533866274</v>
+        <v>1085.210316735372</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>891.1226906940221</v>
+        <v>1112.537763870348</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>905.3550137586436</v>
+        <v>1070.469241286234</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1164.394545537607</v>
+        <v>1019.253104900739</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>978.6187494768512</v>
+        <v>891.5384540656405</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.948037977285</v>
+        <v>1024.205616341965</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1098.327528930678</v>
+        <v>997.0852284393399</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.1594758332694</v>
+        <v>1035.54249500787</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1017.918916467767</v>
+        <v>913.630275324257</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>898.9380783843511</v>
+        <v>875.3042091232319</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1072.824124885327</v>
+        <v>962.0945028025936</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>928.050706350105</v>
+        <v>983.7454846062227</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1110.576265032782</v>
+        <v>925.7646226497645</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1115.812564901093</v>
+        <v>1022.819881786596</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>826.8272150915927</v>
+        <v>981.529724287859</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1023.490841024149</v>
+        <v>1109.934664052338</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1037.769788027733</v>
+        <v>934.5861685852659</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1063.97909346088</v>
+        <v>973.574206153056</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1417122557184</v>
+        <v>900.0104515066089</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.6912793253268</v>
+        <v>998.9732597944023</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>948.976292874858</v>
+        <v>1006.971296147489</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.8155849930084</v>
+        <v>1028.294266905583</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1110.936951530231</v>
+        <v>1012.852426273714</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1033.774754380438</v>
+        <v>997.2806558906465</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>822.6686298126783</v>
+        <v>905.4833051251367</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1103.356727027752</v>
+        <v>1012.799757799923</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1162.1851205543</v>
+        <v>1037.107965150567</v>
       </c>
     </row>
     <row r="33">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>873.7906600683231</v>
+        <v>968.1665785964313</v>
       </c>
     </row>
     <row r="34">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>980.2905456540672</v>
+        <v>951.5340236885995</v>
       </c>
     </row>
     <row r="35">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>897.5826006745122</v>
+        <v>956.1376447688934</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1041.388565158685</v>
+        <v>950.4582773067694</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.889776728021</v>
+        <v>996.4389111509963</v>
       </c>
     </row>
     <row r="38">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>984.1413742569591</v>
+        <v>995.8503427103458</v>
       </c>
     </row>
     <row r="39">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1033.168792920167</v>
+        <v>1061.489636055739</v>
       </c>
     </row>
     <row r="40">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>865.2966940293852</v>
+        <v>980.5644472292535</v>
       </c>
     </row>
     <row r="41">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>897.8352804654616</v>
+        <v>951.0486252988927</v>
       </c>
     </row>
     <row r="42">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>925.892322745768</v>
+        <v>1035.50292091407</v>
       </c>
     </row>
     <row r="43">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.5196691065083</v>
+        <v>944.4499974590083</v>
       </c>
     </row>
     <row r="44">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1094.376790627935</v>
+        <v>1043.165341891981</v>
       </c>
     </row>
     <row r="45">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1140.765199748588</v>
+        <v>986.2038684938951</v>
       </c>
     </row>
     <row r="46">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>912.732426640109</v>
+        <v>968.815068666536</v>
       </c>
     </row>
     <row r="47">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1019.907015677957</v>
+        <v>974.2968148097726</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>986.4275261100322</v>
+        <v>1007.486646027876</v>
       </c>
     </row>
     <row r="49">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>997.8976091760931</v>
+        <v>936.0685490080702</v>
       </c>
     </row>
     <row r="50">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1200.423088806782</v>
+        <v>1020.19017626348</v>
       </c>
     </row>
     <row r="51">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>980.2741198893038</v>
+        <v>945.8542274275552</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>957.0128392785947</v>
+        <v>1032.764392769703</v>
       </c>
     </row>
     <row r="53">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1038.87065552332</v>
+        <v>1054.021998362478</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>977.7250069056367</v>
+        <v>971.6624986644442</v>
       </c>
     </row>
     <row r="55">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>959.4718627805695</v>
+        <v>979.3446974695397</v>
       </c>
     </row>
     <row r="56">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1160.651516352155</v>
+        <v>951.0763960294443</v>
       </c>
     </row>
     <row r="57">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1066.261562752531</v>
+        <v>1024.816177173792</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1144.299677390426</v>
+        <v>1009.985281960005</v>
       </c>
     </row>
     <row r="59">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>968.5518432591074</v>
+        <v>968.3011546349364</v>
       </c>
     </row>
     <row r="60">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>955.7685189485899</v>
+        <v>1038.398651489707</v>
       </c>
     </row>
     <row r="61">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>944.2540814954128</v>
+        <v>1092.621706553559</v>
       </c>
     </row>
     <row r="62">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>999.7328310426155</v>
+        <v>984.7350457935437</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>901.4073765179753</v>
+        <v>888.4576447801733</v>
       </c>
     </row>
     <row r="64">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1203.434742839973</v>
+        <v>1058.231592877295</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1119.104826566458</v>
+        <v>989.0952188581919</v>
       </c>
     </row>
     <row r="66">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1025.19150457697</v>
+        <v>1009.613404374886</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>972.2766253308438</v>
+        <v>980.6241171508077</v>
       </c>
     </row>
     <row r="68">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1010.102256369462</v>
+        <v>992.4791781673782</v>
       </c>
     </row>
     <row r="69">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>977.7374026182313</v>
+        <v>975.1181020141591</v>
       </c>
     </row>
     <row r="70">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1048.57611349024</v>
+        <v>1021.99780477797</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>895.6884305371619</v>
+        <v>986.8361468664166</v>
       </c>
     </row>
     <row r="72">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1020.695820057879</v>
+        <v>1134.829782134252</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>967.7825116716123</v>
+        <v>985.1621971100346</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>946.6246049878254</v>
+        <v>1028.216183611291</v>
       </c>
     </row>
     <row r="75">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>880.4774258031035</v>
+        <v>899.4981946620522</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>913.435119586122</v>
+        <v>1030.743019434752</v>
       </c>
     </row>
     <row r="77">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>953.0532385570049</v>
+        <v>1013.22202802761</v>
       </c>
     </row>
     <row r="78">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1103.982364675094</v>
+        <v>993.6556011188376</v>
       </c>
     </row>
     <row r="79">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1158.164321466674</v>
+        <v>1140.238813633211</v>
       </c>
     </row>
     <row r="80">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>999.0059717734885</v>
+        <v>938.4719616039447</v>
       </c>
     </row>
     <row r="81">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1027.597807897143</v>
+        <v>997.5697921566393</v>
       </c>
     </row>
     <row r="82">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>961.8470513780937</v>
+        <v>949.506194972897</v>
       </c>
     </row>
     <row r="83">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1019.618097222747</v>
+        <v>1057.635611705712</v>
       </c>
     </row>
     <row r="84">
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1079.251051990474</v>
+        <v>1074.973499382267</v>
       </c>
     </row>
     <row r="85">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1093.311581986044</v>
+        <v>1031.199877997783</v>
       </c>
     </row>
     <row r="86">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>894.1785902765439</v>
+        <v>935.6040712799111</v>
       </c>
     </row>
     <row r="87">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>955.562960219047</v>
+        <v>970.7135103342021</v>
       </c>
     </row>
     <row r="88">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1100.277904151391</v>
+        <v>1081.460132213531</v>
       </c>
     </row>
     <row r="89">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>893.3171211526703</v>
+        <v>1101.613861704943</v>
       </c>
     </row>
     <row r="90">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>829.6906563687772</v>
+        <v>945.8306015649621</v>
       </c>
     </row>
     <row r="91">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1193.799387964667</v>
+        <v>1136.749811644954</v>
       </c>
     </row>
     <row r="92">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1007.56424341031</v>
+        <v>929.5822982631498</v>
       </c>
     </row>
     <row r="93">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>940.3109483622097</v>
+        <v>1094.103848005873</v>
       </c>
     </row>
     <row r="94">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>968.7155226943432</v>
+        <v>1003.506139890428</v>
       </c>
     </row>
     <row r="95">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1062.797396023531</v>
+        <v>950.6585862918354</v>
       </c>
     </row>
     <row r="96">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1057.561565459114</v>
+        <v>992.0461336226409</v>
       </c>
     </row>
     <row r="97">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>944.4880785567966</v>
+        <v>1016.529484281206</v>
       </c>
     </row>
     <row r="98">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>964.2273312273062</v>
+        <v>1011.709515140062</v>
       </c>
     </row>
     <row r="99">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1016.019216221027</v>
+        <v>1012.58971445489</v>
       </c>
     </row>
     <row r="100">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1168.740228259308</v>
+        <v>1002.196691045881</v>
       </c>
     </row>
     <row r="101">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1087.296570265624</v>
+        <v>1037.181555803583</v>
       </c>
     </row>
     <row r="102">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>943.5047060192899</v>
+        <v>960.9809520244108</v>
       </c>
     </row>
     <row r="103">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1181.476981710236</v>
+        <v>1088.233279100649</v>
       </c>
     </row>
     <row r="104">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>978.9654212143203</v>
+        <v>941.237336380124</v>
       </c>
     </row>
     <row r="105">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1111.876341687422</v>
+        <v>1005.923020687246</v>
       </c>
     </row>
     <row r="106">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1073.752756294768</v>
+        <v>960.2398448374255</v>
       </c>
     </row>
     <row r="107">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>973.8402472910714</v>
+        <v>963.3318522557829</v>
       </c>
     </row>
     <row r="108">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>965.7913022980839</v>
+        <v>990.2628181928991</v>
       </c>
     </row>
     <row r="109">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>740.9862072893316</v>
+        <v>1083.016539452853</v>
       </c>
     </row>
     <row r="110">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>950.4560247305997</v>
+        <v>987.9026954849842</v>
       </c>
     </row>
     <row r="111">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>932.1454098891554</v>
+        <v>892.1281319834311</v>
       </c>
     </row>
     <row r="112">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1019.046811203305</v>
+        <v>1010.3862576087</v>
       </c>
     </row>
     <row r="113">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>952.4012989531544</v>
+        <v>930.8816973318293</v>
       </c>
     </row>
     <row r="114">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>948.9054082400628</v>
+        <v>961.878233108455</v>
       </c>
     </row>
     <row r="115">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1055.163457489908</v>
+        <v>967.8176753429389</v>
       </c>
     </row>
     <row r="116">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>914.8501467765094</v>
+        <v>989.9835246148082</v>
       </c>
     </row>
     <row r="117">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>956.3750543206527</v>
+        <v>1018.097208186719</v>
       </c>
     </row>
     <row r="118">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1156.960531630839</v>
+        <v>962.0146065016845</v>
       </c>
     </row>
     <row r="119">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>980.0486308784276</v>
+        <v>1092.162005975138</v>
       </c>
     </row>
     <row r="120">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1150.124297134301</v>
+        <v>911.0144754585016</v>
       </c>
     </row>
     <row r="121">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1008.627763806437</v>
+        <v>1020.787681849169</v>
       </c>
     </row>
     <row r="122">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>927.4617153865867</v>
+        <v>1023.938225899897</v>
       </c>
     </row>
     <row r="123">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>983.0586715262856</v>
+        <v>984.7233826437985</v>
       </c>
     </row>
     <row r="124">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1140.622659009355</v>
+        <v>1012.882122004213</v>
       </c>
     </row>
     <row r="125">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>974.1234492411654</v>
+        <v>999.4581697533026</v>
       </c>
     </row>
     <row r="126">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>956.9807906519686</v>
+        <v>957.9729687897147</v>
       </c>
     </row>
     <row r="127">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1004.950154137146</v>
+        <v>992.5737994573027</v>
       </c>
     </row>
     <row r="128">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1139.041554802841</v>
+        <v>1068.573627415372</v>
       </c>
     </row>
     <row r="129">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1056.122451629667</v>
+        <v>1026.283807054619</v>
       </c>
     </row>
     <row r="130">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1040.027258529205</v>
+        <v>999.3655771173909</v>
       </c>
     </row>
     <row r="131">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>834.9496966779654</v>
+        <v>1080.737637052495</v>
       </c>
     </row>
     <row r="132">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1161.802286620558</v>
+        <v>1078.299359127975</v>
       </c>
     </row>
     <row r="133">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>919.948839757385</v>
+        <v>971.1681484240081</v>
       </c>
     </row>
     <row r="134">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>986.7957587724196</v>
+        <v>991.3550364821912</v>
       </c>
     </row>
     <row r="135">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>882.4616845318889</v>
+        <v>975.6440831247411</v>
       </c>
     </row>
     <row r="136">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>876.9100450291666</v>
+        <v>1013.596237954446</v>
       </c>
     </row>
     <row r="137">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>920.6703920071012</v>
+        <v>1026.018849736866</v>
       </c>
     </row>
     <row r="138">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1067.500811707534</v>
+        <v>970.989338392522</v>
       </c>
     </row>
     <row r="139">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>895.0769879035788</v>
+        <v>1000.537538260946</v>
       </c>
     </row>
     <row r="140">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>990.4544402252361</v>
+        <v>1060.328703538413</v>
       </c>
     </row>
     <row r="141">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>936.9465124699279</v>
+        <v>1089.825736023232</v>
       </c>
     </row>
     <row r="142">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>844.6716137306848</v>
+        <v>955.3902386882686</v>
       </c>
     </row>
     <row r="143">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>919.4385774985928</v>
+        <v>979.3407163499977</v>
       </c>
     </row>
     <row r="145">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>966.7851850938989</v>
+        <v>972.8569135655457</v>
       </c>
     </row>
     <row r="147">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>999.8007182413635</v>
+        <v>982.7866843251746</v>
       </c>
     </row>
     <row r="148">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>910.3601736322607</v>
+        <v>1027.19473962678</v>
       </c>
     </row>
     <row r="149">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>911.5362277531266</v>
+        <v>991.9636056547191</v>
       </c>
     </row>
     <row r="150">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>803.511677271902</v>
+        <v>905.0358357730247</v>
       </c>
     </row>
     <row r="151">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>871.6543009896387</v>
+        <v>948.9551031976209</v>
       </c>
     </row>
     <row r="153">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1117.646893727028</v>
+        <v>1032.802167579211</v>
       </c>
     </row>
     <row r="154">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1024.475320045831</v>
+        <v>1039.539711751781</v>
       </c>
     </row>
     <row r="155">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>916.319260646323</v>
+        <v>911.4464822645853</v>
       </c>
     </row>
     <row r="156">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1033.598999586976</v>
+        <v>1003.582051667524</v>
       </c>
     </row>
     <row r="157">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1128.90004225328</v>
+        <v>976.7244274681893</v>
       </c>
     </row>
     <row r="158">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1093.199317786234</v>
+        <v>1137.758307657703</v>
       </c>
     </row>
     <row r="159">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1020.689204181627</v>
+        <v>1031.227682955604</v>
       </c>
     </row>
     <row r="160">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1115.557983720449</v>
+        <v>1001.156492816537</v>
       </c>
     </row>
     <row r="161">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>954.8237614731203</v>
+        <v>920.5061507917285</v>
       </c>
     </row>
     <row r="162">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>823.5221726417068</v>
+        <v>921.4008668403804</v>
       </c>
     </row>
     <row r="163">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>875.1406868930235</v>
+        <v>983.524451537447</v>
       </c>
     </row>
     <row r="164">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1009.612998552771</v>
+        <v>952.1807144821747</v>
       </c>
     </row>
     <row r="165">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>891.50123950946</v>
+        <v>952.308678454433</v>
       </c>
     </row>
     <row r="166">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>965.277658213196</v>
+        <v>1028.272056111314</v>
       </c>
     </row>
     <row r="167">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1053.794995899832</v>
+        <v>955.5118822462249</v>
       </c>
     </row>
     <row r="168">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>911.0146506092211</v>
+        <v>981.5503225983977</v>
       </c>
     </row>
     <row r="169">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>942.7561378230673</v>
+        <v>1024.543889383044</v>
       </c>
     </row>
     <row r="170">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1009.505427908196</v>
+        <v>1051.439095698145</v>
       </c>
     </row>
     <row r="172">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1059.514092968403</v>
+        <v>999.1220875894503</v>
       </c>
     </row>
     <row r="173">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1116.579257752324</v>
+        <v>998.7253917173342</v>
       </c>
     </row>
     <row r="174">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1063.775445585735</v>
+        <v>1036.594086022528</v>
       </c>
     </row>
     <row r="175">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>977.0245354279166</v>
+        <v>1005.347262727979</v>
       </c>
     </row>
     <row r="176">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1110.798696524387</v>
+        <v>1015.172982676391</v>
       </c>
     </row>
     <row r="177">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1100.388182203223</v>
+        <v>1060.22168897727</v>
       </c>
     </row>
     <row r="178">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1074.616527623602</v>
+        <v>981.1335026599115</v>
       </c>
     </row>
     <row r="179">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1140.179065459959</v>
+        <v>1051.788897083988</v>
       </c>
     </row>
     <row r="180">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>945.09617155461</v>
+        <v>978.6603940903875</v>
       </c>
     </row>
     <row r="181">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1042.081590541946</v>
+        <v>1032.315489980357</v>
       </c>
     </row>
     <row r="182">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>989.5104009048135</v>
+        <v>1004.841014804051</v>
       </c>
     </row>
     <row r="183">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>968.1334299717385</v>
+        <v>880.5499597241424</v>
       </c>
     </row>
     <row r="184">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>876.0410659371057</v>
+        <v>1047.585238731647</v>
       </c>
     </row>
     <row r="185">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1018.067069287499</v>
+        <v>1071.324484345688</v>
       </c>
     </row>
     <row r="186">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1130.710653635951</v>
+        <v>1076.874505752609</v>
       </c>
     </row>
     <row r="187">
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>995.4624309884143</v>
+        <v>991.6515457528252</v>
       </c>
     </row>
     <row r="188">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1107.997368992985</v>
+        <v>1041.725462258906</v>
       </c>
     </row>
     <row r="189">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1055.842548527964</v>
+        <v>1008.413511387519</v>
       </c>
     </row>
     <row r="190">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1040.453683622585</v>
+        <v>999.8533605934623</v>
       </c>
     </row>
     <row r="191">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1048.271241461444</v>
+        <v>993.573748831875</v>
       </c>
     </row>
     <row r="192">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>846.4200963255576</v>
+        <v>986.7634901620036</v>
       </c>
     </row>
     <row r="193">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>921.5278608422896</v>
+        <v>997.5367112212099</v>
       </c>
     </row>
     <row r="194">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1035.487484603228</v>
+        <v>1050.503972510075</v>
       </c>
     </row>
     <row r="195">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>870.0184153060712</v>
+        <v>1015.185844280562</v>
       </c>
     </row>
     <row r="196">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>943.475790770487</v>
+        <v>959.3417939495588</v>
       </c>
     </row>
     <row r="197">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>939.7120148353881</v>
+        <v>925.6080523292666</v>
       </c>
     </row>
     <row r="198">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1064.058961191228</v>
+        <v>938.0160468669886</v>
       </c>
     </row>
     <row r="199">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>947.4194207385123</v>
+        <v>978.8916889818695</v>
       </c>
     </row>
     <row r="200">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1023.048275060693</v>
+        <v>918.3356410892973</v>
       </c>
     </row>
     <row r="201">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1092.851407051052</v>
+        <v>917.736925812686</v>
       </c>
     </row>
     <row r="202">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>940.1402216824448</v>
+        <v>1042.22126940691</v>
       </c>
     </row>
     <row r="203">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>984.2001462379181</v>
+        <v>967.6221684522628</v>
       </c>
     </row>
     <row r="204">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1046.688093617423</v>
+        <v>1086.445618494285</v>
       </c>
     </row>
     <row r="205">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>849.4996048152053</v>
+        <v>1023.767099605171</v>
       </c>
     </row>
     <row r="206">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>968.0337248421863</v>
+        <v>1004.95249395003</v>
       </c>
     </row>
     <row r="207">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1131.838768895224</v>
+        <v>973.3293031252542</v>
       </c>
     </row>
     <row r="208">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>917.065599059561</v>
+        <v>930.3771144666999</v>
       </c>
     </row>
     <row r="209">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>778.8047409692598</v>
+        <v>1055.31354622081</v>
       </c>
     </row>
     <row r="210">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1089.478590097723</v>
+        <v>1081.843479615851</v>
       </c>
     </row>
     <row r="211">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1043.200622501475</v>
+        <v>954.5929216939674</v>
       </c>
     </row>
     <row r="213">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>811.0718906320462</v>
+        <v>959.4487558362347</v>
       </c>
     </row>
     <row r="214">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>921.4605816924527</v>
+        <v>943.5237756569389</v>
       </c>
     </row>
     <row r="215">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>961.0561488381838</v>
+        <v>960.5266841821548</v>
       </c>
     </row>
     <row r="216">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>951.8341957417804</v>
+        <v>984.1460565921944</v>
       </c>
     </row>
     <row r="217">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>904.833783974691</v>
+        <v>929.0933596274948</v>
       </c>
     </row>
     <row r="218">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>979.3491780074478</v>
+        <v>1032.608702553879</v>
       </c>
     </row>
     <row r="219">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>973.6006884197969</v>
+        <v>971.7999243086505</v>
       </c>
     </row>
     <row r="220">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>821.8685281149651</v>
+        <v>1040.927578473748</v>
       </c>
     </row>
     <row r="221">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>937.0963185783827</v>
+        <v>1012.807994201702</v>
       </c>
     </row>
     <row r="222">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1088.259775640962</v>
+        <v>946.1069043363854</v>
       </c>
     </row>
     <row r="223">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>883.2175998962501</v>
+        <v>883.8328593478684</v>
       </c>
     </row>
     <row r="224">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1060.404946457818</v>
+        <v>1034.952114538682</v>
       </c>
     </row>
     <row r="225">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1128.382615224072</v>
+        <v>1040.459321446138</v>
       </c>
     </row>
     <row r="226">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>987.2717375470553</v>
+        <v>963.9558448614824</v>
       </c>
     </row>
     <row r="227">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>972.8316717221672</v>
+        <v>970.5234820480765</v>
       </c>
     </row>
     <row r="228">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>990.1400755981499</v>
+        <v>987.0995410086218</v>
       </c>
     </row>
     <row r="230">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>925.5524067914611</v>
+        <v>902.3337728817316</v>
       </c>
     </row>
     <row r="231">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1118.303976741193</v>
+        <v>947.8010307926018</v>
       </c>
     </row>
     <row r="232">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1163.103902095734</v>
+        <v>1031.312496362498</v>
       </c>
     </row>
     <row r="233">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1098.287270895411</v>
+        <v>967.5967683900316</v>
       </c>
     </row>
     <row r="234">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>999.1108238288419</v>
+        <v>1084.416976350538</v>
       </c>
     </row>
     <row r="235">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1142.63534420809</v>
+        <v>971.286804050097</v>
       </c>
     </row>
     <row r="237">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1061.083933968196</v>
+        <v>1039.969525293458</v>
       </c>
     </row>
     <row r="239">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1132.723618032881</v>
+        <v>1087.255860254878</v>
       </c>
     </row>
     <row r="240">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>933.1480727432719</v>
+        <v>1095.169735877543</v>
       </c>
     </row>
     <row r="241">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1027.533220576943</v>
+        <v>974.7658614067335</v>
       </c>
     </row>
     <row r="242">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>922.5674151278129</v>
+        <v>1016.920364237909</v>
       </c>
     </row>
     <row r="243">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>989.5445701684157</v>
+        <v>985.9359579127553</v>
       </c>
     </row>
     <row r="244">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>921.8105205915855</v>
+        <v>946.2352778821516</v>
       </c>
     </row>
     <row r="245">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>926.2610825709884</v>
+        <v>951.963225158359</v>
       </c>
     </row>
     <row r="246">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>966.6609817752733</v>
+        <v>960.6430410102337</v>
       </c>
     </row>
     <row r="247">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1085.233227023746</v>
+        <v>1093.634464838327</v>
       </c>
     </row>
     <row r="248">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1016.377942349584</v>
+        <v>987.9294980906393</v>
       </c>
     </row>
     <row r="249">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>976.4781172805245</v>
+        <v>1016.04860610773</v>
       </c>
     </row>
     <row r="250">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>941.344738004511</v>
+        <v>1023.607393364091</v>
       </c>
     </row>
     <row r="251">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1063.422293840781</v>
+        <v>964.6872902911518</v>
       </c>
     </row>
     <row r="252">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1024.983789586806</v>
+        <v>1002.354477300838</v>
       </c>
     </row>
     <row r="253">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1126.188368645459</v>
+        <v>973.7254408007658</v>
       </c>
     </row>
     <row r="254">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>959.116222009048</v>
+        <v>1020.478478561068</v>
       </c>
     </row>
     <row r="255">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>984.5922604795745</v>
+        <v>1017.08222265514</v>
       </c>
     </row>
     <row r="256">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1038.488227372807</v>
+        <v>973.4192051386609</v>
       </c>
     </row>
     <row r="257">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>959.6753422874602</v>
+        <v>1046.900874585221</v>
       </c>
     </row>
     <row r="258">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>978.3653440511102</v>
+        <v>937.7103378514485</v>
       </c>
     </row>
     <row r="259">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1033.012666804972</v>
+        <v>1036.571737497553</v>
       </c>
     </row>
     <row r="260">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1018.026819766115</v>
+        <v>1047.816934322441</v>
       </c>
     </row>
     <row r="261">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>977.3509363526272</v>
+        <v>991.3425160892921</v>
       </c>
     </row>
     <row r="262">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>987.3988865534405</v>
+        <v>985.8591205936548</v>
       </c>
     </row>
     <row r="263">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1072.051843051008</v>
+        <v>905.3913453728836</v>
       </c>
     </row>
     <row r="264">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>966.8228893361988</v>
+        <v>968.5955522083714</v>
       </c>
     </row>
     <row r="265">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>980.8384494693089</v>
+        <v>983.4548032131373</v>
       </c>
     </row>
     <row r="266">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>901.3855064471657</v>
+        <v>978.8908360069909</v>
       </c>
     </row>
     <row r="267">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>909.2381227196427</v>
+        <v>926.9463289483894</v>
       </c>
     </row>
     <row r="269">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>973.5936911900304</v>
+        <v>1014.576538121674</v>
       </c>
     </row>
     <row r="270">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>982.1819609111515</v>
+        <v>980.1382763998442</v>
       </c>
     </row>
     <row r="271">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>849.5868826788906</v>
+        <v>970.1302038793124</v>
       </c>
     </row>
     <row r="272">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1012.964292299503</v>
+        <v>978.3983714582192</v>
       </c>
     </row>
     <row r="273">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>990.6504503147364</v>
+        <v>984.1456910251376</v>
       </c>
     </row>
     <row r="274">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1019.986362354483</v>
+        <v>1013.822437223929</v>
       </c>
     </row>
     <row r="275">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>947.1472101086327</v>
+        <v>963.4394872433281</v>
       </c>
     </row>
     <row r="276">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1041.731258652864</v>
+        <v>1045.703862374158</v>
       </c>
     </row>
     <row r="277">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1036.120648048894</v>
+        <v>1020.140559743416</v>
       </c>
     </row>
     <row r="278">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1076.819540991686</v>
+        <v>1074.294062816788</v>
       </c>
     </row>
     <row r="279">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1043.965645512686</v>
+        <v>1005.551296076709</v>
       </c>
     </row>
     <row r="280">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>937.7591821926137</v>
+        <v>862.3699047154805</v>
       </c>
     </row>
     <row r="282">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>971.087482544984</v>
+        <v>1015.489190955545</v>
       </c>
     </row>
     <row r="283">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1065.246458693644</v>
+        <v>1015.166600340024</v>
       </c>
     </row>
     <row r="284">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>976.2629248026105</v>
+        <v>992.4667929532258</v>
       </c>
     </row>
     <row r="285">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1023.4744523508</v>
+        <v>1029.993189445782</v>
       </c>
     </row>
     <row r="286">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>971.2913016219176</v>
+        <v>987.1007357100774</v>
       </c>
     </row>
     <row r="287">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1038.550645113634</v>
+        <v>1021.424974140391</v>
       </c>
     </row>
     <row r="288">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1031.266876220205</v>
+        <v>1026.534996242562</v>
       </c>
     </row>
     <row r="290">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1055.466719413091</v>
+        <v>975.0527982200407</v>
       </c>
     </row>
     <row r="291">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1057.134735970531</v>
+        <v>989.7742738614287</v>
       </c>
     </row>
     <row r="292">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1016.549277551483</v>
+        <v>1015.501478085666</v>
       </c>
     </row>
     <row r="293">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>993.8881372210164</v>
+        <v>991.6401699740011</v>
       </c>
     </row>
     <row r="294">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>811.6199154294604</v>
+        <v>1010.010435883503</v>
       </c>
     </row>
     <row r="295">
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1024.200306248852</v>
+        <v>999.9928911629029</v>
       </c>
     </row>
     <row r="296">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>951.9493547621546</v>
+        <v>957.7373960329058</v>
       </c>
     </row>
     <row r="297">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>936.2161528934827</v>
+        <v>989.1791281085685</v>
       </c>
     </row>
     <row r="298">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1013.978532432647</v>
+        <v>1038.233898395294</v>
       </c>
     </row>
     <row r="299">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1059.88649280362</v>
+        <v>1106.045517293324</v>
       </c>
     </row>
     <row r="300">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>970.4243748524963</v>
+        <v>968.9607045155775</v>
       </c>
     </row>
     <row r="303">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1021.344906436584</v>
+        <v>1025.953287502976</v>
       </c>
     </row>
     <row r="304">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>974.1442749760445</v>
+        <v>1003.086932707304</v>
       </c>
     </row>
     <row r="305">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1169.17089833083</v>
+        <v>997.16646948779</v>
       </c>
     </row>
     <row r="306">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1060.727977062244</v>
+        <v>951.2153378151424</v>
       </c>
     </row>
     <row r="307">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>968.7346053332424</v>
+        <v>948.1784456746485</v>
       </c>
     </row>
     <row r="308">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1026.931489444965</v>
+        <v>933.3951950566905</v>
       </c>
     </row>
     <row r="309">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>980.3357202382172</v>
+        <v>993.1761869386855</v>
       </c>
     </row>
     <row r="310">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>956.8657622447541</v>
+        <v>998.3929061314408</v>
       </c>
     </row>
     <row r="311">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>986.6638993112656</v>
+        <v>999.2473403343052</v>
       </c>
     </row>
     <row r="312">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>960.3266770328105</v>
+        <v>1048.165986529273</v>
       </c>
     </row>
     <row r="313">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>963.0429789261109</v>
+        <v>928.5056466117608</v>
       </c>
     </row>
     <row r="314">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>952.9086781087451</v>
+        <v>932.7653039394237</v>
       </c>
     </row>
     <row r="315">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1023.495146977169</v>
+        <v>1159.713194662334</v>
       </c>
     </row>
     <row r="316">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>972.6202693387723</v>
+        <v>985.6412270930148</v>
       </c>
     </row>
     <row r="317">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>911.3230959296266</v>
+        <v>1012.672047206928</v>
       </c>
     </row>
     <row r="318">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>997.4295082499129</v>
+        <v>1031.00154304917</v>
       </c>
     </row>
     <row r="319">
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>976.6666101956459</v>
+        <v>986.3754909302924</v>
       </c>
     </row>
     <row r="320">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1042.998099529882</v>
+        <v>994.3522178963709</v>
       </c>
     </row>
     <row r="321">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1029.91006850843</v>
+        <v>1050.027603840781</v>
       </c>
     </row>
     <row r="322">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>910.4931173968274</v>
+        <v>965.742703394554</v>
       </c>
     </row>
     <row r="323">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1138.417917026692</v>
+        <v>1033.517366209407</v>
       </c>
     </row>
     <row r="324">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1008.752575732299</v>
+        <v>1018.680731351943</v>
       </c>
     </row>
     <row r="325">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>985.1001975470081</v>
+        <v>1028.619771065172</v>
       </c>
     </row>
     <row r="326">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>987.385781669848</v>
+        <v>985.4683215717724</v>
       </c>
     </row>
     <row r="327">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>961.4608342735776</v>
+        <v>979.2822071749051</v>
       </c>
     </row>
     <row r="328">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>939.6399770062289</v>
+        <v>961.1450102398342</v>
       </c>
     </row>
     <row r="329">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1090.072649036743</v>
+        <v>1050.173091489585</v>
       </c>
     </row>
     <row r="330">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>979.2536634378948</v>
+        <v>1036.431923564168</v>
       </c>
     </row>
     <row r="331">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>929.693496433528</v>
+        <v>984.5786415995329</v>
       </c>
     </row>
     <row r="332">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1020.665073137627</v>
+        <v>1015.591424529875</v>
       </c>
     </row>
     <row r="333">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1089.468976212367</v>
+        <v>1048.664771063119</v>
       </c>
     </row>
     <row r="334">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1009.027390366601</v>
+        <v>1095.702619010573</v>
       </c>
     </row>
     <row r="335">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>938.4030492232771</v>
+        <v>965.1262255555687</v>
       </c>
     </row>
     <row r="336">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>981.3647580152546</v>
+        <v>1002.997397022177</v>
       </c>
     </row>
     <row r="337">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>977.5079116902546</v>
+        <v>988.5503582226723</v>
       </c>
     </row>
     <row r="338">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1001.846811023238</v>
+        <v>1055.611449274825</v>
       </c>
     </row>
     <row r="339">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>915.5257240043204</v>
+        <v>1013.03151254898</v>
       </c>
     </row>
     <row r="340">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>901.171644897922</v>
+        <v>940.851808177295</v>
       </c>
     </row>
     <row r="341">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>869.9490552816981</v>
+        <v>905.846618435141</v>
       </c>
     </row>
     <row r="342">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1029.608257857269</v>
+        <v>938.0411382544108</v>
       </c>
     </row>
     <row r="343">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>956.5735314803732</v>
+        <v>948.7003663922065</v>
       </c>
     </row>
     <row r="344">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>976.3754366833839</v>
+        <v>1003.998997933451</v>
       </c>
     </row>
     <row r="345">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1005.434685779926</v>
+        <v>1011.71689199475</v>
       </c>
     </row>
     <row r="346">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1182.791044190918</v>
+        <v>974.7199769259964</v>
       </c>
     </row>
     <row r="347">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1028.924187352072</v>
+        <v>1024.478420655979</v>
       </c>
     </row>
     <row r="348">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1014.630813280354</v>
+        <v>838.2120454548882</v>
       </c>
     </row>
     <row r="349">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1014.376290605723</v>
+        <v>1010.79366060757</v>
       </c>
     </row>
     <row r="350">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1013.753598291783</v>
+        <v>1010.371554034277</v>
       </c>
     </row>
     <row r="351">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1018.634313733824</v>
+        <v>1068.164696728912</v>
       </c>
     </row>
     <row r="352">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>966.0165946126712</v>
+        <v>1059.080705256974</v>
       </c>
     </row>
     <row r="353">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>982.3897041472271</v>
+        <v>1037.137355036596</v>
       </c>
     </row>
     <row r="354">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>966.8498208436032</v>
+        <v>1009.270720808339</v>
       </c>
     </row>
     <row r="355">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>976.9695565027683</v>
+        <v>1014.766410710122</v>
       </c>
     </row>
     <row r="356">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>984.5616772366211</v>
+        <v>1013.548242633586</v>
       </c>
     </row>
     <row r="357">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1096.711953730766</v>
+        <v>1052.886810446634</v>
       </c>
     </row>
     <row r="358">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>935.1865733475752</v>
+        <v>991.8404479848501</v>
       </c>
     </row>
     <row r="359">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1074.483775788457</v>
+        <v>1071.350401878055</v>
       </c>
     </row>
     <row r="360">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>962.6778515569836</v>
+        <v>952.945570770375</v>
       </c>
     </row>
     <row r="361">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1124.689385524364</v>
+        <v>1014.393497165683</v>
       </c>
     </row>
     <row r="362">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1079.167101822683</v>
+        <v>1025.619485381918</v>
       </c>
     </row>
     <row r="363">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>981.8778147179428</v>
+        <v>984.8367996341035</v>
       </c>
     </row>
     <row r="364">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1047.279832262315</v>
+        <v>1037.547968501601</v>
       </c>
     </row>
     <row r="365">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1070.962652339846</v>
+        <v>1035.570749681676</v>
       </c>
     </row>
     <row r="366">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>960.1450308342326</v>
+        <v>1005.091552294736</v>
       </c>
     </row>
     <row r="367">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>979.6160464231366</v>
+        <v>997.4335191223414</v>
       </c>
     </row>
     <row r="368">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>985.0056455379954</v>
+        <v>1011.618845205776</v>
       </c>
     </row>
     <row r="369">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>925.6127212016456</v>
+        <v>1002.113813113927</v>
       </c>
     </row>
     <row r="370">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>986.4124108867588</v>
+        <v>999.2911108550669</v>
       </c>
     </row>
     <row r="371">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1088.482466269093</v>
+        <v>1045.323278093514</v>
       </c>
     </row>
     <row r="372">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1260.586553542022</v>
+        <v>1090.227036238863</v>
       </c>
     </row>
     <row r="375">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1131.948019324288</v>
+        <v>1077.455374094167</v>
       </c>
     </row>
     <row r="376">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>928.8122810520722</v>
+        <v>908.7972752057819</v>
       </c>
     </row>
     <row r="377">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1015.756968045838</v>
+        <v>1022.650663412997</v>
       </c>
     </row>
     <row r="378">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>947.8104745555008</v>
+        <v>985.5127003766434</v>
       </c>
     </row>
     <row r="379">
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1032.305874681682</v>
+        <v>1004.58244023596</v>
       </c>
     </row>
     <row r="380">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>959.0207649293212</v>
+        <v>1002.186265819617</v>
       </c>
     </row>
     <row r="381">
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>965.3323962260882</v>
+        <v>1075.302771898316</v>
       </c>
     </row>
     <row r="382">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>989.9313455507209</v>
+        <v>997.6497667600011</v>
       </c>
     </row>
     <row r="383">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1016.001496673464</v>
+        <v>1062.722165004081</v>
       </c>
     </row>
     <row r="384">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1051.19610178644</v>
+        <v>1118.561192942111</v>
       </c>
     </row>
     <row r="385">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>975.5468565250422</v>
+        <v>982.9683040940357</v>
       </c>
     </row>
     <row r="386">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1013.916649995714</v>
+        <v>958.0629711420224</v>
       </c>
     </row>
     <row r="387">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1089.711557218437</v>
+        <v>1013.065389866143</v>
       </c>
     </row>
     <row r="388">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>939.0250834896169</v>
+        <v>978.8072407554455</v>
       </c>
     </row>
     <row r="389">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1019.035793959677</v>
+        <v>1048.664677423636</v>
       </c>
     </row>
     <row r="390">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>948.4303296589216</v>
+        <v>996.3269494374434</v>
       </c>
     </row>
     <row r="391">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>990.4803217457545</v>
+        <v>981.9259536926193</v>
       </c>
     </row>
     <row r="392">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1028.796093456685</v>
+        <v>1017.637433943887</v>
       </c>
     </row>
     <row r="393">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>968.5597193482328</v>
+        <v>1004.977715401349</v>
       </c>
     </row>
     <row r="394">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>904.5235774200542</v>
+        <v>1020.722319254875</v>
       </c>
     </row>
     <row r="396">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1037.095449663116</v>
+        <v>1038.59605826875</v>
       </c>
     </row>
     <row r="397">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>959.0929187561437</v>
+        <v>957.3511767470251</v>
       </c>
     </row>
     <row r="398">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1085.75215441963</v>
+        <v>1069.380359710245</v>
       </c>
     </row>
     <row r="399">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>967.6173164109052</v>
+        <v>970.8287644475373</v>
       </c>
     </row>
     <row r="400">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1031.216634447109</v>
+        <v>1024.590299519502</v>
       </c>
     </row>
     <row r="401">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>969.7165283339493</v>
+        <v>958.158868925958</v>
       </c>
     </row>
     <row r="403">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>960.5195589841211</v>
+        <v>977.6697161337205</v>
       </c>
     </row>
     <row r="404">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1079.921896217935</v>
+        <v>930.1569720979523</v>
       </c>
     </row>
     <row r="405">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1089.44794017308</v>
+        <v>1058.874441094144</v>
       </c>
     </row>
     <row r="406">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>866.0717933397136</v>
+        <v>919.6586095702687</v>
       </c>
     </row>
     <row r="407">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1021.335981433539</v>
+        <v>975.8412906490681</v>
       </c>
     </row>
     <row r="408">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>959.2533302288529</v>
+        <v>1030.007823871537</v>
       </c>
     </row>
     <row r="409">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>990.4361449016122</v>
+        <v>1029.588332053323</v>
       </c>
     </row>
     <row r="410">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>998.6394404670716</v>
+        <v>991.2374243103836</v>
       </c>
     </row>
     <row r="412">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1030.852432136744</v>
+        <v>1017.249252580262</v>
       </c>
     </row>
     <row r="413">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1017.131417551949</v>
+        <v>998.0662565089475</v>
       </c>
     </row>
     <row r="414">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1000.160344321798</v>
+        <v>1008.212064412505</v>
       </c>
     </row>
     <row r="415">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>992.7500511739886</v>
+        <v>988.7776316319573</v>
       </c>
     </row>
     <row r="416">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>977.4249639885635</v>
+        <v>995.5868387680541</v>
       </c>
     </row>
     <row r="419">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1179.435738838138</v>
+        <v>993.7512369764615</v>
       </c>
     </row>
     <row r="420">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>986.820280153578</v>
+        <v>1003.382922577249</v>
       </c>
     </row>
     <row r="421">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>950.2062679466354</v>
+        <v>1013.469823365432</v>
       </c>
     </row>
     <row r="422">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>992.4098405441065</v>
+        <v>988.3151839208219</v>
       </c>
     </row>
     <row r="424">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1000.442434692119</v>
+        <v>1008.812863478505</v>
       </c>
     </row>
     <row r="425">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>954.7737690857014</v>
+        <v>1001.071775065303</v>
       </c>
     </row>
     <row r="426">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1031.739366448098</v>
+        <v>1027.57819545038</v>
       </c>
     </row>
     <row r="427">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>991.7235481442125</v>
+        <v>1001.01182640698</v>
       </c>
     </row>
     <row r="428">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1137.09863129529</v>
+        <v>1017.012147550078</v>
       </c>
     </row>
     <row r="429">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>953.7649020935766</v>
+        <v>976.7565398376323</v>
       </c>
     </row>
     <row r="430">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1019.169481694234</v>
+        <v>991.2277241276435</v>
       </c>
     </row>
     <row r="431">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>961.9804510489821</v>
+        <v>984.4091847629544</v>
       </c>
     </row>
     <row r="432">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>966.6410854128217</v>
+        <v>997.8818136539094</v>
       </c>
     </row>
     <row r="433">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1001.411501453318</v>
+        <v>974.925003535664</v>
       </c>
     </row>
     <row r="434">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1028.012928134914</v>
+        <v>1014.710899576633</v>
       </c>
     </row>
     <row r="435">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1016.908022360434</v>
+        <v>1050.095020567073</v>
       </c>
     </row>
     <row r="436">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>868.8536219014452</v>
+        <v>953.4446029502069</v>
       </c>
     </row>
     <row r="437">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>921.976913981374</v>
+        <v>963.881055551215</v>
       </c>
     </row>
     <row r="438">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>946.5524476956618</v>
+        <v>982.5738252871979</v>
       </c>
     </row>
     <row r="439">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1001.690010013217</v>
+        <v>1065.764336465472</v>
       </c>
     </row>
     <row r="440">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1040.916454010696</v>
+        <v>1000.526994530699</v>
       </c>
     </row>
     <row r="441">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1086.500281601862</v>
+        <v>1067.338742729569</v>
       </c>
     </row>
     <row r="442">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>996.6869280433264</v>
+        <v>993.8545341980955</v>
       </c>
     </row>
     <row r="443">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>943.2783413229064</v>
+        <v>1001.53489940171</v>
       </c>
     </row>
     <row r="447">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>973.5205352352924</v>
+        <v>986.4400664594626</v>
       </c>
     </row>
     <row r="448">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1015.358977378934</v>
+        <v>902.3276591844404</v>
       </c>
     </row>
     <row r="451">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>986.1576337250209</v>
+        <v>978.9309612860874</v>
       </c>
     </row>
     <row r="453">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>991.4229101716955</v>
+        <v>998.7847558608296</v>
       </c>
     </row>
     <row r="454">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>943.5283794294438</v>
+        <v>979.4764236059665</v>
       </c>
     </row>
     <row r="455">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>966.893610788135</v>
+        <v>1027.546401928722</v>
       </c>
     </row>
     <row r="456">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1074.099805115356</v>
+        <v>1024.853074312415</v>
       </c>
     </row>
     <row r="457">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>900.5971804440966</v>
+        <v>871.8492305903156</v>
       </c>
     </row>
     <row r="458">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>986.4183191772429</v>
+        <v>995.4509148820398</v>
       </c>
     </row>
     <row r="459">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>986.9986180107317</v>
+        <v>979.6359423172329</v>
       </c>
     </row>
     <row r="460">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>981.1833561509999</v>
+        <v>985.6020375218278</v>
       </c>
     </row>
     <row r="461">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>968.4677659051898</v>
+        <v>1025.044659661218</v>
       </c>
     </row>
     <row r="462">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1032.942510020725</v>
+        <v>980.5491120963386</v>
       </c>
     </row>
     <row r="463">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>991.6492885818225</v>
+        <v>1026.475992505679</v>
       </c>
     </row>
     <row r="464">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>963.8383095911281</v>
+        <v>1011.4796900051</v>
       </c>
     </row>
     <row r="465">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>990.2852986004482</v>
+        <v>966.7037258418687</v>
       </c>
     </row>
     <row r="466">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>971.8451114830513</v>
+        <v>984.3070070859939</v>
       </c>
     </row>
     <row r="467">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>987.292599384558</v>
+        <v>1013.447844878151</v>
       </c>
     </row>
     <row r="468">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>988.1688808149515</v>
+        <v>1014.262572421639</v>
       </c>
     </row>
     <row r="469">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1012.138523839803</v>
+        <v>997.4925728869599</v>
       </c>
     </row>
     <row r="470">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>994.3885518527087</v>
+        <v>983.952264112167</v>
       </c>
     </row>
     <row r="471">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>989.0781806933312</v>
+        <v>1000.692851741375</v>
       </c>
     </row>
     <row r="472">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>993.5207920526356</v>
+        <v>989.6526469663291</v>
       </c>
     </row>
     <row r="473">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1013.774989468718</v>
+        <v>982.6058775399721</v>
       </c>
     </row>
     <row r="475">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1013.184214661814</v>
+        <v>983.3669545991288</v>
       </c>
     </row>
     <row r="476">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1047.908600412322</v>
+        <v>944.9023811668519</v>
       </c>
     </row>
     <row r="477">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1053.267413130274</v>
+        <v>980.0750886849537</v>
       </c>
     </row>
     <row r="478">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1100.698758608732</v>
+        <v>1009.507055488054</v>
       </c>
     </row>
     <row r="479">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>868.7426275171235</v>
+        <v>857.1549197729513</v>
       </c>
     </row>
     <row r="480">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1099.500697378362</v>
+        <v>1091.317329989806</v>
       </c>
     </row>
     <row r="481">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>973.234159607625</v>
+        <v>1006.681279158898</v>
       </c>
     </row>
     <row r="482">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>954.1014656707723</v>
+        <v>968.6455549919377</v>
       </c>
     </row>
     <row r="483">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>952.6439676919316</v>
+        <v>923.6188779722058</v>
       </c>
     </row>
     <row r="484">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>866.9613253594547</v>
+        <v>1020.512287857674</v>
       </c>
     </row>
     <row r="485">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1031.71216988587</v>
+        <v>1020.928219536955</v>
       </c>
     </row>
     <row r="486">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>993.538703937763</v>
+        <v>984.8310772364181</v>
       </c>
     </row>
     <row r="487">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>977.9283882481687</v>
+        <v>932.3197490703686</v>
       </c>
     </row>
     <row r="488">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>952.9217910055123</v>
+        <v>966.5166337413623</v>
       </c>
     </row>
     <row r="489">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>967.3358384556342</v>
+        <v>995.4848879658107</v>
       </c>
     </row>
     <row r="491">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>983.324290210816</v>
+        <v>980.6363663954317</v>
       </c>
     </row>
     <row r="492">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1009.304845501907</v>
+        <v>1003.057727160254</v>
       </c>
     </row>
     <row r="493">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>984.8097500663645</v>
+        <v>997.57955304197</v>
       </c>
     </row>
     <row r="494">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>993.7228696484775</v>
+        <v>985.4940255159083</v>
       </c>
     </row>
     <row r="495">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>962.0682918181571</v>
+        <v>974.3579138753403</v>
       </c>
     </row>
     <row r="496">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>994.0416137629907</v>
+        <v>985.9753287951004</v>
       </c>
     </row>
     <row r="497">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>946.0530172024952</v>
+        <v>900.0081243483569</v>
       </c>
     </row>
     <row r="498">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>976.4888032005259</v>
+        <v>975.163802225965</v>
       </c>
     </row>
     <row r="499">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1092.018526804211</v>
+        <v>1047.471142887465</v>
       </c>
     </row>
     <row r="500">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>968.0475029443847</v>
+        <v>1029.041966878339</v>
       </c>
     </row>
     <row r="501">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>987.6165509008182</v>
+        <v>1000.063754745618</v>
       </c>
     </row>
     <row r="502">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1162.372930938701</v>
+        <v>1002.205264200584</v>
       </c>
     </row>
     <row r="503">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1048.727494975542</v>
+        <v>1023.018788726263</v>
       </c>
     </row>
     <row r="504">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>984.5564421868185</v>
+        <v>1000.026550508187</v>
       </c>
     </row>
     <row r="505">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>985.2327801062316</v>
+        <v>1000.02538412226</v>
       </c>
     </row>
     <row r="506">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1003.016841923809</v>
+        <v>1032.285690182606</v>
       </c>
     </row>
     <row r="507">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1032.432390267328</v>
+        <v>997.7818651799777</v>
       </c>
     </row>
     <row r="508">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>995.5108663862139</v>
+        <v>1002.188688817331</v>
       </c>
     </row>
     <row r="509">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>961.7600885745096</v>
+        <v>981.234554742546</v>
       </c>
     </row>
     <row r="510">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>762.4364292139434</v>
+        <v>778.9325438082642</v>
       </c>
     </row>
     <row r="511">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>949.420571099344</v>
+        <v>891.2658413345745</v>
       </c>
     </row>
     <row r="512">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>987.0483800903129</v>
+        <v>991.2339397677631</v>
       </c>
     </row>
     <row r="514">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>991.3438006050566</v>
+        <v>915.3328499513342</v>
       </c>
     </row>
     <row r="515">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1057.321986683462</v>
+        <v>984.4483811852475</v>
       </c>
     </row>
     <row r="516">
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>975.4741254482499</v>
+        <v>972.6930116648811</v>
       </c>
     </row>
     <row r="517">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1112.454643494124</v>
+        <v>1123.519196570507</v>
       </c>
     </row>
     <row r="518">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>956.7622565110477</v>
+        <v>1032.069050382178</v>
       </c>
     </row>
     <row r="519">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1158.486646589856</v>
+        <v>1029.85696596567</v>
       </c>
     </row>
     <row r="520">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1126.871279377312</v>
+        <v>981.0351549647821</v>
       </c>
     </row>
     <row r="521">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1100.575993407361</v>
+        <v>1009.017699605134</v>
       </c>
     </row>
     <row r="522">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>989.7398131207285</v>
+        <v>1081.451201015838</v>
       </c>
     </row>
     <row r="523">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>961.1221886411296</v>
+        <v>1031.197686026727</v>
       </c>
     </row>
     <row r="524">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>976.3842235281468</v>
+        <v>973.4208474267127</v>
       </c>
     </row>
     <row r="525">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1064.139310262016</v>
+        <v>1001.141657243914</v>
       </c>
     </row>
     <row r="527">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>849.7696724981249</v>
+        <v>966.0802516197208</v>
       </c>
     </row>
     <row r="528">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>952.7094676284787</v>
+        <v>1001.045925043386</v>
       </c>
     </row>
     <row r="529">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>996.8227320542188</v>
+        <v>1006.748230659189</v>
       </c>
     </row>
     <row r="530">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1105.871040606098</v>
+        <v>923.126502647219</v>
       </c>
     </row>
     <row r="531">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>983.2448897811473</v>
+        <v>1013.504477147869</v>
       </c>
     </row>
     <row r="532">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1031.225534660975</v>
+        <v>1006.42407059775</v>
       </c>
     </row>
     <row r="533">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>961.4309577213741</v>
+        <v>986.681086119358</v>
       </c>
     </row>
     <row r="534">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>980.7944367241499</v>
+        <v>1022.082712323238</v>
       </c>
     </row>
     <row r="535">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1015.331492709485</v>
+        <v>990.3559712373598</v>
       </c>
     </row>
     <row r="536">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>971.6691299234343</v>
+        <v>1027.082662474032</v>
       </c>
     </row>
     <row r="537">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>943.5506484464279</v>
+        <v>966.1725459204999</v>
       </c>
     </row>
     <row r="538">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>968.0340289253696</v>
+        <v>967.1911801487312</v>
       </c>
     </row>
     <row r="539">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>937.1424498215373</v>
+        <v>951.980618560483</v>
       </c>
     </row>
     <row r="540">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1002.091232247363</v>
+        <v>989.8216335822747</v>
       </c>
     </row>
     <row r="541">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>985.5802780392853</v>
+        <v>989.4129310801949</v>
       </c>
     </row>
     <row r="542">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>971.7430308545994</v>
+        <v>1013.151629443277</v>
       </c>
     </row>
     <row r="543">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>966.1336034181161</v>
+        <v>1000.499573489174</v>
       </c>
     </row>
     <row r="544">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1048.626897805385</v>
+        <v>1017.754528563458</v>
       </c>
     </row>
     <row r="545">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1014.341654278834</v>
+        <v>1015.266363936677</v>
       </c>
     </row>
     <row r="546">
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>981.7207707174357</v>
+        <v>998.5986296683858</v>
       </c>
     </row>
     <row r="548">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>921.2970186560525</v>
+        <v>952.1260629011393</v>
       </c>
     </row>
     <row r="549">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>994.3539282319533</v>
+        <v>970.1798531133097</v>
       </c>
     </row>
     <row r="551">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>991.7895237030777</v>
+        <v>987.0828265634764</v>
       </c>
     </row>
     <row r="552">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>923.6682908608482</v>
+        <v>1032.823263203675</v>
       </c>
     </row>
     <row r="553">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>992.0648868459672</v>
+        <v>987.6264431965548</v>
       </c>
     </row>
     <row r="554">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>950.3802012258153</v>
+        <v>1013.612335932042</v>
       </c>
     </row>
     <row r="555">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1048.501770330912</v>
+        <v>952.7338794584705</v>
       </c>
     </row>
     <row r="556">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1022.283492582755</v>
+        <v>1011.644442334608</v>
       </c>
     </row>
     <row r="557">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>969.2322009913811</v>
+        <v>977.5823657300162</v>
       </c>
     </row>
     <row r="558">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>987.9844919603837</v>
+        <v>1014.12642525102</v>
       </c>
     </row>
     <row r="559">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>966.7400767255062</v>
+        <v>1025.638558322619</v>
       </c>
     </row>
     <row r="560">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>917.579163800533</v>
+        <v>1035.869011763598</v>
       </c>
     </row>
     <row r="561">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>993.5578303076921</v>
+        <v>1010.764689703251</v>
       </c>
     </row>
     <row r="562">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>973.5425866167312</v>
+        <v>997.5488008626061</v>
       </c>
     </row>
     <row r="563">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>985.6676519846094</v>
+        <v>1012.895342685163</v>
       </c>
     </row>
     <row r="564">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>959.2423450805848</v>
+        <v>994.9522440165664</v>
       </c>
     </row>
     <row r="565">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1018.41687731761</v>
+        <v>1013.202569523011</v>
       </c>
     </row>
     <row r="566">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1035.7179032091</v>
+        <v>1008.838168828279</v>
       </c>
     </row>
     <row r="567">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>990.8122754345621</v>
+        <v>977.7701361247971</v>
       </c>
     </row>
     <row r="568">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>979.7785921341808</v>
+        <v>1015.173116601212</v>
       </c>
     </row>
     <row r="569">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>980.6188148246586</v>
+        <v>982.5099615511637</v>
       </c>
     </row>
     <row r="570">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>991.5860787871341</v>
+        <v>987.3487599480179</v>
       </c>
     </row>
     <row r="571">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>991.8726245720006</v>
+        <v>987.8774477555119</v>
       </c>
     </row>
     <row r="572">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>985.9260794742482</v>
+        <v>982.0726260929065</v>
       </c>
     </row>
     <row r="573">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>987.5827027584501</v>
+        <v>985.7982763577278</v>
       </c>
     </row>
     <row r="575">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1146.132570457611</v>
+        <v>1031.285241290113</v>
       </c>
     </row>
     <row r="579">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1156.923876584073</v>
+        <v>1011.138832924117</v>
       </c>
     </row>
     <row r="580">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1240.474613061566</v>
+        <v>1125.990860523433</v>
       </c>
     </row>
     <row r="581">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1055.111815593395</v>
+        <v>1061.248113331167</v>
       </c>
     </row>
     <row r="582">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1022.947317510431</v>
+        <v>1003.097249042854</v>
       </c>
     </row>
     <row r="583">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>982.7998318858455</v>
+        <v>1010.732276128049</v>
       </c>
     </row>
     <row r="584">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>965.1438871366532</v>
+        <v>1013.948112384998</v>
       </c>
     </row>
     <row r="585">
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1043.862266409206</v>
+        <v>1015.872253103676</v>
       </c>
     </row>
     <row r="586">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>970.1721796717983</v>
+        <v>997.8278203282017</v>
       </c>
     </row>
     <row r="587">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>913.2205321155326</v>
+        <v>983.0180390429958</v>
       </c>
     </row>
     <row r="588">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>985.373634602208</v>
+        <v>984.0293099708232</v>
       </c>
     </row>
     <row r="589">
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>985.9575810069903</v>
+        <v>1010.42253430926</v>
       </c>
     </row>
     <row r="590">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>875.520267735677</v>
+        <v>890.1653688108526</v>
       </c>
     </row>
     <row r="591">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1019.577162110201</v>
+        <v>996.3274719544523</v>
       </c>
     </row>
     <row r="592">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1012.110806671351</v>
+        <v>1011.759551574857</v>
       </c>
     </row>
     <row r="593">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1055.223131505895</v>
+        <v>1027.061279700698</v>
       </c>
     </row>
     <row r="594">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1082.456147964652</v>
+        <v>1066.353477000009</v>
       </c>
     </row>
     <row r="595">
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1018.69393797969</v>
+        <v>1011.38029561163</v>
       </c>
     </row>
     <row r="596">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1030.228370016065</v>
+        <v>1011.775762865839</v>
       </c>
     </row>
     <row r="597">
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>940.3952115135251</v>
+        <v>982.1456395775192</v>
       </c>
     </row>
     <row r="598">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1017.089571679609</v>
+        <v>996.2379716570709</v>
       </c>
     </row>
     <row r="599">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>980.8700345724873</v>
+        <v>994.9483317085177</v>
       </c>
     </row>
     <row r="600">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>981.0225608881985</v>
+        <v>1000.050379690052</v>
       </c>
     </row>
     <row r="601">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1023.358812082315</v>
+        <v>1003.585589359842</v>
       </c>
     </row>
     <row r="602">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1011.258868003465</v>
+        <v>1006.574246199006</v>
       </c>
     </row>
     <row r="603">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>990.0969692421986</v>
+        <v>987.1582223495379</v>
       </c>
     </row>
     <row r="604">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>990.4676599602634</v>
+        <v>987.6976192822605</v>
       </c>
     </row>
     <row r="605">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>990.8171112297539</v>
+        <v>1004.206549012553</v>
       </c>
     </row>
     <row r="606">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>991.1466880800814</v>
+        <v>1004.033455554099</v>
       </c>
     </row>
     <row r="607">
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1024.719794237634</v>
+        <v>1021.853602935985</v>
       </c>
     </row>
     <row r="608">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1054.164322959116</v>
+        <v>1043.598909374113</v>
       </c>
     </row>
     <row r="609">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1082.723353976359</v>
+        <v>1073.669384659004</v>
       </c>
     </row>
     <row r="610">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1075.182060850726</v>
+        <v>987.0852508567378</v>
       </c>
     </row>
     <row r="611">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>931.0299091138047</v>
+        <v>973.5985515582654</v>
       </c>
     </row>
     <row r="612">
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1068.261255897417</v>
+        <v>1039.950859939222</v>
       </c>
     </row>
     <row r="613">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1003.647011837042</v>
+        <v>976.4057027545597</v>
       </c>
     </row>
     <row r="614">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1014.111848209103</v>
+        <v>1018.553358020058</v>
       </c>
     </row>
     <row r="615">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1016.24380766838</v>
+        <v>995.6618785058698</v>
       </c>
     </row>
     <row r="616">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1007.538450162445</v>
+        <v>1002.022875878595</v>
       </c>
     </row>
     <row r="617">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>982.8498433537596</v>
+        <v>996.0110621556587</v>
       </c>
     </row>
     <row r="618">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1006.200750928072</v>
+        <v>1003.445319199704</v>
       </c>
     </row>
     <row r="619">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1029.981463396782</v>
+        <v>1001.234562597154</v>
       </c>
     </row>
     <row r="620">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1120.792483731437</v>
+        <v>1101.755570932897</v>
       </c>
     </row>
     <row r="621">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1037.229056569969</v>
+        <v>981.5478674163298</v>
       </c>
     </row>
     <row r="622">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>989.7065995660234</v>
+        <v>1003.280654416185</v>
       </c>
     </row>
     <row r="623">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>999.2563653781779</v>
+        <v>1022.621447576822</v>
       </c>
     </row>
     <row r="624">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1001.443929290599</v>
+        <v>1010.674750271504</v>
       </c>
     </row>
     <row r="625">
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1036.80806107562</v>
+        <v>971.789743690348</v>
       </c>
     </row>
     <row r="626">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>972.7424132942991</v>
+        <v>977.3145070718238</v>
       </c>
     </row>
     <row r="627">
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>965.2338592709748</v>
+        <v>1029.178883419538</v>
       </c>
     </row>
     <row r="628">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1040.421147595914</v>
+        <v>960.8945300605354</v>
       </c>
     </row>
     <row r="629">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1023.101548507095</v>
+        <v>1037.935395851893</v>
       </c>
     </row>
     <row r="630">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1001.228686494481</v>
+        <v>1014.699365193579</v>
       </c>
     </row>
     <row r="631">
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>938.5029049932314</v>
+        <v>977.3094931982656</v>
       </c>
     </row>
     <row r="632">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>989.7011147856848</v>
+        <v>997.6694607807863</v>
       </c>
     </row>
     <row r="633">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>952.3711734968741</v>
+        <v>997.6689725389017</v>
       </c>
     </row>
     <row r="634">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>915.4634343889097</v>
+        <v>929.4392760463513</v>
       </c>
     </row>
     <row r="635">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>988.6831652041906</v>
+        <v>1001.461047844056</v>
       </c>
     </row>
     <row r="637">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>967.0532891770335</v>
+        <v>983.8902222361619</v>
       </c>
     </row>
     <row r="638">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>983.8018035446</v>
+        <v>999.1028521408468</v>
       </c>
     </row>
     <row r="639">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1043.437505427501</v>
+        <v>1018.950576719914</v>
       </c>
     </row>
     <row r="640">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1015.774733472007</v>
+        <v>1015.072640723334</v>
       </c>
     </row>
     <row r="641">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1016.277548784366</v>
+        <v>1037.68022906669</v>
       </c>
     </row>
     <row r="642">
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1000.71572351817</v>
+        <v>967.3873681611077</v>
       </c>
     </row>
     <row r="643">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1163.797507007091</v>
+        <v>1160.682548423157</v>
       </c>
     </row>
     <row r="644">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1028.865808511875</v>
+        <v>1032.111701661934</v>
       </c>
     </row>
     <row r="645">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1005.965805064817</v>
+        <v>979.38553325701</v>
       </c>
     </row>
     <row r="646">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>989.6725764026132</v>
+        <v>995.7677940180617</v>
       </c>
     </row>
     <row r="647">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1029.05029290066</v>
+        <v>999.1518065943953</v>
       </c>
     </row>
     <row r="648">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1142.475008583264</v>
+        <v>1165.773364430726</v>
       </c>
     </row>
     <row r="649">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>937.3552470828606</v>
+        <v>981.8572961379916</v>
       </c>
     </row>
     <row r="650">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>982.5860053646828</v>
+        <v>999.5937785070805</v>
       </c>
     </row>
     <row r="651">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1049.771426276292</v>
+        <v>1029.715071226065</v>
       </c>
     </row>
     <row r="652">
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>932.9032635217101</v>
+        <v>987.2146573632476</v>
       </c>
     </row>
     <row r="653">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1049.334508098036</v>
+        <v>1021.719351861472</v>
       </c>
     </row>
     <row r="655">
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>949.0971863269225</v>
+        <v>937.6171732350909</v>
       </c>
     </row>
     <row r="656">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1003.062328418593</v>
+        <v>1023.805954460031</v>
       </c>
     </row>
     <row r="657">
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1039.88482482716</v>
+        <v>1002.624292955865</v>
       </c>
     </row>
     <row r="658">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1036.045568491798</v>
+        <v>1034.615483503141</v>
       </c>
     </row>
     <row r="659">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1029.729371119667</v>
+        <v>1033.344062747584</v>
       </c>
     </row>
     <row r="660">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>982.0125847919672</v>
+        <v>1021.30680130655</v>
       </c>
     </row>
     <row r="661">
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1036.457628849549</v>
+        <v>1074.584042750872</v>
       </c>
     </row>
     <row r="662">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>956.3105420315429</v>
+        <v>971.3599017206826</v>
       </c>
     </row>
     <row r="663">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1017.812456024336</v>
+        <v>1015.314652589011</v>
       </c>
     </row>
     <row r="664">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1113.016974846291</v>
+        <v>1073.665975302998</v>
       </c>
     </row>
     <row r="665">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>942.1470291159148</v>
+        <v>1079.388300116489</v>
       </c>
     </row>
     <row r="666">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1030.030343609702</v>
+        <v>998.9212177663512</v>
       </c>
     </row>
     <row r="667">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1011.481119361397</v>
+        <v>1012.465704010371</v>
       </c>
     </row>
     <row r="668">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1008.471960060325</v>
+        <v>979.5935598827946</v>
       </c>
     </row>
     <row r="669">
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>985.0359993651632</v>
+        <v>998.6445607903629</v>
       </c>
     </row>
     <row r="670">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1096.746175262301</v>
+        <v>1083.023527036961</v>
       </c>
     </row>
     <row r="671">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>972.5180015736845</v>
+        <v>1037.158978897894</v>
       </c>
     </row>
     <row r="672">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>986.7732401267217</v>
+        <v>998.3201733350314</v>
       </c>
     </row>
     <row r="673">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>998.7158671228992</v>
+        <v>994.7778616964831</v>
       </c>
     </row>
     <row r="674">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1018.280818320077</v>
+        <v>1023.838673550465</v>
       </c>
     </row>
     <row r="675">
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1007.356985019994</v>
+        <v>1007.97481975777</v>
       </c>
     </row>
     <row r="676">
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>961.0260204735192</v>
+        <v>1048.077983800684</v>
       </c>
     </row>
     <row r="677">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1007.127356566226</v>
+        <v>1007.71228466778</v>
       </c>
     </row>
     <row r="678">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1018.77008704936</v>
+        <v>1011.787489874333</v>
       </c>
     </row>
     <row r="679">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>968.1544377545482</v>
+        <v>999.1404439046574</v>
       </c>
     </row>
     <row r="680">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1022.726847310352</v>
+        <v>1022.651829737531</v>
       </c>
     </row>
     <row r="681">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>971.4523984593743</v>
+        <v>1005.690591021867</v>
       </c>
     </row>
     <row r="682">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>987.3340666521229</v>
+        <v>998.3932282354409</v>
       </c>
     </row>
     <row r="683">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1031.150643678006</v>
+        <v>1031.016628084652</v>
       </c>
     </row>
     <row r="684">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>983.2742812360939</v>
+        <v>983.208604582999</v>
       </c>
     </row>
     <row r="685">
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>984.008582490679</v>
+        <v>999.9456500501897</v>
       </c>
     </row>
     <row r="686">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>984.710657431089</v>
+        <v>999.9480376696279</v>
       </c>
     </row>
     <row r="687">
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1057.983261796611</v>
+        <v>1018.674115561773</v>
       </c>
     </row>
     <row r="688">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>878.8651257737351</v>
+        <v>946.0899241230906</v>
       </c>
     </row>
     <row r="689">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>945.5977349001043</v>
+        <v>976.5586848724159</v>
       </c>
     </row>
     <row r="690">
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>980.1509662470032</v>
+        <v>997.0956242745181</v>
       </c>
     </row>
     <row r="691">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>966.0948677445684</v>
+        <v>997.2598636816601</v>
       </c>
     </row>
     <row r="692">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1004.369664438926</v>
+        <v>984.27310815286</v>
       </c>
     </row>
     <row r="693">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>948.4427577381224</v>
+        <v>973.8797125207182</v>
       </c>
     </row>
     <row r="694">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1029.308914039413</v>
+        <v>998.5751627050846</v>
       </c>
     </row>
     <row r="695">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>986.1631173924438</v>
+        <v>982.6777387507099</v>
       </c>
     </row>
     <row r="696">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>989.0862318551866</v>
+        <v>987.4835479210053</v>
       </c>
     </row>
     <row r="697">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1028.308502861015</v>
+        <v>1031.63245097732</v>
       </c>
     </row>
     <row r="698">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>991.5623872617333</v>
+        <v>1007.342420647449</v>
       </c>
     </row>
     <row r="699">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>982.3150229098258</v>
+        <v>999.8601064424365</v>
       </c>
     </row>
     <row r="700">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1012.144957913053</v>
+        <v>1008.15125795834</v>
       </c>
     </row>
     <row r="701">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1027.356870411616</v>
+        <v>1011.327168775405</v>
       </c>
     </row>
     <row r="702">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1037.387314446245</v>
+        <v>1026.924350177994</v>
       </c>
     </row>
     <row r="703">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>983.145167702633</v>
+        <v>990.4937715416145</v>
       </c>
     </row>
     <row r="704">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1037.376630446099</v>
+        <v>1044.458298810178</v>
       </c>
     </row>
     <row r="706">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>988.0826451296545</v>
+        <v>1003.641512938183</v>
       </c>
     </row>
     <row r="707">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>988.5695819194195</v>
+        <v>1003.48911895856</v>
       </c>
     </row>
     <row r="708">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>976.9604278664909</v>
+        <v>994.3128172842377</v>
       </c>
     </row>
     <row r="709">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1008.229510176987</v>
+        <v>1029.936445462016</v>
       </c>
     </row>
     <row r="710">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1026.262185946535</v>
+        <v>984.9497712454295</v>
       </c>
     </row>
     <row r="711">
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1002.56245730444</v>
+        <v>1017.125723577797</v>
       </c>
     </row>
     <row r="712">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>984.9280601769244</v>
+        <v>1001.366038436057</v>
       </c>
     </row>
     <row r="713">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>956.9117763284779</v>
+        <v>985.9304443835939</v>
       </c>
     </row>
     <row r="714">
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1043.322446963466</v>
+        <v>999.2560653356834</v>
       </c>
     </row>
     <row r="715">
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>988.8389675259323</v>
+        <v>999.810008280542</v>
       </c>
     </row>
     <row r="716">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>955.424729148012</v>
+        <v>999.2423637865045</v>
       </c>
     </row>
     <row r="717">
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>986.2108538558109</v>
+        <v>1001.249381818703</v>
       </c>
     </row>
     <row r="718">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>973.4009521367598</v>
+        <v>983.8340077033259</v>
       </c>
     </row>
     <row r="719">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>986.802392009037</v>
+        <v>1001.194800222924</v>
       </c>
     </row>
     <row r="720">
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1015.170821537943</v>
+        <v>1016.648370559854</v>
       </c>
     </row>
     <row r="721">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>963.4519655703685</v>
+        <v>987.3925647943431</v>
       </c>
     </row>
     <row r="722">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1001.010579259826</v>
+        <v>1024.228210774103</v>
       </c>
     </row>
     <row r="723">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>956.5451013667748</v>
+        <v>997.6690183031599</v>
       </c>
     </row>
     <row r="724">
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1018.436628985817</v>
+        <v>1047.256025143287</v>
       </c>
     </row>
     <row r="725">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1031.34334649282</v>
+        <v>1017.557201108163</v>
       </c>
     </row>
     <row r="726">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>964.0641535797596</v>
+        <v>1000.968169183966</v>
       </c>
     </row>
     <row r="727">
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1036.899064454289</v>
+        <v>981.381319563312</v>
       </c>
     </row>
     <row r="728">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1015.918079395779</v>
+        <v>1011.196557634326</v>
       </c>
     </row>
     <row r="730">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1040.010577879973</v>
+        <v>1014.924983888829</v>
       </c>
     </row>
     <row r="731">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>983.4407025285126</v>
+        <v>998.8654982476658</v>
       </c>
     </row>
     <row r="732">
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>958.6561950124925</v>
+        <v>1004.851266571168</v>
       </c>
     </row>
     <row r="733">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1002.380070856694</v>
+        <v>1024.536634956913</v>
       </c>
     </row>
     <row r="734">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>960.3996676173842</v>
+        <v>993.935796360752</v>
       </c>
     </row>
     <row r="735">
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>996.7950669471757</v>
+        <v>1001.480106190673</v>
       </c>
     </row>
     <row r="736">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>981.053465594055</v>
+        <v>992.9525756819345</v>
       </c>
     </row>
     <row r="737">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>999.044947197825</v>
+        <v>997.8887648204948</v>
       </c>
     </row>
     <row r="738">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>975.0581419755143</v>
+        <v>973.2396128269357</v>
       </c>
     </row>
     <row r="739">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>1004.862043748395</v>
+        <v>1004.090755020882</v>
       </c>
     </row>
     <row r="740">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>1023.740936428786</v>
+        <v>1009.59813456368</v>
       </c>
     </row>
     <row r="742">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>983.3963192502011</v>
+        <v>1001.639586645453</v>
       </c>
     </row>
     <row r="743">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>1045.832313007826</v>
+        <v>987.3104821666858</v>
       </c>
     </row>
     <row r="744">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>1014.59489773608</v>
+        <v>986.4706351579999</v>
       </c>
     </row>
     <row r="745">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>1013.960880468862</v>
+        <v>987.0480825149634</v>
       </c>
     </row>
     <row r="746">
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>921.1519855439776</v>
+        <v>965.0612058038934</v>
       </c>
     </row>
     <row r="748">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>996.4035662165838</v>
+        <v>993.4358003533736</v>
       </c>
     </row>
     <row r="749">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>995.2418789983733</v>
+        <v>1020.476757722915</v>
       </c>
     </row>
     <row r="750">
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>1015.368733553745</v>
+        <v>1000.061244263851</v>
       </c>
     </row>
     <row r="752">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>1014.69601281942</v>
+        <v>1016.058553781508</v>
       </c>
     </row>
     <row r="753">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>1028.600385067598</v>
+        <v>1016.11214157777</v>
       </c>
     </row>
     <row r="754">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>1014.056812191963</v>
+        <v>1015.353420019996</v>
       </c>
     </row>
     <row r="755">
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>984.5294849019199</v>
+        <v>999.2755794859434</v>
       </c>
     </row>
     <row r="756">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>983.2997286378512</v>
+        <v>998.4343479484204</v>
       </c>
     </row>
     <row r="757">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>986.7703467189011</v>
+        <v>1001.320086250826</v>
       </c>
     </row>
     <row r="758">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>980.8248030738056</v>
+        <v>998.7445330122058</v>
       </c>
     </row>
     <row r="759">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>980.1137354879704</v>
+        <v>982.6521712047453</v>
       </c>
     </row>
     <row r="760">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>983.2295829116547</v>
+        <v>984.3542960497861</v>
       </c>
     </row>
     <row r="761">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>989.9407765082726</v>
+        <v>987.2090160626777</v>
       </c>
     </row>
     <row r="763">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1012.13528967938</v>
+        <v>1006.491309818622</v>
       </c>
     </row>
     <row r="764">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>974.5367764937077</v>
+        <v>986.1210748797399</v>
       </c>
     </row>
     <row r="765">
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>982.8973348004255</v>
+        <v>997.522451275653</v>
       </c>
     </row>
     <row r="766">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>1004.934448595494</v>
+        <v>1001.042788095533</v>
       </c>
     </row>
     <row r="767">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>1009.623031170024</v>
+        <v>1015.605789189054</v>
       </c>
     </row>
     <row r="768">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>1009.268396809029</v>
+        <v>1014.921690554763</v>
       </c>
     </row>
     <row r="769">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>1009.638517904095</v>
+        <v>1014.494590512499</v>
       </c>
     </row>
     <row r="770">
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>1027.742751275501</v>
+        <v>1010.768969083078</v>
       </c>
     </row>
     <row r="772">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>964.3622169923951</v>
+        <v>1010.981310629492</v>
       </c>
     </row>
     <row r="773">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>978.19534123355</v>
+        <v>1012.87122198974</v>
       </c>
     </row>
     <row r="774">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>969.0095949712795</v>
+        <v>980.9645286664876</v>
       </c>
     </row>
     <row r="775">
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>982.3378131126286</v>
+        <v>996.2402648339572</v>
       </c>
     </row>
     <row r="776">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>1022.853111862705</v>
+        <v>1000.818693019033</v>
       </c>
     </row>
     <row r="777">
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>1029.901705791152</v>
+        <v>1014.629742931893</v>
       </c>
     </row>
     <row r="778">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>1030.779768329391</v>
+        <v>999.3552633704304</v>
       </c>
     </row>
     <row r="779">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>1050.359058067082</v>
+        <v>990.482054177107</v>
       </c>
     </row>
     <row r="780">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>983.0925479081166</v>
+        <v>999.6838600080455</v>
       </c>
     </row>
     <row r="781">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>1012.905070139759</v>
+        <v>1015.308820550621</v>
       </c>
     </row>
     <row r="782">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>971.2797959335452</v>
+        <v>998.3286545054958</v>
       </c>
     </row>
     <row r="783">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>985.9092492967436</v>
+        <v>986.1995743376963</v>
       </c>
     </row>
     <row r="784">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>1012.346704707933</v>
+        <v>996.4379032919635</v>
       </c>
     </row>
     <row r="785">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>1031.443031193634</v>
+        <v>1014.8558343059</v>
       </c>
     </row>
     <row r="786">
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>970.1721796717983</v>
+        <v>986.1721796717983</v>
       </c>
     </row>
     <row r="787">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>1054.339738853753</v>
+        <v>1042.951958753429</v>
       </c>
     </row>
     <row r="788">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>964.8865890792849</v>
+        <v>981.2512242182256</v>
       </c>
     </row>
     <row r="789">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>1011.387285911207</v>
+        <v>1012.066450984981</v>
       </c>
     </row>
     <row r="790">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>975.2526342954845</v>
+        <v>998.744161562144</v>
       </c>
     </row>
     <row r="791">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>988.9096294849553</v>
+        <v>1004.748208633952</v>
       </c>
     </row>
     <row r="792">
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>989.4208718489681</v>
+        <v>1007.024410402891</v>
       </c>
     </row>
     <row r="793">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>987.6283633178609</v>
+        <v>1002.270538196863</v>
       </c>
     </row>
     <row r="794">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>980.2490347311195</v>
+        <v>1005.648947299344</v>
       </c>
     </row>
     <row r="795">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>987.746739671487</v>
+        <v>979.5201649860087</v>
       </c>
     </row>
     <row r="796">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>983.2701130537124</v>
+        <v>994.5510784968078</v>
       </c>
     </row>
     <row r="799">
@@ -8417,7 +8417,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>1000.636458641597</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="800">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>995.3213401054287</v>
+        <v>1003.710742478845</v>
       </c>
     </row>
     <row r="801">
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>1010.930854707324</v>
+        <v>1011.570977608216</v>
       </c>
     </row>
     <row r="802">
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>1018.657029190561</v>
+        <v>1014.853915550951</v>
       </c>
     </row>
     <row r="803">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>989.8305667749637</v>
+        <v>990.7709341382297</v>
       </c>
     </row>
     <row r="804">
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>997.8278203282017</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="805">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>984.0045891754933</v>
+        <v>978.7649082882529</v>
       </c>
     </row>
     <row r="806">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>998.6976308885119</v>
+        <v>1000.567529318539</v>
       </c>
     </row>
     <row r="807">
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>1019.006147727166</v>
+        <v>1014.091424033485</v>
       </c>
     </row>
     <row r="808">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>1021.559547722833</v>
+        <v>923.0314996018383</v>
       </c>
     </row>
     <row r="809">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>1022.79907588951</v>
+        <v>1048.294005655006</v>
       </c>
     </row>
     <row r="810">
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1027.426987975368</v>
+        <v>1028.812007850032</v>
       </c>
     </row>
     <row r="811">
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>903.5000302341917</v>
+        <v>982.2549409094429</v>
       </c>
     </row>
     <row r="812">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1054.427857154574</v>
+        <v>1092.967416885375</v>
       </c>
     </row>
     <row r="813">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>962.523385467898</v>
+        <v>1009.471288828802</v>
       </c>
     </row>
     <row r="814">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>984.1331558195394</v>
+        <v>1007.491247310745</v>
       </c>
     </row>
     <row r="815">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>1088.37577986755</v>
+        <v>955.798365737284</v>
       </c>
     </row>
     <row r="816">
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>973.2516711713916</v>
+        <v>997.0999578040166</v>
       </c>
     </row>
     <row r="817">
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>961.0057589213019</v>
+        <v>1011.912041499988</v>
       </c>
     </row>
     <row r="818">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>1029.157376533482</v>
+        <v>1025.331503505161</v>
       </c>
     </row>
     <row r="819">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>985.9326680406161</v>
+        <v>974.446803850302</v>
       </c>
     </row>
     <row r="820">
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>934.5458965994486</v>
+        <v>906.1211684530224</v>
       </c>
     </row>
     <row r="821">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>1048.039123236098</v>
+        <v>1094.852775225795</v>
       </c>
     </row>
     <row r="822">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>1035.953461154797</v>
+        <v>946.4153977614517</v>
       </c>
     </row>
     <row r="823">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>884.5275935363184</v>
+        <v>917.1081913510442</v>
       </c>
     </row>
     <row r="824">
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>1061.765861170009</v>
+        <v>1092.683750269212</v>
       </c>
     </row>
     <row r="825">
@@ -8677,7 +8677,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>1023.912150840653</v>
+        <v>994.9914508665489</v>
       </c>
     </row>
     <row r="826">
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>1047.637106297828</v>
+        <v>1124.535324460346</v>
       </c>
     </row>
     <row r="827">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>970.6522040769764</v>
+        <v>986.3851300292746</v>
       </c>
     </row>
     <row r="828">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>1014.652046658511</v>
+        <v>936.8533728618806</v>
       </c>
     </row>
     <row r="829">
@@ -8717,7 +8717,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>973.8534793664325</v>
+        <v>963.8889310067452</v>
       </c>
     </row>
     <row r="830">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>1201.702398023926</v>
+        <v>1073.868902266942</v>
       </c>
     </row>
     <row r="831">
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>1023.996556508379</v>
+        <v>1032.93800798678</v>
       </c>
     </row>
     <row r="832">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>1136.562888915857</v>
+        <v>941.9648311261233</v>
       </c>
     </row>
     <row r="833">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>986.0917499166711</v>
+        <v>993.1710405786811</v>
       </c>
     </row>
     <row r="834">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>1071.845868773941</v>
+        <v>1060.05157430544</v>
       </c>
     </row>
     <row r="835">
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>945.1271778456656</v>
+        <v>1097.553548550284</v>
       </c>
     </row>
     <row r="836">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>1015.738052923116</v>
+        <v>1017.645650268992</v>
       </c>
     </row>
     <row r="837">
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>867.1938907147047</v>
+        <v>883.9846732282307</v>
       </c>
     </row>
     <row r="838">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>1141.052511343376</v>
+        <v>1123.382135367847</v>
       </c>
     </row>
     <row r="839">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>980.5049136794087</v>
+        <v>961.1648703801147</v>
       </c>
     </row>
     <row r="840">
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>1001.410910872724</v>
+        <v>1023.242140624881</v>
       </c>
     </row>
     <row r="841">
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>1004.586777499854</v>
+        <v>1040.685950592125</v>
       </c>
     </row>
     <row r="842">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>1078.000932348102</v>
+        <v>885.9322045837283</v>
       </c>
     </row>
     <row r="843">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>977.0899997483075</v>
+        <v>956.7000760893657</v>
       </c>
     </row>
     <row r="844">
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>1015.805564604435</v>
+        <v>992.7244087735593</v>
       </c>
     </row>
     <row r="845">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>914.6259555194637</v>
+        <v>1015.130693115335</v>
       </c>
     </row>
     <row r="846">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>1103.613864690508</v>
+        <v>1027.012077038417</v>
       </c>
     </row>
     <row r="847">
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>1113.301863465658</v>
+        <v>1085.140970560748</v>
       </c>
     </row>
     <row r="848">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>1157.571432205502</v>
+        <v>1131.94644346313</v>
       </c>
     </row>
     <row r="849">
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>912.7474250257987</v>
+        <v>997.642117695172</v>
       </c>
     </row>
     <row r="850">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>939.4959246705361</v>
+        <v>939.3420307946305</v>
       </c>
     </row>
     <row r="851">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>1027.554237892946</v>
+        <v>1016.276026710105</v>
       </c>
     </row>
     <row r="852">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>883.1569283559467</v>
+        <v>996.3020747899856</v>
       </c>
     </row>
     <row r="853">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>949.047592658535</v>
+        <v>950.5546479251366</v>
       </c>
     </row>
     <row r="854">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>1064.713376137422</v>
+        <v>1110.149765483567</v>
       </c>
     </row>
     <row r="855">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>880.8674998984383</v>
+        <v>1049.701557421674</v>
       </c>
     </row>
     <row r="856">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>1025.103565960296</v>
+        <v>965.8714416112342</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1084.242294408358</v>
+        <v>1077.302865864797</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1012.829575115333</v>
+        <v>1044.715592957454</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.856483328735</v>
+        <v>1154.857412844871</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.3989960719556</v>
+        <v>977.0119817014163</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1085.210316735372</v>
+        <v>1073.991179632317</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1112.537763870348</v>
+        <v>1039.339846933388</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1070.469241286234</v>
+        <v>1081.646736901188</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1019.253104900739</v>
+        <v>1052.158268510255</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>891.5384540656405</v>
+        <v>890.9895519964234</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1024.205616341965</v>
+        <v>1077.291527051625</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>997.0852284393399</v>
+        <v>1090.453569927215</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.54249500787</v>
+        <v>976.3989567549781</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913.630275324257</v>
+        <v>926.3668110927656</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875.3042091232319</v>
+        <v>882.578679731227</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.0945028025936</v>
+        <v>1015.976900986965</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>983.7454846062227</v>
+        <v>1010.098881392561</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>925.7646226497645</v>
+        <v>1004.922754518225</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.819881786596</v>
+        <v>1020.981142843998</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>981.529724287859</v>
+        <v>940.263884545871</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1109.934664052338</v>
+        <v>1118.125109244788</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>934.5861685852659</v>
+        <v>1008.806358757261</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>973.574206153056</v>
+        <v>994.1509250460184</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>900.0104515066089</v>
+        <v>935.3675995292303</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>998.9732597944023</v>
+        <v>1003.314842686281</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1006.971296147489</v>
+        <v>969.4095761098397</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1028.294266905583</v>
+        <v>937.2350815438274</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1012.852426273714</v>
+        <v>1066.733606042757</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>997.2806558906465</v>
+        <v>997.1508972887161</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>905.4833051251367</v>
+        <v>897.8683294727255</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1012.799757799923</v>
+        <v>1034.125767676745</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1037.107965150567</v>
+        <v>952.6607040100869</v>
       </c>
     </row>
     <row r="33">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>968.1665785964313</v>
+        <v>948.0586121812993</v>
       </c>
     </row>
     <row r="34">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.5340236885995</v>
+        <v>978.0626560443903</v>
       </c>
     </row>
     <row r="35">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>956.1376447688934</v>
+        <v>933.7294224025875</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>950.4582773067694</v>
+        <v>971.3115165558509</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>996.4389111509963</v>
+        <v>1005.21523551925</v>
       </c>
     </row>
     <row r="38">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>995.8503427103458</v>
+        <v>1030.079356878128</v>
       </c>
     </row>
     <row r="39">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1061.489636055739</v>
+        <v>1056.06769663795</v>
       </c>
     </row>
     <row r="40">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>980.5644472292535</v>
+        <v>901.3841964016679</v>
       </c>
     </row>
     <row r="41">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>951.0486252988927</v>
+        <v>938.8159243892868</v>
       </c>
     </row>
     <row r="42">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1035.50292091407</v>
+        <v>988.3598692264521</v>
       </c>
     </row>
     <row r="43">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.4499974590083</v>
+        <v>882.8448695268946</v>
       </c>
     </row>
     <row r="44">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1043.165341891981</v>
+        <v>1092.298629849712</v>
       </c>
     </row>
     <row r="45">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>986.2038684938951</v>
+        <v>1028.14400017142</v>
       </c>
     </row>
     <row r="46">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>968.815068666536</v>
+        <v>919.4332640069844</v>
       </c>
     </row>
     <row r="47">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>974.2968148097726</v>
+        <v>1001.542490463773</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1007.486646027876</v>
+        <v>973.2901132833042</v>
       </c>
     </row>
     <row r="49">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>936.0685490080702</v>
+        <v>979.8701345720086</v>
       </c>
     </row>
     <row r="50">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1020.19017626348</v>
+        <v>1067.738618986527</v>
       </c>
     </row>
     <row r="51">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>945.8542274275552</v>
+        <v>1012.626197199723</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1032.764392769703</v>
+        <v>941.0322015199399</v>
       </c>
     </row>
     <row r="53">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1054.021998362478</v>
+        <v>1062.011055054033</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>971.6624986644442</v>
+        <v>978.6701437775322</v>
       </c>
     </row>
     <row r="55">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>979.3446974695397</v>
+        <v>968.9957724070182</v>
       </c>
     </row>
     <row r="56">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>951.0763960294443</v>
+        <v>1016.668521357604</v>
       </c>
     </row>
     <row r="57">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1024.816177173792</v>
+        <v>1014.675236940611</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1009.985281960005</v>
+        <v>1006.742171305345</v>
       </c>
     </row>
     <row r="59">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>968.3011546349364</v>
+        <v>925.2192542371655</v>
       </c>
     </row>
     <row r="60">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1038.398651489707</v>
+        <v>932.9548542709931</v>
       </c>
     </row>
     <row r="61">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1092.621706553559</v>
+        <v>1020.940695771286</v>
       </c>
     </row>
     <row r="62">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>984.7350457935437</v>
+        <v>981.2764023401971</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>888.4576447801733</v>
+        <v>857.1599231160342</v>
       </c>
     </row>
     <row r="64">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1058.231592877295</v>
+        <v>1124.687444777068</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>989.0952188581919</v>
+        <v>963.150233593128</v>
       </c>
     </row>
     <row r="66">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1009.613404374886</v>
+        <v>1020.913445208398</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>980.6241171508077</v>
+        <v>938.3196976140118</v>
       </c>
     </row>
     <row r="68">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>992.4791781673782</v>
+        <v>1019.88692585876</v>
       </c>
     </row>
     <row r="69">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>975.1181020141591</v>
+        <v>996.5556381254986</v>
       </c>
     </row>
     <row r="70">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1021.99780477797</v>
+        <v>1025.230328390285</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>986.8361468664166</v>
+        <v>914.0564646871406</v>
       </c>
     </row>
     <row r="72">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1134.829782134252</v>
+        <v>1129.357756547377</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>985.1621971100346</v>
+        <v>970.1577002993722</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1028.216183611291</v>
+        <v>1010.286731637126</v>
       </c>
     </row>
     <row r="75">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>899.4981946620522</v>
+        <v>879.113841607454</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1030.743019434752</v>
+        <v>961.7873275958665</v>
       </c>
     </row>
     <row r="77">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1013.22202802761</v>
+        <v>1021.822352968879</v>
       </c>
     </row>
     <row r="78">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>993.6556011188376</v>
+        <v>1039.837559766188</v>
       </c>
     </row>
     <row r="79">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1140.238813633211</v>
+        <v>1120.177760418063</v>
       </c>
     </row>
     <row r="80">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>938.4719616039447</v>
+        <v>927.3514206034826</v>
       </c>
     </row>
     <row r="81">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>997.5697921566393</v>
+        <v>999.0817840028981</v>
       </c>
     </row>
     <row r="82">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>949.506194972897</v>
+        <v>994.1027004291467</v>
       </c>
     </row>
     <row r="83">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1057.635611705712</v>
+        <v>1053.596460904761</v>
       </c>
     </row>
     <row r="84">
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1074.973499382267</v>
+        <v>1043.350229375751</v>
       </c>
     </row>
     <row r="85">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1031.199877997783</v>
+        <v>1082.031679182357</v>
       </c>
     </row>
     <row r="86">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>935.6040712799111</v>
+        <v>934.8580721814332</v>
       </c>
     </row>
     <row r="87">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>970.7135103342021</v>
+        <v>938.5839163267092</v>
       </c>
     </row>
     <row r="88">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1081.460132213531</v>
+        <v>1041.200950616423</v>
       </c>
     </row>
     <row r="89">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1101.613861704943</v>
+        <v>1094.702996439749</v>
       </c>
     </row>
     <row r="90">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>945.8306015649621</v>
+        <v>889.8772007440156</v>
       </c>
     </row>
     <row r="91">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1136.749811644954</v>
+        <v>1143.687263024031</v>
       </c>
     </row>
     <row r="92">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>929.5822982631498</v>
+        <v>931.2343986474464</v>
       </c>
     </row>
     <row r="93">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1094.103848005873</v>
+        <v>1117.587732552915</v>
       </c>
     </row>
     <row r="94">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1003.506139890428</v>
+        <v>1031.765516777362</v>
       </c>
     </row>
     <row r="95">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>950.6585862918354</v>
+        <v>991.6654194733078</v>
       </c>
     </row>
     <row r="96">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>992.0461336226409</v>
+        <v>1033.275956467515</v>
       </c>
     </row>
     <row r="97">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1016.529484281206</v>
+        <v>1014.52633918235</v>
       </c>
     </row>
     <row r="98">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1011.709515140062</v>
+        <v>967.7896555758597</v>
       </c>
     </row>
     <row r="99">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1012.58971445489</v>
+        <v>1024.248971918603</v>
       </c>
     </row>
     <row r="100">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1002.196691045881</v>
+        <v>999.3405875795765</v>
       </c>
     </row>
     <row r="101">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1037.181555803583</v>
+        <v>1082.128769411625</v>
       </c>
     </row>
     <row r="102">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>960.9809520244108</v>
+        <v>993.6612256338694</v>
       </c>
     </row>
     <row r="103">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1088.233279100649</v>
+        <v>1171.907028578475</v>
       </c>
     </row>
     <row r="104">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>941.237336380124</v>
+        <v>919.6532562843996</v>
       </c>
     </row>
     <row r="105">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1005.923020687246</v>
+        <v>1050.578620466779</v>
       </c>
     </row>
     <row r="106">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>960.2398448374255</v>
+        <v>1002.331652606186</v>
       </c>
     </row>
     <row r="107">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>963.3318522557829</v>
+        <v>908.7008443271131</v>
       </c>
     </row>
     <row r="108">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>990.2628181928991</v>
+        <v>974.6156578884545</v>
       </c>
     </row>
     <row r="109">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1083.016539452853</v>
+        <v>1061.637275590265</v>
       </c>
     </row>
     <row r="110">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>987.9026954849842</v>
+        <v>978.7333149597015</v>
       </c>
     </row>
     <row r="111">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>892.1281319834311</v>
+        <v>921.5494719517899</v>
       </c>
     </row>
     <row r="112">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1010.3862576087</v>
+        <v>996.959642351585</v>
       </c>
     </row>
     <row r="113">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>930.8816973318293</v>
+        <v>919.1365970137178</v>
       </c>
     </row>
     <row r="114">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>961.878233108455</v>
+        <v>941.1095501140561</v>
       </c>
     </row>
     <row r="115">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>967.8176753429389</v>
+        <v>899.284390997802</v>
       </c>
     </row>
     <row r="116">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>989.9835246148082</v>
+        <v>972.9700496364071</v>
       </c>
     </row>
     <row r="117">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1018.097208186719</v>
+        <v>1000.612379206639</v>
       </c>
     </row>
     <row r="118">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>962.0146065016845</v>
+        <v>1045.90851748717</v>
       </c>
     </row>
     <row r="119">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1092.162005975138</v>
+        <v>1088.471780023748</v>
       </c>
     </row>
     <row r="120">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>911.0144754585016</v>
+        <v>931.8121202109575</v>
       </c>
     </row>
     <row r="121">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1020.787681849169</v>
+        <v>979.6238824118365</v>
       </c>
     </row>
     <row r="122">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1023.938225899897</v>
+        <v>970.5360194022153</v>
       </c>
     </row>
     <row r="123">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>984.7233826437985</v>
+        <v>1009.765496647718</v>
       </c>
     </row>
     <row r="124">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1012.882122004213</v>
+        <v>1084.726017825166</v>
       </c>
     </row>
     <row r="125">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>999.4581697533026</v>
+        <v>1000.762947208341</v>
       </c>
     </row>
     <row r="126">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>957.9729687897147</v>
+        <v>936.6587001702788</v>
       </c>
     </row>
     <row r="127">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>992.5737994573027</v>
+        <v>1007.271856137686</v>
       </c>
     </row>
     <row r="128">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1068.573627415372</v>
+        <v>1074.644468943991</v>
       </c>
     </row>
     <row r="129">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1026.283807054619</v>
+        <v>1011.36015570113</v>
       </c>
     </row>
     <row r="130">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>999.3655771173909</v>
+        <v>939.3284335483964</v>
       </c>
     </row>
     <row r="131">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1080.737637052495</v>
+        <v>1104.519650006159</v>
       </c>
     </row>
     <row r="132">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1078.299359127975</v>
+        <v>1108.362557991128</v>
       </c>
     </row>
     <row r="133">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>971.1681484240081</v>
+        <v>968.0475170429158</v>
       </c>
     </row>
     <row r="134">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>991.3550364821912</v>
+        <v>971.0102094972433</v>
       </c>
     </row>
     <row r="135">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>975.6440831247411</v>
+        <v>961.5302233134673</v>
       </c>
     </row>
     <row r="136">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1013.596237954446</v>
+        <v>999.8867174926324</v>
       </c>
     </row>
     <row r="137">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1026.018849736866</v>
+        <v>1079.086065905485</v>
       </c>
     </row>
     <row r="138">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>970.989338392522</v>
+        <v>1048.066865909949</v>
       </c>
     </row>
     <row r="139">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1000.537538260946</v>
+        <v>911.2158461418446</v>
       </c>
     </row>
     <row r="140">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1060.328703538413</v>
+        <v>1035.425491539944</v>
       </c>
     </row>
     <row r="141">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1089.825736023232</v>
+        <v>1094.382777644529</v>
       </c>
     </row>
     <row r="142">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>955.3902386882686</v>
+        <v>1021.857491527835</v>
       </c>
     </row>
     <row r="143">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>979.3407163499977</v>
+        <v>999.9427783599687</v>
       </c>
     </row>
     <row r="145">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>972.8569135655457</v>
+        <v>982.3145336665269</v>
       </c>
     </row>
     <row r="147">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>982.7866843251746</v>
+        <v>985.7525737668346</v>
       </c>
     </row>
     <row r="148">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1027.19473962678</v>
+        <v>1034.604349748009</v>
       </c>
     </row>
     <row r="149">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>991.9636056547191</v>
+        <v>947.4198720610912</v>
       </c>
     </row>
     <row r="150">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>905.0358357730247</v>
+        <v>894.7521656552924</v>
       </c>
     </row>
     <row r="151">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>948.9551031976209</v>
+        <v>888.2970947259291</v>
       </c>
     </row>
     <row r="153">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1032.802167579211</v>
+        <v>1040.533124248469</v>
       </c>
     </row>
     <row r="154">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1039.539711751781</v>
+        <v>1024.03832547016</v>
       </c>
     </row>
     <row r="155">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>911.4464822645853</v>
+        <v>929.7465002040083</v>
       </c>
     </row>
     <row r="156">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1003.582051667524</v>
+        <v>1022.271830835211</v>
       </c>
     </row>
     <row r="157">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>976.7244274681893</v>
+        <v>1048.167414483956</v>
       </c>
     </row>
     <row r="158">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1137.758307657703</v>
+        <v>1139.841888783628</v>
       </c>
     </row>
     <row r="159">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1031.227682955604</v>
+        <v>1019.17206975552</v>
       </c>
     </row>
     <row r="160">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1001.156492816537</v>
+        <v>1008.607858756854</v>
       </c>
     </row>
     <row r="161">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>920.5061507917285</v>
+        <v>1007.46917445798</v>
       </c>
     </row>
     <row r="162">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>921.4008668403804</v>
+        <v>922.3041347508773</v>
       </c>
     </row>
     <row r="163">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>983.524451537447</v>
+        <v>979.0723612104433</v>
       </c>
     </row>
     <row r="164">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>952.1807144821747</v>
+        <v>1013.369101934075</v>
       </c>
     </row>
     <row r="165">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>952.308678454433</v>
+        <v>975.2419469584963</v>
       </c>
     </row>
     <row r="166">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1028.272056111314</v>
+        <v>1000.319738382474</v>
       </c>
     </row>
     <row r="167">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>955.5118822462249</v>
+        <v>948.4641238518259</v>
       </c>
     </row>
     <row r="168">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>981.5503225983977</v>
+        <v>933.9210412577249</v>
       </c>
     </row>
     <row r="169">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1024.543889383044</v>
+        <v>1022.006968399514</v>
       </c>
     </row>
     <row r="170">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1051.439095698145</v>
+        <v>995.8489091544485</v>
       </c>
     </row>
     <row r="172">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>999.1220875894503</v>
+        <v>993.3561415518376</v>
       </c>
     </row>
     <row r="173">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>998.7253917173342</v>
+        <v>1057.383653657696</v>
       </c>
     </row>
     <row r="174">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1036.594086022528</v>
+        <v>1023.55709840817</v>
       </c>
     </row>
     <row r="175">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1005.347262727979</v>
+        <v>964.9021435595237</v>
       </c>
     </row>
     <row r="176">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1015.172982676391</v>
+        <v>1018.703532128582</v>
       </c>
     </row>
     <row r="177">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1060.22168897727</v>
+        <v>1084.654969184483</v>
       </c>
     </row>
     <row r="178">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>981.1335026599115</v>
+        <v>1024.518262630534</v>
       </c>
     </row>
     <row r="179">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1051.788897083988</v>
+        <v>1088.315654726191</v>
       </c>
     </row>
     <row r="180">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>978.6603940903875</v>
+        <v>920.5757715792453</v>
       </c>
     </row>
     <row r="181">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1032.315489980357</v>
+        <v>1050.606218742692</v>
       </c>
     </row>
     <row r="182">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1004.841014804051</v>
+        <v>1036.658914203034</v>
       </c>
     </row>
     <row r="183">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>880.5499597241424</v>
+        <v>914.0867704569873</v>
       </c>
     </row>
     <row r="184">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1047.585238731647</v>
+        <v>1009.361308618499</v>
       </c>
     </row>
     <row r="185">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1071.324484345688</v>
+        <v>1036.337720840093</v>
       </c>
     </row>
     <row r="186">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1076.874505752609</v>
+        <v>1072.249995676556</v>
       </c>
     </row>
     <row r="187">
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>991.6515457528252</v>
+        <v>989.4419898704036</v>
       </c>
     </row>
     <row r="188">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1041.725462258906</v>
+        <v>1079.211029990385</v>
       </c>
     </row>
     <row r="189">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1008.413511387519</v>
+        <v>1026.428489599178</v>
       </c>
     </row>
     <row r="190">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>999.8533605934623</v>
+        <v>987.2199063935312</v>
       </c>
     </row>
     <row r="191">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>993.573748831875</v>
+        <v>953.9491789963402</v>
       </c>
     </row>
     <row r="192">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>986.7634901620036</v>
+        <v>974.5080670934365</v>
       </c>
     </row>
     <row r="193">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>997.5367112212099</v>
+        <v>957.2703234281282</v>
       </c>
     </row>
     <row r="194">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1050.503972510075</v>
+        <v>1033.154654780144</v>
       </c>
     </row>
     <row r="195">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1015.185844280562</v>
+        <v>979.6581450262688</v>
       </c>
     </row>
     <row r="196">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>959.3417939495588</v>
+        <v>911.8858966191281</v>
       </c>
     </row>
     <row r="197">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>925.6080523292666</v>
+        <v>943.1273339082425</v>
       </c>
     </row>
     <row r="198">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>938.0160468669886</v>
+        <v>1011.471931842624</v>
       </c>
     </row>
     <row r="199">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>978.8916889818695</v>
+        <v>988.4762898333785</v>
       </c>
     </row>
     <row r="200">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>918.3356410892973</v>
+        <v>997.9093118507817</v>
       </c>
     </row>
     <row r="201">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>917.736925812686</v>
+        <v>917.8498024941396</v>
       </c>
     </row>
     <row r="202">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1042.22126940691</v>
+        <v>1055.152560208964</v>
       </c>
     </row>
     <row r="203">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>967.6221684522628</v>
+        <v>994.8811531069961</v>
       </c>
     </row>
     <row r="204">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1086.445618494285</v>
+        <v>1015.639764373214</v>
       </c>
     </row>
     <row r="205">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1023.767099605171</v>
+        <v>1010.237694202099</v>
       </c>
     </row>
     <row r="206">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1004.95249395003</v>
+        <v>1050.327375483571</v>
       </c>
     </row>
     <row r="207">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>973.3293031252542</v>
+        <v>923.8601985400936</v>
       </c>
     </row>
     <row r="208">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>930.3771144666999</v>
+        <v>914.6396916721138</v>
       </c>
     </row>
     <row r="209">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1055.31354622081</v>
+        <v>1058.273838280907</v>
       </c>
     </row>
     <row r="210">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1081.843479615851</v>
+        <v>1078.233978237246</v>
       </c>
     </row>
     <row r="211">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>954.5929216939674</v>
+        <v>939.1733635443558</v>
       </c>
     </row>
     <row r="213">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>959.4487558362347</v>
+        <v>854.9073102433091</v>
       </c>
     </row>
     <row r="214">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>943.5237756569389</v>
+        <v>947.5506536446591</v>
       </c>
     </row>
     <row r="215">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>960.5266841821548</v>
+        <v>956.3966905265829</v>
       </c>
     </row>
     <row r="216">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>984.1460565921944</v>
+        <v>996.3789442196182</v>
       </c>
     </row>
     <row r="217">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>929.0933596274948</v>
+        <v>908.4550066459728</v>
       </c>
     </row>
     <row r="218">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1032.608702553879</v>
+        <v>1023.062207122744</v>
       </c>
     </row>
     <row r="219">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>971.7999243086505</v>
+        <v>972.6187842471741</v>
       </c>
     </row>
     <row r="220">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1040.927578473748</v>
+        <v>974.8854934638537</v>
       </c>
     </row>
     <row r="221">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1012.807994201702</v>
+        <v>1024.024614197114</v>
       </c>
     </row>
     <row r="222">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>946.1069043363854</v>
+        <v>971.8332141229376</v>
       </c>
     </row>
     <row r="223">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>883.8328593478684</v>
+        <v>812.1559618474158</v>
       </c>
     </row>
     <row r="224">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1034.952114538682</v>
+        <v>1059.563255205532</v>
       </c>
     </row>
     <row r="225">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1040.459321446138</v>
+        <v>1118.530405349086</v>
       </c>
     </row>
     <row r="226">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>963.9558448614824</v>
+        <v>964.1324533878361</v>
       </c>
     </row>
     <row r="227">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>970.5234820480765</v>
+        <v>966.7415720238754</v>
       </c>
     </row>
     <row r="228">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>987.0995410086218</v>
+        <v>986.2148322611212</v>
       </c>
     </row>
     <row r="230">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>902.3337728817316</v>
+        <v>888.7463702589947</v>
       </c>
     </row>
     <row r="231">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>947.8010307926018</v>
+        <v>990.1446190167061</v>
       </c>
     </row>
     <row r="232">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1031.312496362498</v>
+        <v>1087.510155824106</v>
       </c>
     </row>
     <row r="233">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>967.5967683900316</v>
+        <v>982.4289788757196</v>
       </c>
     </row>
     <row r="234">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1084.416976350538</v>
+        <v>962.270738269033</v>
       </c>
     </row>
     <row r="235">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>971.286804050097</v>
+        <v>1040.914482029859</v>
       </c>
     </row>
     <row r="237">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1039.969525293458</v>
+        <v>1065.117476402278</v>
       </c>
     </row>
     <row r="239">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1087.255860254878</v>
+        <v>1151.320739439052</v>
       </c>
     </row>
     <row r="240">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1095.169735877543</v>
+        <v>1051.146545435915</v>
       </c>
     </row>
     <row r="241">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>974.7658614067335</v>
+        <v>977.6526551374243</v>
       </c>
     </row>
     <row r="242">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1016.920364237909</v>
+        <v>1025.914776309626</v>
       </c>
     </row>
     <row r="243">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>985.9359579127553</v>
+        <v>987.1592193010343</v>
       </c>
     </row>
     <row r="244">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>946.2352778821516</v>
+        <v>969.9086398608794</v>
       </c>
     </row>
     <row r="245">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>951.963225158359</v>
+        <v>954.9898551257337</v>
       </c>
     </row>
     <row r="246">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>960.6430410102337</v>
+        <v>960.4552999429958</v>
       </c>
     </row>
     <row r="247">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1093.634464838327</v>
+        <v>1066.016501385897</v>
       </c>
     </row>
     <row r="248">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>987.9294980906393</v>
+        <v>981.660829767583</v>
       </c>
     </row>
     <row r="249">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1016.04860610773</v>
+        <v>1034.887004650218</v>
       </c>
     </row>
     <row r="250">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1023.607393364091</v>
+        <v>993.2172173284392</v>
       </c>
     </row>
     <row r="251">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>964.6872902911518</v>
+        <v>991.2838838926034</v>
       </c>
     </row>
     <row r="252">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1002.354477300838</v>
+        <v>893.3887790433356</v>
       </c>
     </row>
     <row r="253">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>973.7254408007658</v>
+        <v>953.9085142719223</v>
       </c>
     </row>
     <row r="254">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1020.478478561068</v>
+        <v>1024.446353104709</v>
       </c>
     </row>
     <row r="255">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1017.08222265514</v>
+        <v>1016.197420052447</v>
       </c>
     </row>
     <row r="256">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>973.4192051386609</v>
+        <v>916.4323076997808</v>
       </c>
     </row>
     <row r="257">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1046.900874585221</v>
+        <v>1052.563336970789</v>
       </c>
     </row>
     <row r="258">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>937.7103378514485</v>
+        <v>930.4125379657119</v>
       </c>
     </row>
     <row r="259">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1036.571737497553</v>
+        <v>1016.743027045304</v>
       </c>
     </row>
     <row r="260">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1047.816934322441</v>
+        <v>1011.868905943911</v>
       </c>
     </row>
     <row r="261">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>991.3425160892921</v>
+        <v>975.0388181845473</v>
       </c>
     </row>
     <row r="262">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>985.8591205936548</v>
+        <v>985.0150249043445</v>
       </c>
     </row>
     <row r="263">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>905.3913453728836</v>
+        <v>968.5567884362534</v>
       </c>
     </row>
     <row r="264">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>968.5955522083714</v>
+        <v>971.2896948080595</v>
       </c>
     </row>
     <row r="265">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>983.4548032131373</v>
+        <v>984.9437880214002</v>
       </c>
     </row>
     <row r="266">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>978.8908360069909</v>
+        <v>983.613317607456</v>
       </c>
     </row>
     <row r="267">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>926.9463289483894</v>
+        <v>919.8602461462267</v>
       </c>
     </row>
     <row r="269">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1014.576538121674</v>
+        <v>1029.660173606537</v>
       </c>
     </row>
     <row r="270">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>980.1382763998442</v>
+        <v>979.9696865817024</v>
       </c>
     </row>
     <row r="271">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>970.1302038793124</v>
+        <v>938.0683556174616</v>
       </c>
     </row>
     <row r="272">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>978.3983714582192</v>
+        <v>980.3416776757318</v>
       </c>
     </row>
     <row r="273">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>984.1456910251376</v>
+        <v>986.4162773870777</v>
       </c>
     </row>
     <row r="274">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1013.822437223929</v>
+        <v>1016.278905368787</v>
       </c>
     </row>
     <row r="275">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>963.4394872433281</v>
+        <v>945.4108160638369</v>
       </c>
     </row>
     <row r="276">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1045.703862374158</v>
+        <v>1077.863193376891</v>
       </c>
     </row>
     <row r="277">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1020.140559743416</v>
+        <v>1024.757853472367</v>
       </c>
     </row>
     <row r="278">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1074.294062816788</v>
+        <v>1060.805871557081</v>
       </c>
     </row>
     <row r="279">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1005.551296076709</v>
+        <v>1041.09883156033</v>
       </c>
     </row>
     <row r="280">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>862.3699047154805</v>
+        <v>874.4446106865807</v>
       </c>
     </row>
     <row r="282">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1015.489190955545</v>
+        <v>1030.765715062197</v>
       </c>
     </row>
     <row r="283">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1015.166600340024</v>
+        <v>1020.279726924043</v>
       </c>
     </row>
     <row r="284">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>992.4667929532258</v>
+        <v>996.7549309946063</v>
       </c>
     </row>
     <row r="285">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1029.993189445782</v>
+        <v>1039.20112196834</v>
       </c>
     </row>
     <row r="286">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>987.1007357100774</v>
+        <v>993.1414757543425</v>
       </c>
     </row>
     <row r="287">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1021.424974140391</v>
+        <v>1031.242823441123</v>
       </c>
     </row>
     <row r="288">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1026.534996242562</v>
+        <v>1029.681669570844</v>
       </c>
     </row>
     <row r="290">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>975.0527982200407</v>
+        <v>1012.234835393339</v>
       </c>
     </row>
     <row r="291">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>989.7742738614287</v>
+        <v>959.6359904541162</v>
       </c>
     </row>
     <row r="292">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1015.501478085666</v>
+        <v>1015.379135881907</v>
       </c>
     </row>
     <row r="293">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>991.6401699740011</v>
+        <v>987.7453826582718</v>
       </c>
     </row>
     <row r="294">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1010.010435883503</v>
+        <v>952.3325845583186</v>
       </c>
     </row>
     <row r="295">
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>999.9928911629029</v>
+        <v>995.9850936058076</v>
       </c>
     </row>
     <row r="296">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>957.7373960329058</v>
+        <v>945.58166131538</v>
       </c>
     </row>
     <row r="297">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>989.1791281085685</v>
+        <v>976.3166833706669</v>
       </c>
     </row>
     <row r="298">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1038.233898395294</v>
+        <v>1041.511210584107</v>
       </c>
     </row>
     <row r="299">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1106.045517293324</v>
+        <v>1109.522923987689</v>
       </c>
     </row>
     <row r="300">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>968.9607045155775</v>
+        <v>965.6708951947695</v>
       </c>
     </row>
     <row r="303">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1025.953287502976</v>
+        <v>1022.763807779378</v>
       </c>
     </row>
     <row r="304">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1003.086932707304</v>
+        <v>1002.676366322461</v>
       </c>
     </row>
     <row r="305">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>997.16646948779</v>
+        <v>1058.029311550758</v>
       </c>
     </row>
     <row r="306">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>951.2153378151424</v>
+        <v>1006.195893878942</v>
       </c>
     </row>
     <row r="307">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>948.1784456746485</v>
+        <v>978.2996860712078</v>
       </c>
     </row>
     <row r="308">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>933.3951950566905</v>
+        <v>978.7393946099636</v>
       </c>
     </row>
     <row r="309">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>993.1761869386855</v>
+        <v>978.6589199394507</v>
       </c>
     </row>
     <row r="310">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>998.3929061314408</v>
+        <v>939.0361544702608</v>
       </c>
     </row>
     <row r="311">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>999.2473403343052</v>
+        <v>998.9656103132481</v>
       </c>
     </row>
     <row r="312">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1048.165986529273</v>
+        <v>1054.822744035264</v>
       </c>
     </row>
     <row r="313">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>928.5056466117608</v>
+        <v>890.8169285858048</v>
       </c>
     </row>
     <row r="314">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>932.7653039394237</v>
+        <v>911.9462717860339</v>
       </c>
     </row>
     <row r="315">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1159.713194662334</v>
+        <v>1128.909719868716</v>
       </c>
     </row>
     <row r="316">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>985.6412270930148</v>
+        <v>972.4031016659508</v>
       </c>
     </row>
     <row r="317">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1012.672047206928</v>
+        <v>1014.90400477341</v>
       </c>
     </row>
     <row r="318">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1031.00154304917</v>
+        <v>984.4537997494079</v>
       </c>
     </row>
     <row r="319">
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>986.3754909302924</v>
+        <v>968.3323665859198</v>
       </c>
     </row>
     <row r="320">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>994.3522178963709</v>
+        <v>979.9666188605596</v>
       </c>
     </row>
     <row r="321">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1050.027603840781</v>
+        <v>1001.323905560279</v>
       </c>
     </row>
     <row r="322">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>965.742703394554</v>
+        <v>960.2693313520315</v>
       </c>
     </row>
     <row r="323">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1033.517366209407</v>
+        <v>1102.679432176221</v>
       </c>
     </row>
     <row r="324">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1018.680731351943</v>
+        <v>1015.525727319887</v>
       </c>
     </row>
     <row r="325">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1028.619771065172</v>
+        <v>1041.325549329685</v>
       </c>
     </row>
     <row r="326">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>985.4683215717724</v>
+        <v>987.4023158575509</v>
       </c>
     </row>
     <row r="327">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>979.2822071749051</v>
+        <v>978.2202643195474</v>
       </c>
     </row>
     <row r="328">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>961.1450102398342</v>
+        <v>922.7149472899273</v>
       </c>
     </row>
     <row r="329">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1050.173091489585</v>
+        <v>1056.982094732433</v>
       </c>
     </row>
     <row r="330">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1036.431923564168</v>
+        <v>1004.360986248022</v>
       </c>
     </row>
     <row r="331">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>984.5786415995329</v>
+        <v>962.2095047009047</v>
       </c>
     </row>
     <row r="332">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1015.591424529875</v>
+        <v>1017.07625268421</v>
       </c>
     </row>
     <row r="333">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1048.664771063119</v>
+        <v>1042.942354122807</v>
       </c>
     </row>
     <row r="334">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1095.702619010573</v>
+        <v>1041.722518644004</v>
       </c>
     </row>
     <row r="335">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>965.1262255555687</v>
+        <v>936.7678919840115</v>
       </c>
     </row>
     <row r="336">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1002.997397022177</v>
+        <v>974.9103149467211</v>
       </c>
     </row>
     <row r="337">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>988.5503582226723</v>
+        <v>974.9756936878509</v>
       </c>
     </row>
     <row r="338">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1055.611449274825</v>
+        <v>1039.742401778023</v>
       </c>
     </row>
     <row r="339">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1013.03151254898</v>
+        <v>1017.998990448504</v>
       </c>
     </row>
     <row r="340">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>940.851808177295</v>
+        <v>913.1239312846851</v>
       </c>
     </row>
     <row r="341">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>905.846618435141</v>
+        <v>902.1369813551549</v>
       </c>
     </row>
     <row r="342">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>938.0411382544108</v>
+        <v>995.8983362549598</v>
       </c>
     </row>
     <row r="343">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>948.7003663922065</v>
+        <v>949.6964752877506</v>
       </c>
     </row>
     <row r="344">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1003.998997933451</v>
+        <v>1005.614904032748</v>
       </c>
     </row>
     <row r="345">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1011.71689199475</v>
+        <v>998.7040305841001</v>
       </c>
     </row>
     <row r="346">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>974.7199769259964</v>
+        <v>1038.237388152259</v>
       </c>
     </row>
     <row r="347">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1024.478420655979</v>
+        <v>1089.004187140811</v>
       </c>
     </row>
     <row r="348">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>838.2120454548882</v>
+        <v>864.9744603297685</v>
       </c>
     </row>
     <row r="349">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1010.79366060757</v>
+        <v>1011.33813004303</v>
       </c>
     </row>
     <row r="350">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1010.371554034277</v>
+        <v>1010.88453699524</v>
       </c>
     </row>
     <row r="351">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1068.164696728912</v>
+        <v>1086.769346335223</v>
       </c>
     </row>
     <row r="352">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1059.080705256974</v>
+        <v>1137.996383019487</v>
       </c>
     </row>
     <row r="353">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1037.137355036596</v>
+        <v>1046.330465565745</v>
       </c>
     </row>
     <row r="354">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1009.270720808339</v>
+        <v>1033.024893800743</v>
       </c>
     </row>
     <row r="355">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1014.766410710122</v>
+        <v>999.5570804218399</v>
       </c>
     </row>
     <row r="356">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1013.548242633586</v>
+        <v>1015.711213386321</v>
       </c>
     </row>
     <row r="357">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1052.886810446634</v>
+        <v>1118.245558197545</v>
       </c>
     </row>
     <row r="358">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>991.8404479848501</v>
+        <v>937.5577782133101</v>
       </c>
     </row>
     <row r="359">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1071.350401878055</v>
+        <v>1034.287674414657</v>
       </c>
     </row>
     <row r="360">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>952.945570770375</v>
+        <v>900.7007346037583</v>
       </c>
     </row>
     <row r="361">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1014.393497165683</v>
+        <v>1028.612021142611</v>
       </c>
     </row>
     <row r="362">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1025.619485381918</v>
+        <v>979.9356436540776</v>
       </c>
     </row>
     <row r="363">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>984.8367996341035</v>
+        <v>983.938659925951</v>
       </c>
     </row>
     <row r="364">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1037.547968501601</v>
+        <v>1037.275135048371</v>
       </c>
     </row>
     <row r="365">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1035.570749681676</v>
+        <v>1023.581568156007</v>
       </c>
     </row>
     <row r="366">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1005.091552294736</v>
+        <v>991.1063261666442</v>
       </c>
     </row>
     <row r="367">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>997.4335191223414</v>
+        <v>981.8289702882531</v>
       </c>
     </row>
     <row r="368">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1011.618845205776</v>
+        <v>1013.198382238017</v>
       </c>
     </row>
     <row r="369">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1002.113813113927</v>
+        <v>980.9857748973749</v>
       </c>
     </row>
     <row r="370">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>999.2911108550669</v>
+        <v>985.6605225933203</v>
       </c>
     </row>
     <row r="371">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1045.323278093514</v>
+        <v>1080.776108181339</v>
       </c>
     </row>
     <row r="372">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1090.227036238863</v>
+        <v>1149.107436851714</v>
       </c>
     </row>
     <row r="375">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1077.455374094167</v>
+        <v>1105.260421083282</v>
       </c>
     </row>
     <row r="376">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>908.7972752057819</v>
+        <v>885.4907320755458</v>
       </c>
     </row>
     <row r="377">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1022.650663412997</v>
+        <v>974.6059778989111</v>
       </c>
     </row>
     <row r="378">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>985.5127003766434</v>
+        <v>969.2161144723577</v>
       </c>
     </row>
     <row r="379">
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1004.58244023596</v>
+        <v>1005.427938445602</v>
       </c>
     </row>
     <row r="380">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1002.186265819617</v>
+        <v>987.7309583675541</v>
       </c>
     </row>
     <row r="381">
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1075.302771898316</v>
+        <v>1045.405345232014</v>
       </c>
     </row>
     <row r="382">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>997.6497667600011</v>
+        <v>1000.244954223426</v>
       </c>
     </row>
     <row r="383">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1062.722165004081</v>
+        <v>1028.756838822098</v>
       </c>
     </row>
     <row r="384">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1118.561192942111</v>
+        <v>1106.453361468612</v>
       </c>
     </row>
     <row r="385">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>982.9683040940357</v>
+        <v>980.1484477449872</v>
       </c>
     </row>
     <row r="386">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>958.0629711420224</v>
+        <v>957.1577242648411</v>
       </c>
     </row>
     <row r="387">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1013.065389866143</v>
+        <v>1039.873717405397</v>
       </c>
     </row>
     <row r="388">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>978.8072407554455</v>
+        <v>949.5435336368954</v>
       </c>
     </row>
     <row r="389">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1048.664677423636</v>
+        <v>1028.638158818321</v>
       </c>
     </row>
     <row r="390">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>996.3269494374434</v>
+        <v>1008.366255563911</v>
       </c>
     </row>
     <row r="391">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>981.9259536926193</v>
+        <v>984.0687015719127</v>
       </c>
     </row>
     <row r="392">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1017.637433943887</v>
+        <v>1031.47898022409</v>
       </c>
     </row>
     <row r="393">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1004.977715401349</v>
+        <v>1002.238907211961</v>
       </c>
     </row>
     <row r="394">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1020.722319254875</v>
+        <v>1006.954036419572</v>
       </c>
     </row>
     <row r="396">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1038.59605826875</v>
+        <v>1037.320045111182</v>
       </c>
     </row>
     <row r="397">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>957.3511767470251</v>
+        <v>942.5892367309594</v>
       </c>
     </row>
     <row r="398">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1069.380359710245</v>
+        <v>1065.133931590201</v>
       </c>
     </row>
     <row r="399">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>970.8287644475373</v>
+        <v>947.0954752171314</v>
       </c>
     </row>
     <row r="400">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1024.590299519502</v>
+        <v>1032.649026362746</v>
       </c>
     </row>
     <row r="401">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>958.158868925958</v>
+        <v>928.2221957846908</v>
       </c>
     </row>
     <row r="403">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>977.6697161337205</v>
+        <v>962.0654095310492</v>
       </c>
     </row>
     <row r="404">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>930.1569720979523</v>
+        <v>1016.664434112907</v>
       </c>
     </row>
     <row r="405">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1058.874441094144</v>
+        <v>1051.699229572865</v>
       </c>
     </row>
     <row r="406">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>919.6586095702687</v>
+        <v>881.0928696277562</v>
       </c>
     </row>
     <row r="407">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>975.8412906490681</v>
+        <v>961.5230797084938</v>
       </c>
     </row>
     <row r="408">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1030.007823871537</v>
+        <v>1014.511756783986</v>
       </c>
     </row>
     <row r="409">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1029.588332053323</v>
+        <v>982.4091695534355</v>
       </c>
     </row>
     <row r="410">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>991.2374243103836</v>
+        <v>994.3220662823579</v>
       </c>
     </row>
     <row r="412">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1017.249252580262</v>
+        <v>1030.626569081137</v>
       </c>
     </row>
     <row r="413">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>998.0662565089475</v>
+        <v>992.0341252981668</v>
       </c>
     </row>
     <row r="414">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1008.212064412505</v>
+        <v>996.5829310772884</v>
       </c>
     </row>
     <row r="415">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>988.7776316319573</v>
+        <v>991.0831938169891</v>
       </c>
     </row>
     <row r="416">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>995.5868387680541</v>
+        <v>978.7567345054293</v>
       </c>
     </row>
     <row r="419">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>993.7512369764615</v>
+        <v>1111.574356358772</v>
       </c>
     </row>
     <row r="420">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1003.382922577249</v>
+        <v>984.9151089216585</v>
       </c>
     </row>
     <row r="421">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1013.469823365432</v>
+        <v>1011.266924758189</v>
       </c>
     </row>
     <row r="422">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>988.3151839208219</v>
+        <v>990.4005300371682</v>
       </c>
     </row>
     <row r="424">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1008.812863478505</v>
+        <v>1001.562809104062</v>
       </c>
     </row>
     <row r="425">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1001.071775065303</v>
+        <v>1006.20121796236</v>
       </c>
     </row>
     <row r="426">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1027.57819545038</v>
+        <v>1036.649064070695</v>
       </c>
     </row>
     <row r="427">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1001.01182640698</v>
+        <v>987.4199540205746</v>
       </c>
     </row>
     <row r="428">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1017.012147550078</v>
+        <v>1105.507679732275</v>
       </c>
     </row>
     <row r="429">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>976.7565398376323</v>
+        <v>968.1997936765543</v>
       </c>
     </row>
     <row r="430">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>991.2277241276435</v>
+        <v>1062.071747205848</v>
       </c>
     </row>
     <row r="431">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>984.4091847629544</v>
+        <v>985.4884146604835</v>
       </c>
     </row>
     <row r="432">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>997.8818136539094</v>
+        <v>979.4762093637225</v>
       </c>
     </row>
     <row r="433">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>974.925003535664</v>
+        <v>967.0786152063724</v>
       </c>
     </row>
     <row r="434">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1014.710899576633</v>
+        <v>1003.335599994977</v>
       </c>
     </row>
     <row r="435">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1050.095020567073</v>
+        <v>1070.094707761371</v>
       </c>
     </row>
     <row r="436">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>953.4446029502069</v>
+        <v>864.7539939008623</v>
       </c>
     </row>
     <row r="437">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>963.881055551215</v>
+        <v>958.2808655211934</v>
       </c>
     </row>
     <row r="438">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>982.5738252871979</v>
+        <v>972.7368061097451</v>
       </c>
     </row>
     <row r="439">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1065.764336465472</v>
+        <v>1064.516909730279</v>
       </c>
     </row>
     <row r="440">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1000.526994530699</v>
+        <v>1042.324080572232</v>
       </c>
     </row>
     <row r="441">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1067.338742729569</v>
+        <v>1080.184806090104</v>
       </c>
     </row>
     <row r="442">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>993.8545341980955</v>
+        <v>1003.112551430526</v>
       </c>
     </row>
     <row r="443">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1001.53489940171</v>
+        <v>1005.758744243331</v>
       </c>
     </row>
     <row r="447">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>986.4400664594626</v>
+        <v>971.3942239326636</v>
       </c>
     </row>
     <row r="448">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>902.3276591844404</v>
+        <v>979.7870025773116</v>
       </c>
     </row>
     <row r="451">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>978.9309612860874</v>
+        <v>982.4747344465897</v>
       </c>
     </row>
     <row r="453">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>998.7847558608296</v>
+        <v>985.1045016008369</v>
       </c>
     </row>
     <row r="454">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>979.4764236059665</v>
+        <v>977.3601016653834</v>
       </c>
     </row>
     <row r="455">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1027.546401928722</v>
+        <v>1011.952543564192</v>
       </c>
     </row>
     <row r="456">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1024.853074312415</v>
+        <v>1080.524166004814</v>
       </c>
     </row>
     <row r="457">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>871.8492305903156</v>
+        <v>889.3671353240395</v>
       </c>
     </row>
     <row r="458">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>995.4509148820398</v>
+        <v>983.1656905800845</v>
       </c>
     </row>
     <row r="459">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>979.6359423172329</v>
+        <v>983.9045162544012</v>
       </c>
     </row>
     <row r="460">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>985.6020375218278</v>
+        <v>1002.990439175066</v>
       </c>
     </row>
     <row r="461">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1025.044659661218</v>
+        <v>1035.782259366121</v>
       </c>
     </row>
     <row r="462">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>980.5491120963386</v>
+        <v>968.9085064990329</v>
       </c>
     </row>
     <row r="463">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1026.475992505679</v>
+        <v>1011.149256429517</v>
       </c>
     </row>
     <row r="464">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1011.4796900051</v>
+        <v>1018.590068737239</v>
       </c>
     </row>
     <row r="465">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>966.7037258418687</v>
+        <v>959.6750024560994</v>
       </c>
     </row>
     <row r="466">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>984.3070070859939</v>
+        <v>971.1523745164768</v>
       </c>
     </row>
     <row r="467">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1013.447844878151</v>
+        <v>1017.916667917447</v>
       </c>
     </row>
     <row r="468">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1014.262572421639</v>
+        <v>1002.463132823903</v>
       </c>
     </row>
     <row r="469">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>997.4925728869599</v>
+        <v>1002.492562969582</v>
       </c>
     </row>
     <row r="470">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>983.952264112167</v>
+        <v>986.5374594500253</v>
       </c>
     </row>
     <row r="471">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1000.692851741375</v>
+        <v>984.6424852924273</v>
       </c>
     </row>
     <row r="472">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>989.6526469663291</v>
+        <v>991.3289559655709</v>
       </c>
     </row>
     <row r="473">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>982.6058775399721</v>
+        <v>981.5573667071096</v>
       </c>
     </row>
     <row r="475">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>983.3669545991288</v>
+        <v>982.3547939680708</v>
       </c>
     </row>
     <row r="476">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>944.9023811668519</v>
+        <v>1025.33725287547</v>
       </c>
     </row>
     <row r="477">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>980.0750886849537</v>
+        <v>1009.603957662198</v>
       </c>
     </row>
     <row r="478">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1009.507055488054</v>
+        <v>1017.466670055292</v>
       </c>
     </row>
     <row r="479">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>857.1549197729513</v>
+        <v>846.1747160879215</v>
       </c>
     </row>
     <row r="480">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1091.317329989806</v>
+        <v>1048.818916792347</v>
       </c>
     </row>
     <row r="481">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1006.681279158898</v>
+        <v>987.266703424266</v>
       </c>
     </row>
     <row r="482">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>968.6455549919377</v>
+        <v>994.6207234912301</v>
       </c>
     </row>
     <row r="483">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>923.6188779722058</v>
+        <v>960.4836551134277</v>
       </c>
     </row>
     <row r="484">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1020.512287857674</v>
+        <v>1009.678660231407</v>
       </c>
     </row>
     <row r="485">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1020.928219536955</v>
+        <v>1008.443366168545</v>
       </c>
     </row>
     <row r="486">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>984.8310772364181</v>
+        <v>987.2375810222289</v>
       </c>
     </row>
     <row r="487">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>932.3197490703686</v>
+        <v>939.9761031007787</v>
       </c>
     </row>
     <row r="488">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>966.5166337413623</v>
+        <v>949.7186739815387</v>
       </c>
     </row>
     <row r="489">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>995.4848879658107</v>
+        <v>997.1459465730132</v>
       </c>
     </row>
     <row r="491">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>980.6363663954317</v>
+        <v>982.383756181722</v>
       </c>
     </row>
     <row r="492">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1003.057727160254</v>
+        <v>987.0580654127789</v>
       </c>
     </row>
     <row r="493">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>997.57955304197</v>
+        <v>983.9007626129859</v>
       </c>
     </row>
     <row r="494">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>985.4940255159083</v>
+        <v>987.7725252891618</v>
       </c>
     </row>
     <row r="495">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>974.3579138753403</v>
+        <v>958.1618739669781</v>
       </c>
     </row>
     <row r="496">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>985.9753287951004</v>
+        <v>988.7013173276583</v>
       </c>
     </row>
     <row r="497">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>900.0081243483569</v>
+        <v>905.0093519766723</v>
       </c>
     </row>
     <row r="498">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>975.163802225965</v>
+        <v>973.7409643776278</v>
       </c>
     </row>
     <row r="499">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1047.471142887465</v>
+        <v>1135.55926939275</v>
       </c>
     </row>
     <row r="500">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1029.041966878339</v>
+        <v>1026.209343346062</v>
       </c>
     </row>
     <row r="501">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1000.063754745618</v>
+        <v>986.1698654602677</v>
       </c>
     </row>
     <row r="502">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1002.205264200584</v>
+        <v>1075.560845463545</v>
       </c>
     </row>
     <row r="503">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1023.018788726263</v>
+        <v>988.2078304358193</v>
       </c>
     </row>
     <row r="504">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1000.026550508187</v>
+        <v>984.6271947768266</v>
       </c>
     </row>
     <row r="505">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1000.02538412226</v>
+        <v>985.3001129486179</v>
       </c>
     </row>
     <row r="506">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1032.285690182606</v>
+        <v>998.807185116595</v>
       </c>
     </row>
     <row r="507">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>997.7818651799777</v>
+        <v>1016.183193262012</v>
       </c>
     </row>
     <row r="508">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1002.188688817331</v>
+        <v>994.5174097661204</v>
       </c>
     </row>
     <row r="509">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>981.234554742546</v>
+        <v>983.464574953704</v>
       </c>
     </row>
     <row r="510">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>778.9325438082642</v>
+        <v>767.9741834570559</v>
       </c>
     </row>
     <row r="511">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>891.2658413345745</v>
+        <v>894.7737601164757</v>
       </c>
     </row>
     <row r="512">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>991.2339397677631</v>
+        <v>1003.289931020656</v>
       </c>
     </row>
     <row r="514">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>915.3328499513342</v>
+        <v>953.1045951373178</v>
       </c>
     </row>
     <row r="515">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>984.4483811852475</v>
+        <v>984.5150668479948</v>
       </c>
     </row>
     <row r="516">
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>972.6930116648811</v>
+        <v>973.0945169011845</v>
       </c>
     </row>
     <row r="517">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1123.519196570507</v>
+        <v>1122.114488496123</v>
       </c>
     </row>
     <row r="518">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1032.069050382178</v>
+        <v>1017.388915772532</v>
       </c>
     </row>
     <row r="519">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1029.85696596567</v>
+        <v>1081.430568390342</v>
       </c>
     </row>
     <row r="520">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>981.0351549647821</v>
+        <v>1098.504510560105</v>
       </c>
     </row>
     <row r="521">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1009.017699605134</v>
+        <v>1082.662507856415</v>
       </c>
     </row>
     <row r="522">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1081.451201015838</v>
+        <v>1070.417566408988</v>
       </c>
     </row>
     <row r="523">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1031.197686026727</v>
+        <v>1016.395493793778</v>
       </c>
     </row>
     <row r="524">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>973.4208474267127</v>
+        <v>960.3582987209888</v>
       </c>
     </row>
     <row r="525">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1001.141657243914</v>
+        <v>983.8233804755481</v>
       </c>
     </row>
     <row r="527">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>966.0802516197208</v>
+        <v>953.0930942844772</v>
       </c>
     </row>
     <row r="528">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1001.045925043386</v>
+        <v>977.6373571443114</v>
       </c>
     </row>
     <row r="529">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1006.748230659189</v>
+        <v>996.5553078298658</v>
       </c>
     </row>
     <row r="530">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>923.126502647219</v>
+        <v>955.2791852302053</v>
       </c>
     </row>
     <row r="531">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1013.504477147869</v>
+        <v>1014.144166843552</v>
       </c>
     </row>
     <row r="532">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1006.42407059775</v>
+        <v>1005.144210762672</v>
       </c>
     </row>
     <row r="533">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>986.681086119358</v>
+        <v>974.7708029917644</v>
       </c>
     </row>
     <row r="534">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1022.082712323238</v>
+        <v>1000.905326283862</v>
       </c>
     </row>
     <row r="535">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>990.3559712373598</v>
+        <v>989.0936744161182</v>
       </c>
     </row>
     <row r="536">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1027.082662474032</v>
+        <v>1029.951480278813</v>
       </c>
     </row>
     <row r="537">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>966.1725459204999</v>
+        <v>955.3129411191181</v>
       </c>
     </row>
     <row r="538">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>967.1911801487312</v>
+        <v>949.8788456582514</v>
       </c>
     </row>
     <row r="539">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>951.980618560483</v>
+        <v>938.2968167026165</v>
       </c>
     </row>
     <row r="540">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>989.8216335822747</v>
+        <v>988.5764369666697</v>
       </c>
     </row>
     <row r="541">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>989.4129310801949</v>
+        <v>981.1362617912089</v>
       </c>
     </row>
     <row r="542">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1013.151629443277</v>
+        <v>990.5244247322067</v>
       </c>
     </row>
     <row r="543">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1000.499573489174</v>
+        <v>990.717427858695</v>
       </c>
     </row>
     <row r="544">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1017.754528563458</v>
+        <v>1018.100026058103</v>
       </c>
     </row>
     <row r="545">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1015.266363936677</v>
+        <v>1014.08101517027</v>
       </c>
     </row>
     <row r="546">
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>998.5986296683858</v>
+        <v>997.4738628721182</v>
       </c>
     </row>
     <row r="548">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>952.1260629011393</v>
+        <v>945.4791113515834</v>
       </c>
     </row>
     <row r="549">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>970.1798531133097</v>
+        <v>960.7711556316667</v>
       </c>
     </row>
     <row r="551">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>987.0828265634764</v>
+        <v>991.589737144886</v>
       </c>
     </row>
     <row r="552">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1032.823263203675</v>
+        <v>1037.666879261443</v>
       </c>
     </row>
     <row r="553">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>987.6264431965548</v>
+        <v>991.8760810086779</v>
       </c>
     </row>
     <row r="554">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1013.612335932042</v>
+        <v>1013.494964135854</v>
       </c>
     </row>
     <row r="555">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>952.7338794584705</v>
+        <v>1012.136992817788</v>
       </c>
     </row>
     <row r="556">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1011.644442334608</v>
+        <v>995.4993619030744</v>
       </c>
     </row>
     <row r="557">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>977.5823657300162</v>
+        <v>978.4325110305917</v>
       </c>
     </row>
     <row r="558">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1014.12642525102</v>
+        <v>1016.013384672042</v>
       </c>
     </row>
     <row r="559">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1025.638558322619</v>
+        <v>1004.981844665529</v>
       </c>
     </row>
     <row r="560">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1035.869011763598</v>
+        <v>1010.2915180333</v>
       </c>
     </row>
     <row r="561">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1010.764689703251</v>
+        <v>999.4780801640335</v>
       </c>
     </row>
     <row r="562">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>997.5488008626061</v>
+        <v>972.1477350238879</v>
       </c>
     </row>
     <row r="563">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1012.895342685163</v>
+        <v>1009.113932492441</v>
       </c>
     </row>
     <row r="564">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>994.9522440165664</v>
+        <v>982.733855868243</v>
       </c>
     </row>
     <row r="565">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1013.202569523011</v>
+        <v>1013.016019610506</v>
       </c>
     </row>
     <row r="566">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1008.838168828279</v>
+        <v>1011.759915892125</v>
       </c>
     </row>
     <row r="567">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>977.7701361247971</v>
+        <v>946.8026685984248</v>
       </c>
     </row>
     <row r="568">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1015.173116601212</v>
+        <v>1014.426904817295</v>
       </c>
     </row>
     <row r="569">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>982.5099615511637</v>
+        <v>981.8015763447148</v>
       </c>
     </row>
     <row r="570">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>987.3487599480179</v>
+        <v>991.3154849917322</v>
       </c>
     </row>
     <row r="571">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>987.8774477555119</v>
+        <v>991.6170452737156</v>
       </c>
     </row>
     <row r="572">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>982.0726260929065</v>
+        <v>983.8541224329025</v>
       </c>
     </row>
     <row r="573">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>985.7982763577278</v>
+        <v>984.1701253612838</v>
       </c>
     </row>
     <row r="575">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1031.285241290113</v>
+        <v>1072.270543498219</v>
       </c>
     </row>
     <row r="579">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1011.138832924117</v>
+        <v>1098.947451103203</v>
       </c>
     </row>
     <row r="580">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1125.990860523433</v>
+        <v>1207.534665157384</v>
       </c>
     </row>
     <row r="581">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1061.248113331167</v>
+        <v>1063.551067104344</v>
       </c>
     </row>
     <row r="582">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1003.097249042854</v>
+        <v>967.4614402744922</v>
       </c>
     </row>
     <row r="583">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1010.732276128049</v>
+        <v>1013.034999926918</v>
       </c>
     </row>
     <row r="584">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1013.948112384998</v>
+        <v>1018.758685212094</v>
       </c>
     </row>
     <row r="585">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>983.0180390429958</v>
+        <v>983.165709222268</v>
       </c>
     </row>
     <row r="588">
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1010.42253430926</v>
+        <v>1011.940927240365</v>
       </c>
     </row>
     <row r="590">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>890.1653688108526</v>
+        <v>901.4600862637107</v>
       </c>
     </row>
     <row r="591">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>996.3274719544523</v>
+        <v>960.562393742832</v>
       </c>
     </row>
     <row r="592">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1011.759551574857</v>
+        <v>1011.061995495177</v>
       </c>
     </row>
     <row r="593">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1027.061279700698</v>
+        <v>1034.45622473497</v>
       </c>
     </row>
     <row r="594">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1066.353477000009</v>
+        <v>1057.515660217814</v>
       </c>
     </row>
     <row r="595">
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1011.38029561163</v>
+        <v>1001.847486170681</v>
       </c>
     </row>
     <row r="596">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1011.775762865839</v>
+        <v>1012.528103115191</v>
       </c>
     </row>
     <row r="597">
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>982.1456395775192</v>
+        <v>963.0281694256622</v>
       </c>
     </row>
     <row r="598">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>996.2379716570709</v>
+        <v>1005.883153203474</v>
       </c>
     </row>
     <row r="599">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>994.9483317085177</v>
+        <v>995.1003672866817</v>
       </c>
     </row>
     <row r="600">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1000.050379690052</v>
+        <v>998.9245300931668</v>
       </c>
     </row>
     <row r="601">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1003.585589359842</v>
+        <v>1007.101932470273</v>
       </c>
     </row>
     <row r="602">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1006.574246199006</v>
+        <v>1013.18022260065</v>
       </c>
     </row>
     <row r="603">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>987.1582223495379</v>
+        <v>990.3628465938781</v>
       </c>
     </row>
     <row r="604">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>987.6976192822605</v>
+        <v>990.7182888866612</v>
       </c>
     </row>
     <row r="605">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1004.206549012553</v>
+        <v>991.0534691546303</v>
       </c>
     </row>
     <row r="606">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1004.033455554099</v>
+        <v>991.3697053221757</v>
       </c>
     </row>
     <row r="607">
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1021.853602935985</v>
+        <v>1023.756720274916</v>
       </c>
     </row>
     <row r="608">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1043.598909374113</v>
+        <v>1041.018233046716</v>
       </c>
     </row>
     <row r="609">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1073.669384659004</v>
+        <v>1047.082946273054</v>
       </c>
     </row>
     <row r="610">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>987.0852508567378</v>
+        <v>1021.805221674038</v>
       </c>
     </row>
     <row r="611">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>973.5985515582654</v>
+        <v>957.1935606616945</v>
       </c>
     </row>
     <row r="612">
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1039.950859939222</v>
+        <v>1025.380263114681</v>
       </c>
     </row>
     <row r="613">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>976.4057027545597</v>
+        <v>969.9942082121254</v>
       </c>
     </row>
     <row r="614">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1018.553358020058</v>
+        <v>1009.647577698519</v>
       </c>
     </row>
     <row r="615">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>995.6618785058698</v>
+        <v>997.5503341254243</v>
       </c>
     </row>
     <row r="616">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1002.022875878595</v>
+        <v>992.4301196849356</v>
       </c>
     </row>
     <row r="617">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>996.0110621556587</v>
+        <v>997.7566205346326</v>
       </c>
     </row>
     <row r="618">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1003.445319199704</v>
+        <v>1003.746251275789</v>
       </c>
     </row>
     <row r="619">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1001.234562597154</v>
+        <v>999.110299336404</v>
       </c>
     </row>
     <row r="620">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1101.755570932897</v>
+        <v>1170.367854848665</v>
       </c>
     </row>
     <row r="621">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>981.5478674163298</v>
+        <v>980.9028578536852</v>
       </c>
     </row>
     <row r="622">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1003.280654416185</v>
+        <v>1006.474763829963</v>
       </c>
     </row>
     <row r="623">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1022.621447576822</v>
+        <v>999.7685642118824</v>
       </c>
     </row>
     <row r="624">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1010.674750271504</v>
+        <v>1013.944700187382</v>
       </c>
     </row>
     <row r="625">
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>971.789743690348</v>
+        <v>963.6549797516933</v>
       </c>
     </row>
     <row r="626">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>977.3145070718238</v>
+        <v>953.1404191051607</v>
       </c>
     </row>
     <row r="627">
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1029.178883419538</v>
+        <v>960.5585172563675</v>
       </c>
     </row>
     <row r="628">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>960.8945300605354</v>
+        <v>1049.106394391867</v>
       </c>
     </row>
     <row r="629">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1037.935395851893</v>
+        <v>1035.236853467703</v>
       </c>
     </row>
     <row r="630">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1014.699365193579</v>
+        <v>1018.860472538667</v>
       </c>
     </row>
     <row r="631">
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>977.3094931982656</v>
+        <v>957.6307258687651</v>
       </c>
     </row>
     <row r="632">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>997.6694607807863</v>
+        <v>986.1931907344356</v>
       </c>
     </row>
     <row r="633">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>997.6689725389017</v>
+        <v>979.2499998891764</v>
       </c>
     </row>
     <row r="634">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>929.4392760463513</v>
+        <v>941.0899928025225</v>
       </c>
     </row>
     <row r="635">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1001.461047844056</v>
+        <v>986.5210719005663</v>
       </c>
     </row>
     <row r="637">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>983.8902222361619</v>
+        <v>965.7180609269186</v>
       </c>
     </row>
     <row r="638">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>999.1028521408468</v>
+        <v>982.8634960729904</v>
       </c>
     </row>
     <row r="639">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1018.950576719914</v>
+        <v>1023.906796865888</v>
       </c>
     </row>
     <row r="640">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1015.072640723334</v>
+        <v>1017.813272296362</v>
       </c>
     </row>
     <row r="641">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1037.68022906669</v>
+        <v>1035.223343014026</v>
       </c>
     </row>
     <row r="642">
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>967.3873681611077</v>
+        <v>1003.8717980726</v>
       </c>
     </row>
     <row r="643">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1160.682548423157</v>
+        <v>1138.413771794211</v>
       </c>
     </row>
     <row r="644">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1032.111701661934</v>
+        <v>1017.681307463183</v>
       </c>
     </row>
     <row r="645">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>979.38553325701</v>
+        <v>978.0464352528498</v>
       </c>
     </row>
     <row r="646">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>995.7677940180617</v>
+        <v>981.40612734016</v>
       </c>
     </row>
     <row r="647">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>999.1518065943953</v>
+        <v>996.6718803083746</v>
       </c>
     </row>
     <row r="648">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1165.773364430726</v>
+        <v>1160.707649986733</v>
       </c>
     </row>
     <row r="649">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>981.8572961379916</v>
+        <v>941.1142464244393</v>
       </c>
     </row>
     <row r="650">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>999.5937785070805</v>
+        <v>998.4164774743692</v>
       </c>
     </row>
     <row r="651">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1029.715071226065</v>
+        <v>1013.493114657243</v>
       </c>
     </row>
     <row r="652">
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>987.2146573632476</v>
+        <v>951.5852890594873</v>
       </c>
     </row>
     <row r="653">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1021.719351861472</v>
+        <v>1029.651828897963</v>
       </c>
     </row>
     <row r="655">
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>937.6171732350909</v>
+        <v>946.0756086998679</v>
       </c>
     </row>
     <row r="656">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1023.805954460031</v>
+        <v>999.3895711788984</v>
       </c>
     </row>
     <row r="657">
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1002.624292955865</v>
+        <v>1001.154050360422</v>
       </c>
     </row>
     <row r="658">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1034.615483503141</v>
+        <v>1032.382878674783</v>
       </c>
     </row>
     <row r="659">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1033.344062747584</v>
+        <v>1031.959406245548</v>
       </c>
     </row>
     <row r="660">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1021.30680130655</v>
+        <v>1010.812245278343</v>
       </c>
     </row>
     <row r="661">
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1074.584042750872</v>
+        <v>1062.025443174183</v>
       </c>
     </row>
     <row r="662">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>971.3599017206826</v>
+        <v>969.9851118422723</v>
       </c>
     </row>
     <row r="663">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1015.314652589011</v>
+        <v>1014.906437704306</v>
       </c>
     </row>
     <row r="664">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1073.665975302998</v>
+        <v>1128.365938567885</v>
       </c>
     </row>
     <row r="665">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1079.388300116489</v>
+        <v>1080.582538865114</v>
       </c>
     </row>
     <row r="666">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>998.9212177663512</v>
+        <v>1029.100876391823</v>
       </c>
     </row>
     <row r="667">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1012.465704010371</v>
+        <v>998.5905297452061</v>
       </c>
     </row>
     <row r="668">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>979.5935598827946</v>
+        <v>977.8939265336622</v>
       </c>
     </row>
     <row r="669">
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>998.6445607903629</v>
+        <v>998.2565670412309</v>
       </c>
     </row>
     <row r="670">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1083.023527036961</v>
+        <v>1078.17749671357</v>
       </c>
     </row>
     <row r="671">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1037.158978897894</v>
+        <v>976.2061211924716</v>
       </c>
     </row>
     <row r="672">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>998.3201733350314</v>
+        <v>984.055366513144</v>
       </c>
     </row>
     <row r="673">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>994.7778616964831</v>
+        <v>998.8280452268233</v>
       </c>
     </row>
     <row r="674">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1023.838673550465</v>
+        <v>1022.438233273497</v>
       </c>
     </row>
     <row r="675">
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1007.97481975777</v>
+        <v>1007.571595518513</v>
       </c>
     </row>
     <row r="676">
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1048.077983800684</v>
+        <v>1051.54604026269</v>
       </c>
     </row>
     <row r="677">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1007.71228466778</v>
+        <v>1007.330664436999</v>
       </c>
     </row>
     <row r="678">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1011.787489874333</v>
+        <v>1016.177857209251</v>
       </c>
     </row>
     <row r="679">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>999.1404439046574</v>
+        <v>998.193731186332</v>
       </c>
     </row>
     <row r="680">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1022.651829737531</v>
+        <v>1021.986115539351</v>
       </c>
     </row>
     <row r="681">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1005.690591021867</v>
+        <v>992.8808179649481</v>
       </c>
     </row>
     <row r="682">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>998.3932282354409</v>
+        <v>984.7552972087019</v>
       </c>
     </row>
     <row r="683">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1031.016628084652</v>
+        <v>1031.050964235332</v>
       </c>
     </row>
     <row r="684">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>983.208604582999</v>
+        <v>983.2254307989949</v>
       </c>
     </row>
     <row r="685">
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>999.9456500501897</v>
+        <v>983.9617754717827</v>
       </c>
     </row>
     <row r="686">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>999.9480376696279</v>
+        <v>984.6659852863606</v>
       </c>
     </row>
     <row r="687">
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1018.674115561773</v>
+        <v>1017.371337375881</v>
       </c>
     </row>
     <row r="688">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>946.0899241230906</v>
+        <v>897.0902773526373</v>
       </c>
     </row>
     <row r="689">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>976.5586848724159</v>
+        <v>967.9455962332764</v>
       </c>
     </row>
     <row r="690">
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>997.0956242745181</v>
+        <v>999.8906277348842</v>
       </c>
     </row>
     <row r="691">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>997.2598636816601</v>
+        <v>1000.864569625958</v>
       </c>
     </row>
     <row r="692">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>984.27310815286</v>
+        <v>986.2627383387347</v>
       </c>
     </row>
     <row r="693">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>973.8797125207182</v>
+        <v>961.6085853661391</v>
       </c>
     </row>
     <row r="694">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>998.5751627050846</v>
+        <v>1008.169050032714</v>
       </c>
     </row>
     <row r="695">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>982.6777387507099</v>
+        <v>986.4773054370849</v>
       </c>
     </row>
     <row r="696">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>987.4835479210053</v>
+        <v>990.6395286301422</v>
       </c>
     </row>
     <row r="697">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1031.63245097732</v>
+        <v>1030.196753570388</v>
       </c>
     </row>
     <row r="698">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1007.342420647449</v>
+        <v>1008.382633329482</v>
       </c>
     </row>
     <row r="699">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>999.8601064424365</v>
+        <v>983.2600659878553</v>
       </c>
     </row>
     <row r="700">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1008.15125795834</v>
+        <v>1016.295239192638</v>
       </c>
     </row>
     <row r="701">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1011.327168775405</v>
+        <v>1014.70675866584</v>
       </c>
     </row>
     <row r="702">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1026.924350177994</v>
+        <v>1032.020710141981</v>
       </c>
     </row>
     <row r="703">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>990.4937715416145</v>
+        <v>996.8976500884793</v>
       </c>
     </row>
     <row r="704">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1044.458298810178</v>
+        <v>1026.649410369352</v>
       </c>
     </row>
     <row r="706">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1003.641512938183</v>
+        <v>988.7898145713375</v>
       </c>
     </row>
     <row r="707">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1003.48911895856</v>
+        <v>989.2360154412708</v>
       </c>
     </row>
     <row r="708">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>994.3128172842377</v>
+        <v>994.4367992948803</v>
       </c>
     </row>
     <row r="709">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1029.936445462016</v>
+        <v>1027.44748393286</v>
       </c>
     </row>
     <row r="710">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>984.9497712454295</v>
+        <v>1027.506799014236</v>
       </c>
     </row>
     <row r="711">
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1017.125723577797</v>
+        <v>1002.56245730444</v>
       </c>
     </row>
     <row r="712">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1001.366038436057</v>
+        <v>985.2786017449869</v>
       </c>
     </row>
     <row r="713">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>985.9304443835939</v>
+        <v>957.2164052254719</v>
       </c>
     </row>
     <row r="714">
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>999.2560653356834</v>
+        <v>999.3111572579857</v>
       </c>
     </row>
     <row r="715">
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>999.810008280542</v>
+        <v>985.6230095826774</v>
       </c>
     </row>
     <row r="716">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>999.2423637865045</v>
+        <v>983.8814979281992</v>
       </c>
     </row>
     <row r="717">
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1001.249381818703</v>
+        <v>986.5262443417848</v>
       </c>
     </row>
     <row r="718">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>983.8340077033259</v>
+        <v>985.0327178889689</v>
       </c>
     </row>
     <row r="719">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1001.194800222924</v>
+        <v>987.1006533821025</v>
       </c>
     </row>
     <row r="720">
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1016.648370559854</v>
+        <v>1015.728708345841</v>
       </c>
     </row>
     <row r="721">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>987.3925647943431</v>
+        <v>989.0748155870165</v>
       </c>
     </row>
     <row r="722">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1024.228210774103</v>
+        <v>997.553173064081</v>
       </c>
     </row>
     <row r="723">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>997.6690183031599</v>
+        <v>969.9312770069714</v>
       </c>
     </row>
     <row r="724">
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1047.256025143287</v>
+        <v>1041.855162060662</v>
       </c>
     </row>
     <row r="725">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1017.557201108163</v>
+        <v>1031.374501887275</v>
       </c>
     </row>
     <row r="726">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1000.968169183966</v>
+        <v>990.5438008866395</v>
       </c>
     </row>
     <row r="727">
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>981.381319563312</v>
+        <v>983.2506736268799</v>
       </c>
     </row>
     <row r="728">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1011.196557634326</v>
+        <v>1014.626780093426</v>
       </c>
     </row>
     <row r="730">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1014.924983888829</v>
+        <v>1030.695198569848</v>
       </c>
     </row>
     <row r="731">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>998.8654982476658</v>
+        <v>998.5587606706673</v>
       </c>
     </row>
     <row r="732">
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>1004.851266571168</v>
+        <v>989.6909270392847</v>
       </c>
     </row>
     <row r="733">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1024.536634956913</v>
+        <v>1028.662195515593</v>
       </c>
     </row>
     <row r="734">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>993.935796360752</v>
+        <v>996.2816389355183</v>
       </c>
     </row>
     <row r="735">
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>1001.480106190673</v>
+        <v>997.589388870321</v>
       </c>
     </row>
     <row r="736">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>992.9525756819345</v>
+        <v>979.5666364927951</v>
       </c>
     </row>
     <row r="737">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>997.8887648204948</v>
+        <v>997.0734362177891</v>
       </c>
     </row>
     <row r="738">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>973.2396128269357</v>
+        <v>972.5986763222836</v>
       </c>
     </row>
     <row r="739">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>1004.090755020882</v>
+        <v>998.3201954236046</v>
       </c>
     </row>
     <row r="740">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>1009.59813456368</v>
+        <v>1010.474104452431</v>
       </c>
     </row>
     <row r="742">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>1001.639586645453</v>
+        <v>961.6155792994955</v>
       </c>
     </row>
     <row r="743">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>987.3104821666858</v>
+        <v>991.301018283136</v>
       </c>
     </row>
     <row r="744">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>986.4706351579999</v>
+        <v>986.5291002770883</v>
       </c>
     </row>
     <row r="745">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>987.0480825149634</v>
+        <v>987.1033530762819</v>
       </c>
     </row>
     <row r="746">
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>965.0612058038934</v>
+        <v>918.3358937920673</v>
       </c>
     </row>
     <row r="748">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>993.4358003533736</v>
+        <v>985.1497468044857</v>
       </c>
     </row>
     <row r="749">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>1020.476757722915</v>
+        <v>995.3101357414665</v>
       </c>
     </row>
     <row r="750">
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>1000.061244263851</v>
+        <v>999.3840058918732</v>
       </c>
     </row>
     <row r="752">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>1016.058553781508</v>
+        <v>1015.411030562979</v>
       </c>
     </row>
     <row r="753">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>1016.11214157777</v>
+        <v>1028.628637794778</v>
       </c>
     </row>
     <row r="754">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>1015.353420019996</v>
+        <v>1014.736262200424</v>
       </c>
     </row>
     <row r="755">
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>999.2755794859434</v>
+        <v>984.5893446481297</v>
       </c>
     </row>
     <row r="756">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>998.4343479484204</v>
+        <v>983.451516945622</v>
       </c>
     </row>
     <row r="757">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>1001.320086250826</v>
+        <v>989.245039919511</v>
       </c>
     </row>
     <row r="758">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>998.7445330122058</v>
+        <v>998.1592821303866</v>
       </c>
     </row>
     <row r="759">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>982.6521712047453</v>
+        <v>980.9703593204682</v>
       </c>
     </row>
     <row r="760">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>984.3542960497861</v>
+        <v>983.2541991089124</v>
       </c>
     </row>
     <row r="761">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>987.2090160626777</v>
+        <v>990.6865030533463</v>
       </c>
     </row>
     <row r="763">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1006.491309818622</v>
+        <v>1000.266744035553</v>
       </c>
     </row>
     <row r="764">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>986.1210748797399</v>
+        <v>984.5607769634364</v>
       </c>
     </row>
     <row r="765">
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>997.522451275653</v>
+        <v>987.5537568290152</v>
       </c>
     </row>
     <row r="766">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>1001.042788095533</v>
+        <v>990.3775742304193</v>
       </c>
     </row>
     <row r="767">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>1015.605789189054</v>
+        <v>1014.891575477291</v>
       </c>
     </row>
     <row r="768">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>1014.921690554763</v>
+        <v>1014.242453123155</v>
       </c>
     </row>
     <row r="769">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>1014.494590512499</v>
+        <v>1000.522491882031</v>
       </c>
     </row>
     <row r="770">
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>1010.768969083078</v>
+        <v>1011.031501772804</v>
       </c>
     </row>
     <row r="772">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>1010.981310629492</v>
+        <v>1011.284903308089</v>
       </c>
     </row>
     <row r="773">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>1012.87122198974</v>
+        <v>999.3963052859281</v>
       </c>
     </row>
     <row r="774">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>980.9645286664876</v>
+        <v>976.7756449279098</v>
       </c>
     </row>
     <row r="775">
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>996.2402648339572</v>
+        <v>987.3108948646038</v>
       </c>
     </row>
     <row r="776">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>1000.818693019033</v>
+        <v>1004.911868430795</v>
       </c>
     </row>
     <row r="777">
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>1014.629742931893</v>
+        <v>1029.901705791152</v>
       </c>
     </row>
     <row r="778">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>999.3552633704304</v>
+        <v>998.5422578550372</v>
       </c>
     </row>
     <row r="779">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>990.482054177107</v>
+        <v>993.5570618541199</v>
       </c>
     </row>
     <row r="780">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>999.6838600080455</v>
+        <v>999.2851916049279</v>
       </c>
     </row>
     <row r="781">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>1015.308820550621</v>
+        <v>1015.566166259058</v>
       </c>
     </row>
     <row r="782">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>998.3286545054958</v>
+        <v>998.3949986570095</v>
       </c>
     </row>
     <row r="783">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>986.1995743376963</v>
+        <v>986.3081448434365</v>
       </c>
     </row>
     <row r="784">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>996.4379032919635</v>
+        <v>997.0210003880475</v>
       </c>
     </row>
     <row r="785">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>1014.8558343059</v>
+        <v>1018.655831857282</v>
       </c>
     </row>
     <row r="786">
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>986.1721796717983</v>
+        <v>970.1721796717983</v>
       </c>
     </row>
     <row r="787">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>1042.951958753429</v>
+        <v>1047.502123119848</v>
       </c>
     </row>
     <row r="788">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>981.2512242182256</v>
+        <v>968.9835424277695</v>
       </c>
     </row>
     <row r="789">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>1012.066450984981</v>
+        <v>1012.601876784531</v>
       </c>
     </row>
     <row r="790">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>998.744161562144</v>
+        <v>972.8838680152409</v>
       </c>
     </row>
     <row r="791">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>1004.748208633952</v>
+        <v>990.9499413052885</v>
       </c>
     </row>
     <row r="792">
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>1007.024410402891</v>
+        <v>990.2066685514699</v>
       </c>
     </row>
     <row r="793">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>1002.270538196863</v>
+        <v>989.5413952001201</v>
       </c>
     </row>
     <row r="794">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>1005.648947299344</v>
+        <v>986.4806082441223</v>
       </c>
     </row>
     <row r="795">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>979.5201649860087</v>
+        <v>980.3119797512276</v>
       </c>
     </row>
     <row r="796">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>994.5510784968078</v>
+        <v>981.4984448496297</v>
       </c>
     </row>
     <row r="799">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>1003.710742478845</v>
+        <v>988.6328931994587</v>
       </c>
     </row>
     <row r="801">
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>1011.570977608216</v>
+        <v>1012.075973437846</v>
       </c>
     </row>
     <row r="802">
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>1014.853915550951</v>
+        <v>1019.061725119251</v>
       </c>
     </row>
     <row r="803">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>990.7709341382297</v>
+        <v>990.571059655916</v>
       </c>
     </row>
     <row r="804">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>978.7649082882529</v>
+        <v>982.2976900362627</v>
       </c>
     </row>
     <row r="806">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>1000.567529318539</v>
+        <v>1000.778611229198</v>
       </c>
     </row>
     <row r="807">
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>1014.091424033485</v>
+        <v>1017.945882982653</v>
       </c>
     </row>
     <row r="808">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>923.0314996018383</v>
+        <v>929.7264649750726</v>
       </c>
     </row>
     <row r="809">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>1048.294005655006</v>
+        <v>1021.268650917395</v>
       </c>
     </row>
     <row r="810">
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1028.812007850032</v>
+        <v>1025.950022088194</v>
       </c>
     </row>
     <row r="811">
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>982.2549409094429</v>
+        <v>959.2930275442337</v>
       </c>
     </row>
     <row r="812">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1092.967416885375</v>
+        <v>1104.341889535958</v>
       </c>
     </row>
     <row r="813">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>1009.471288828802</v>
+        <v>969.7573164995591</v>
       </c>
     </row>
     <row r="814">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>1007.491247310745</v>
+        <v>970.9817468756294</v>
       </c>
     </row>
     <row r="815">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>955.798365737284</v>
+        <v>1006.185440832098</v>
       </c>
     </row>
     <row r="816">
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>997.0999578040166</v>
+        <v>997.3913812075817</v>
       </c>
     </row>
     <row r="817">
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>1011.912041499988</v>
+        <v>1023.501929207114</v>
       </c>
     </row>
     <row r="818">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>1025.331503505161</v>
+        <v>1007.131586598118</v>
       </c>
     </row>
     <row r="819">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>974.446803850302</v>
+        <v>972.1820563413861</v>
       </c>
     </row>
     <row r="820">
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>906.1211684530224</v>
+        <v>939.3077474453328</v>
       </c>
     </row>
     <row r="821">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>1094.852775225795</v>
+        <v>1067.852042558074</v>
       </c>
     </row>
     <row r="822">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>946.4153977614517</v>
+        <v>950.1020094065021</v>
       </c>
     </row>
     <row r="823">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>917.1081913510442</v>
+        <v>897.207103176667</v>
       </c>
     </row>
     <row r="824">
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>1092.683750269212</v>
+        <v>1057.367178725892</v>
       </c>
     </row>
     <row r="825">
@@ -8677,7 +8677,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>994.9914508665489</v>
+        <v>1027.750985202904</v>
       </c>
     </row>
     <row r="826">
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>1124.535324460346</v>
+        <v>1143.275398343802</v>
       </c>
     </row>
     <row r="827">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>986.3851300292746</v>
+        <v>969.9146509844237</v>
       </c>
     </row>
     <row r="828">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>936.8533728618806</v>
+        <v>991.3003241657105</v>
       </c>
     </row>
     <row r="829">
@@ -8717,7 +8717,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>963.8889310067452</v>
+        <v>973.2983538498361</v>
       </c>
     </row>
     <row r="830">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>1073.868902266942</v>
+        <v>1106.399892562896</v>
       </c>
     </row>
     <row r="831">
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>1032.93800798678</v>
+        <v>1005.066596941977</v>
       </c>
     </row>
     <row r="832">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>941.9648311261233</v>
+        <v>982.7752502440443</v>
       </c>
     </row>
     <row r="833">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>993.1710405786811</v>
+        <v>985.5561149707941</v>
       </c>
     </row>
     <row r="834">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>1060.05157430544</v>
+        <v>1071.576230619455</v>
       </c>
     </row>
     <row r="835">
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>1097.553548550284</v>
+        <v>1027.609017589284</v>
       </c>
     </row>
     <row r="836">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>1017.645650268992</v>
+        <v>1016.548238058794</v>
       </c>
     </row>
     <row r="837">
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>883.9846732282307</v>
+        <v>852.0444264541559</v>
       </c>
     </row>
     <row r="838">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>1123.382135367847</v>
+        <v>1129.046665284378</v>
       </c>
     </row>
     <row r="839">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>961.1648703801147</v>
+        <v>945.4463154061075</v>
       </c>
     </row>
     <row r="840">
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>1023.242140624881</v>
+        <v>1014.416324902683</v>
       </c>
     </row>
     <row r="841">
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>1040.685950592125</v>
+        <v>1042.394823302087</v>
       </c>
     </row>
     <row r="842">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>885.9322045837283</v>
+        <v>942.3731391543544</v>
       </c>
     </row>
     <row r="843">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>956.7000760893657</v>
+        <v>905.3276983610497</v>
       </c>
     </row>
     <row r="844">
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>992.7244087735593</v>
+        <v>917.4098516333607</v>
       </c>
     </row>
     <row r="845">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>1015.130693115335</v>
+        <v>978.8086415673117</v>
       </c>
     </row>
     <row r="846">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>1027.012077038417</v>
+        <v>1010.868303648724</v>
       </c>
     </row>
     <row r="847">
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>1085.140970560748</v>
+        <v>1079.338599242335</v>
       </c>
     </row>
     <row r="848">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>1131.94644346313</v>
+        <v>1142.889374630842</v>
       </c>
     </row>
     <row r="849">
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>997.642117695172</v>
+        <v>972.3935092847832</v>
       </c>
     </row>
     <row r="850">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>939.3420307946305</v>
+        <v>940.6012497095351</v>
       </c>
     </row>
     <row r="851">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>1016.276026710105</v>
+        <v>1029.705954689941</v>
       </c>
     </row>
     <row r="852">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>996.3020747899856</v>
+        <v>970.6166550954608</v>
       </c>
     </row>
     <row r="853">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>950.5546479251366</v>
+        <v>967.7911670662327</v>
       </c>
     </row>
     <row r="854">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>1110.149765483567</v>
+        <v>1108.399369270165</v>
       </c>
     </row>
     <row r="855">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>1049.701557421674</v>
+        <v>1000.102188633376</v>
       </c>
     </row>
     <row r="856">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>965.8714416112342</v>
+        <v>964.894742786134</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1077.302865864797</v>
+        <v>1077.326092039861</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1044.715592957454</v>
+        <v>1046.457588076344</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1154.857412844871</v>
+        <v>1154.878052975265</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.0119817014163</v>
+        <v>978.5167371783834</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073.991179632317</v>
+        <v>1074.260313102454</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.646736901188</v>
+        <v>1082.18395932148</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1052.158268510255</v>
+        <v>1052.281379443377</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>890.9895519964234</v>
+        <v>891.2711028204087</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1077.291527051625</v>
+        <v>1077.384550601188</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1090.453569927215</v>
+        <v>1089.795494410674</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>976.3989567549781</v>
+        <v>976.4154206445913</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>926.3668110927656</v>
+        <v>926.7067056387789</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>882.578679731227</v>
+        <v>879.6318371086581</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.976900986965</v>
+        <v>1017.957421774138</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1010.098881392561</v>
+        <v>1009.067538943905</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1004.922754518225</v>
+        <v>1004.939743776902</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1020.981142843998</v>
+        <v>1021.062008413782</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>940.263884545871</v>
+        <v>938.0860687627317</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1118.125109244788</v>
+        <v>1117.359237152412</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.806358757261</v>
+        <v>1009.239929776796</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>994.1509250460184</v>
+        <v>994.608993727308</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>935.3675995292303</v>
+        <v>935.0041293653488</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.314842686281</v>
+        <v>1003.340509652826</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>969.4095761098397</v>
+        <v>969.9814030830951</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>937.2350815438274</v>
+        <v>936.7272843561766</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1066.733606042757</v>
+        <v>1062.800631518865</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>997.1508972887161</v>
+        <v>997.2102034141108</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>897.8683294727255</v>
+        <v>897.92591527867</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1034.125767676745</v>
+        <v>1038.337324438085</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>952.6607040100869</v>
+        <v>951.7083907658659</v>
       </c>
     </row>
     <row r="33">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>948.0586121812993</v>
+        <v>948.2417100126829</v>
       </c>
     </row>
     <row r="34">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>978.0626560443903</v>
+        <v>980.8433385999451</v>
       </c>
     </row>
     <row r="35">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>933.7294224025875</v>
+        <v>934.0368772066075</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>971.3115165558509</v>
+        <v>973.6699471067187</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1005.21523551925</v>
+        <v>1005.664634005787</v>
       </c>
     </row>
     <row r="38">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1030.079356878128</v>
+        <v>1032.757684519642</v>
       </c>
     </row>
     <row r="39">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1056.06769663795</v>
+        <v>1054.401700406414</v>
       </c>
     </row>
     <row r="40">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>901.3841964016679</v>
+        <v>901.9642174833486</v>
       </c>
     </row>
     <row r="41">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>938.8159243892868</v>
+        <v>937.9622937790407</v>
       </c>
     </row>
     <row r="42">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.3598692264521</v>
+        <v>989.3448571666763</v>
       </c>
     </row>
     <row r="43">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>882.8448695268946</v>
+        <v>882.6654452706019</v>
       </c>
     </row>
     <row r="44">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1092.298629849712</v>
+        <v>1088.085446620701</v>
       </c>
     </row>
     <row r="45">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1028.14400017142</v>
+        <v>1032.468506817515</v>
       </c>
     </row>
     <row r="46">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.4332640069844</v>
+        <v>919.4574224995553</v>
       </c>
     </row>
     <row r="47">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1001.542490463773</v>
+        <v>1001.546257260791</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>973.2901132833042</v>
+        <v>973.3214985324238</v>
       </c>
     </row>
     <row r="49">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>979.8701345720086</v>
+        <v>979.7660899865998</v>
       </c>
     </row>
     <row r="50">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1067.738618986527</v>
+        <v>1067.928820547462</v>
       </c>
     </row>
     <row r="51">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1012.626197199723</v>
+        <v>1012.881425569777</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>941.0322015199399</v>
+        <v>940.6196505250175</v>
       </c>
     </row>
     <row r="53">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1062.011055054033</v>
+        <v>1062.142056598828</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>978.6701437775322</v>
+        <v>978.5701993732298</v>
       </c>
     </row>
     <row r="55">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>968.9957724070182</v>
+        <v>968.7954342589783</v>
       </c>
     </row>
     <row r="56">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1016.668521357604</v>
+        <v>1018.94855786909</v>
       </c>
     </row>
     <row r="57">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1014.675236940611</v>
+        <v>1016.55554641011</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1006.742171305345</v>
+        <v>1010.918404029649</v>
       </c>
     </row>
     <row r="59">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>925.2192542371655</v>
+        <v>931.6120035206003</v>
       </c>
     </row>
     <row r="60">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>932.9548542709931</v>
+        <v>937.1028953086081</v>
       </c>
     </row>
     <row r="61">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1020.940695771286</v>
+        <v>1020.689064340107</v>
       </c>
     </row>
     <row r="62">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>981.2764023401971</v>
+        <v>980.5269642949561</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>857.1599231160342</v>
+        <v>857.1937174763983</v>
       </c>
     </row>
     <row r="64">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1124.687444777068</v>
+        <v>1101.613541043845</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>963.150233593128</v>
+        <v>963.5035707220677</v>
       </c>
     </row>
     <row r="66">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1020.913445208398</v>
+        <v>1023.199495723635</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>938.3196976140118</v>
+        <v>938.2808010516915</v>
       </c>
     </row>
     <row r="68">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1019.88692585876</v>
+        <v>1019.993487074135</v>
       </c>
     </row>
     <row r="69">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>996.5556381254986</v>
+        <v>996.4693338254211</v>
       </c>
     </row>
     <row r="70">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1025.230328390285</v>
+        <v>1025.418149300199</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>914.0564646871406</v>
+        <v>914.5878597433425</v>
       </c>
     </row>
     <row r="72">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1129.357756547377</v>
+        <v>1131.147031335322</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>970.1577002993722</v>
+        <v>970.1490318473932</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1010.286731637126</v>
+        <v>1010.356486577629</v>
       </c>
     </row>
     <row r="75">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>879.113841607454</v>
+        <v>879.3084455698388</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>961.7873275958665</v>
+        <v>961.7824835951496</v>
       </c>
     </row>
     <row r="77">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1021.822352968879</v>
+        <v>1017.923963097866</v>
       </c>
     </row>
     <row r="78">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1039.837559766188</v>
+        <v>1041.212317315388</v>
       </c>
     </row>
     <row r="79">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1120.177760418063</v>
+        <v>1121.771083448737</v>
       </c>
     </row>
     <row r="80">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>927.3514206034826</v>
+        <v>931.1716246783233</v>
       </c>
     </row>
     <row r="81">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>999.0817840028981</v>
+        <v>999.0789857674517</v>
       </c>
     </row>
     <row r="82">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>994.1027004291467</v>
+        <v>993.6074833359133</v>
       </c>
     </row>
     <row r="83">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1053.596460904761</v>
+        <v>1054.158758441786</v>
       </c>
     </row>
     <row r="84">
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1043.350229375751</v>
+        <v>1043.827220084499</v>
       </c>
     </row>
     <row r="85">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1082.031679182357</v>
+        <v>1021.248459144309</v>
       </c>
     </row>
     <row r="86">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>934.8580721814332</v>
+        <v>925.6882311722187</v>
       </c>
     </row>
     <row r="87">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>938.5839163267092</v>
+        <v>938.3555182682795</v>
       </c>
     </row>
     <row r="88">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1041.200950616423</v>
+        <v>1049.28470579627</v>
       </c>
     </row>
     <row r="89">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1094.702996439749</v>
+        <v>1095.444250603568</v>
       </c>
     </row>
     <row r="90">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>889.8772007440156</v>
+        <v>890.3691628644788</v>
       </c>
     </row>
     <row r="91">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1143.687263024031</v>
+        <v>1143.920359249411</v>
       </c>
     </row>
     <row r="92">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>931.2343986474464</v>
+        <v>931.951646860877</v>
       </c>
     </row>
     <row r="93">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1117.587732552915</v>
+        <v>1121.194660466659</v>
       </c>
     </row>
     <row r="94">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1031.765516777362</v>
+        <v>1031.797087353208</v>
       </c>
     </row>
     <row r="95">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>991.6654194733078</v>
+        <v>991.9933054270556</v>
       </c>
     </row>
     <row r="96">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1033.275956467515</v>
+        <v>1032.357316529781</v>
       </c>
     </row>
     <row r="97">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1014.52633918235</v>
+        <v>1014.802418324176</v>
       </c>
     </row>
     <row r="98">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>967.7896555758597</v>
+        <v>968.0451383037914</v>
       </c>
     </row>
     <row r="99">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1024.248971918603</v>
+        <v>1023.337043215244</v>
       </c>
     </row>
     <row r="100">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>999.3405875795765</v>
+        <v>999.7584004828328</v>
       </c>
     </row>
     <row r="101">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1082.128769411625</v>
+        <v>1084.745716305664</v>
       </c>
     </row>
     <row r="102">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>993.6612256338694</v>
+        <v>995.5237993401763</v>
       </c>
     </row>
     <row r="103">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1171.907028578475</v>
+        <v>1170.178179279951</v>
       </c>
     </row>
     <row r="104">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>919.6532562843996</v>
+        <v>921.4735523513278</v>
       </c>
     </row>
     <row r="105">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1050.578620466779</v>
+        <v>1049.965293154127</v>
       </c>
     </row>
     <row r="106">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1002.331652606186</v>
+        <v>1003.496647196922</v>
       </c>
     </row>
     <row r="107">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>908.7008443271131</v>
+        <v>908.3655554906047</v>
       </c>
     </row>
     <row r="108">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>974.6156578884545</v>
+        <v>975.0343916453444</v>
       </c>
     </row>
     <row r="109">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1061.637275590265</v>
+        <v>1063.269081723288</v>
       </c>
     </row>
     <row r="110">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>978.7333149597015</v>
+        <v>980.9017405461692</v>
       </c>
     </row>
     <row r="111">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>921.5494719517899</v>
+        <v>922.3807673958737</v>
       </c>
     </row>
     <row r="112">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>996.959642351585</v>
+        <v>997.7079547801495</v>
       </c>
     </row>
     <row r="113">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>919.1365970137178</v>
+        <v>919.700851443039</v>
       </c>
     </row>
     <row r="114">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>941.1095501140561</v>
+        <v>941.2377373214072</v>
       </c>
     </row>
     <row r="115">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>899.284390997802</v>
+        <v>899.3121635825318</v>
       </c>
     </row>
     <row r="116">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>972.9700496364071</v>
+        <v>972.8862693017348</v>
       </c>
     </row>
     <row r="117">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1000.612379206639</v>
+        <v>1001.160227294592</v>
       </c>
     </row>
     <row r="118">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1045.90851748717</v>
+        <v>1047.478683249118</v>
       </c>
     </row>
     <row r="119">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1088.471780023748</v>
+        <v>1089.968229288292</v>
       </c>
     </row>
     <row r="120">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>931.8121202109575</v>
+        <v>932.0779872382525</v>
       </c>
     </row>
     <row r="121">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>979.6238824118365</v>
+        <v>979.3182001442621</v>
       </c>
     </row>
     <row r="122">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>970.5360194022153</v>
+        <v>970.5015271506983</v>
       </c>
     </row>
     <row r="123">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1009.765496647718</v>
+        <v>1010.969761448053</v>
       </c>
     </row>
     <row r="124">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1084.726017825166</v>
+        <v>1084.025394309875</v>
       </c>
     </row>
     <row r="125">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1000.762947208341</v>
+        <v>1000.812168038733</v>
       </c>
     </row>
     <row r="126">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>936.6587001702788</v>
+        <v>936.7299440698017</v>
       </c>
     </row>
     <row r="127">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1007.271856137686</v>
+        <v>1007.448001786384</v>
       </c>
     </row>
     <row r="128">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1074.644468943991</v>
+        <v>1076.58851438791</v>
       </c>
     </row>
     <row r="129">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1011.36015570113</v>
+        <v>1012.831686948622</v>
       </c>
     </row>
     <row r="130">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>939.3284335483964</v>
+        <v>940.8253207566391</v>
       </c>
     </row>
     <row r="131">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1104.519650006159</v>
+        <v>1104.501811682588</v>
       </c>
     </row>
     <row r="132">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1108.362557991128</v>
+        <v>1110.822496792954</v>
       </c>
     </row>
     <row r="133">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>968.0475170429158</v>
+        <v>968.4808863697257</v>
       </c>
     </row>
     <row r="134">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>971.0102094972433</v>
+        <v>971.633494756039</v>
       </c>
     </row>
     <row r="135">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>961.5302233134673</v>
+        <v>961.742005507335</v>
       </c>
     </row>
     <row r="136">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>999.8867174926324</v>
+        <v>1000.124551658696</v>
       </c>
     </row>
     <row r="137">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1079.086065905485</v>
+        <v>1077.260885963208</v>
       </c>
     </row>
     <row r="138">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1048.066865909949</v>
+        <v>1048.371937960732</v>
       </c>
     </row>
     <row r="139">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>911.2158461418446</v>
+        <v>912.8601754268711</v>
       </c>
     </row>
     <row r="140">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1035.425491539944</v>
+        <v>1042.076053477791</v>
       </c>
     </row>
     <row r="141">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1094.382777644529</v>
+        <v>1071.095723886802</v>
       </c>
     </row>
     <row r="142">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1021.857491527835</v>
+        <v>1023.096965104635</v>
       </c>
     </row>
     <row r="143">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>999.9427783599687</v>
+        <v>1000.637321353799</v>
       </c>
     </row>
     <row r="145">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>982.3145336665269</v>
+        <v>985.3975577534942</v>
       </c>
     </row>
     <row r="147">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>985.7525737668346</v>
+        <v>987.2400409031856</v>
       </c>
     </row>
     <row r="148">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1034.604349748009</v>
+        <v>1035.088077520777</v>
       </c>
     </row>
     <row r="149">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>947.4198720610912</v>
+        <v>948.5879675469015</v>
       </c>
     </row>
     <row r="150">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>894.7521656552924</v>
+        <v>894.9813296739261</v>
       </c>
     </row>
     <row r="151">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>888.2970947259291</v>
+        <v>888.6784211191183</v>
       </c>
     </row>
     <row r="153">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1040.533124248469</v>
+        <v>1040.280946532953</v>
       </c>
     </row>
     <row r="154">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1024.03832547016</v>
+        <v>1024.144094633527</v>
       </c>
     </row>
     <row r="155">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>929.7465002040083</v>
+        <v>929.2936954683887</v>
       </c>
     </row>
     <row r="156">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1022.271830835211</v>
+        <v>1014.305797662901</v>
       </c>
     </row>
     <row r="157">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1048.167414483956</v>
+        <v>1049.889711050218</v>
       </c>
     </row>
     <row r="158">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1139.841888783628</v>
+        <v>1141.09480179917</v>
       </c>
     </row>
     <row r="159">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1019.17206975552</v>
+        <v>1020.043238101995</v>
       </c>
     </row>
     <row r="160">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1008.607858756854</v>
+        <v>1008.216064780834</v>
       </c>
     </row>
     <row r="161">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1007.46917445798</v>
+        <v>1008.201913463029</v>
       </c>
     </row>
     <row r="162">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>922.3041347508773</v>
+        <v>923.2409248238533</v>
       </c>
     </row>
     <row r="163">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>979.0723612104433</v>
+        <v>979.8611888370503</v>
       </c>
     </row>
     <row r="164">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1013.369101934075</v>
+        <v>1014.93153337996</v>
       </c>
     </row>
     <row r="165">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>975.2419469584963</v>
+        <v>975.2945306989885</v>
       </c>
     </row>
     <row r="166">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1000.319738382474</v>
+        <v>1002.247582423638</v>
       </c>
     </row>
     <row r="167">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>948.4641238518259</v>
+        <v>950.8232237361236</v>
       </c>
     </row>
     <row r="168">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>933.9210412577249</v>
+        <v>934.5693401660573</v>
       </c>
     </row>
     <row r="169">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1022.006968399514</v>
+        <v>1022.092481064583</v>
       </c>
     </row>
     <row r="170">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>995.8489091544485</v>
+        <v>995.8467018063371</v>
       </c>
     </row>
     <row r="172">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>993.3561415518376</v>
+        <v>993.4663223900272</v>
       </c>
     </row>
     <row r="173">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1057.383653657696</v>
+        <v>1058.038334992603</v>
       </c>
     </row>
     <row r="174">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1023.55709840817</v>
+        <v>1022.076747852412</v>
       </c>
     </row>
     <row r="175">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>964.9021435595237</v>
+        <v>963.9426963648926</v>
       </c>
     </row>
     <row r="176">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1018.703532128582</v>
+        <v>1019.089591610323</v>
       </c>
     </row>
     <row r="177">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1084.654969184483</v>
+        <v>1085.047973271967</v>
       </c>
     </row>
     <row r="178">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1024.518262630534</v>
+        <v>1022.271724183685</v>
       </c>
     </row>
     <row r="179">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1088.315654726191</v>
+        <v>1088.586888261163</v>
       </c>
     </row>
     <row r="180">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>920.5757715792453</v>
+        <v>921.8193320515521</v>
       </c>
     </row>
     <row r="181">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1050.606218742692</v>
+        <v>1051.274117619199</v>
       </c>
     </row>
     <row r="182">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1036.658914203034</v>
+        <v>1036.816292209053</v>
       </c>
     </row>
     <row r="183">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>914.0867704569873</v>
+        <v>912.9025849808444</v>
       </c>
     </row>
     <row r="184">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1009.361308618499</v>
+        <v>1009.789829448368</v>
       </c>
     </row>
     <row r="185">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1036.337720840093</v>
+        <v>1036.463183672439</v>
       </c>
     </row>
     <row r="186">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1072.249995676556</v>
+        <v>1092.458360285895</v>
       </c>
     </row>
     <row r="187">
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>989.4419898704036</v>
+        <v>989.3945345249897</v>
       </c>
     </row>
     <row r="188">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1079.211029990385</v>
+        <v>1076.468431321151</v>
       </c>
     </row>
     <row r="189">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1026.428489599178</v>
+        <v>1026.454727300429</v>
       </c>
     </row>
     <row r="190">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>987.2199063935312</v>
+        <v>987.7909584807628</v>
       </c>
     </row>
     <row r="191">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>953.9491789963402</v>
+        <v>954.7081233071121</v>
       </c>
     </row>
     <row r="192">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>974.5080670934365</v>
+        <v>973.6265940626266</v>
       </c>
     </row>
     <row r="193">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>957.2703234281282</v>
+        <v>957.5136163342696</v>
       </c>
     </row>
     <row r="194">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1033.154654780144</v>
+        <v>1034.313470430004</v>
       </c>
     </row>
     <row r="195">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>979.6581450262688</v>
+        <v>979.4935843140398</v>
       </c>
     </row>
     <row r="196">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>911.8858966191281</v>
+        <v>911.9875749296561</v>
       </c>
     </row>
     <row r="197">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>943.1273339082425</v>
+        <v>942.7128748146346</v>
       </c>
     </row>
     <row r="198">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1011.471931842624</v>
+        <v>1011.540342377831</v>
       </c>
     </row>
     <row r="199">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>988.4762898333785</v>
+        <v>988.5475674443175</v>
       </c>
     </row>
     <row r="200">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>997.9093118507817</v>
+        <v>997.8595938563564</v>
       </c>
     </row>
     <row r="201">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>917.8498024941396</v>
+        <v>916.8014295266978</v>
       </c>
     </row>
     <row r="202">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1055.152560208964</v>
+        <v>1055.28000229768</v>
       </c>
     </row>
     <row r="203">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>994.8811531069961</v>
+        <v>996.8545861446077</v>
       </c>
     </row>
     <row r="204">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1015.639764373214</v>
+        <v>1017.108114480877</v>
       </c>
     </row>
     <row r="205">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1010.237694202099</v>
+        <v>1010.679837405222</v>
       </c>
     </row>
     <row r="206">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1050.327375483571</v>
+        <v>1050.843862214463</v>
       </c>
     </row>
     <row r="207">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>923.8601985400936</v>
+        <v>909.2959399423604</v>
       </c>
     </row>
     <row r="208">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>914.6396916721138</v>
+        <v>915.1102523269047</v>
       </c>
     </row>
     <row r="209">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1058.273838280907</v>
+        <v>1057.845644860766</v>
       </c>
     </row>
     <row r="210">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1078.233978237246</v>
+        <v>1077.913191088382</v>
       </c>
     </row>
     <row r="211">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>939.1733635443558</v>
+        <v>940.3922261281284</v>
       </c>
     </row>
     <row r="213">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>854.9073102433091</v>
+        <v>856.1351514948044</v>
       </c>
     </row>
     <row r="214">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>947.5506536446591</v>
+        <v>947.713043375691</v>
       </c>
     </row>
     <row r="215">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>956.3966905265829</v>
+        <v>956.5154674337638</v>
       </c>
     </row>
     <row r="216">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>996.3789442196182</v>
+        <v>996.4085676301127</v>
       </c>
     </row>
     <row r="217">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>908.4550066459728</v>
+        <v>908.9680144330612</v>
       </c>
     </row>
     <row r="218">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1023.062207122744</v>
+        <v>1023.507235101369</v>
       </c>
     </row>
     <row r="219">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>972.6187842471741</v>
+        <v>972.6034551593368</v>
       </c>
     </row>
     <row r="220">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>974.8854934638537</v>
+        <v>975.9962611676229</v>
       </c>
     </row>
     <row r="221">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1024.024614197114</v>
+        <v>1024.126988304316</v>
       </c>
     </row>
     <row r="222">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>971.8332141229376</v>
+        <v>973.2816136780392</v>
       </c>
     </row>
     <row r="223">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>812.1559618474158</v>
+        <v>812.9414794733987</v>
       </c>
     </row>
     <row r="224">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1059.563255205532</v>
+        <v>1061.11940918949</v>
       </c>
     </row>
     <row r="225">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1118.530405349086</v>
+        <v>1116.193546327783</v>
       </c>
     </row>
     <row r="226">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>964.1324533878361</v>
+        <v>962.7100844563076</v>
       </c>
     </row>
     <row r="227">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>966.7415720238754</v>
+        <v>966.8355371841319</v>
       </c>
     </row>
     <row r="228">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>986.2148322611212</v>
+        <v>986.2617212575134</v>
       </c>
     </row>
     <row r="230">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>888.7463702589947</v>
+        <v>892.8469381574032</v>
       </c>
     </row>
     <row r="231">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>990.1446190167061</v>
+        <v>991.2759296878129</v>
       </c>
     </row>
     <row r="232">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1087.510155824106</v>
+        <v>1087.831854395381</v>
       </c>
     </row>
     <row r="233">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>982.4289788757196</v>
+        <v>982.7404522566297</v>
       </c>
     </row>
     <row r="234">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>962.270738269033</v>
+        <v>966.6610891499395</v>
       </c>
     </row>
     <row r="235">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1040.914482029859</v>
+        <v>1041.491172604249</v>
       </c>
     </row>
     <row r="237">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1065.117476402278</v>
+        <v>1065.973335145946</v>
       </c>
     </row>
     <row r="239">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1151.320739439052</v>
+        <v>1152.403240081654</v>
       </c>
     </row>
     <row r="240">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1051.146545435915</v>
+        <v>1050.94575177038</v>
       </c>
     </row>
     <row r="241">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>977.6526551374243</v>
+        <v>977.8041846017005</v>
       </c>
     </row>
     <row r="242">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1025.914776309626</v>
+        <v>1026.140313575253</v>
       </c>
     </row>
     <row r="243">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>987.1592193010343</v>
+        <v>987.173176764533</v>
       </c>
     </row>
     <row r="244">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>969.9086398608794</v>
+        <v>969.9300071824107</v>
       </c>
     </row>
     <row r="245">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>954.9898551257337</v>
+        <v>955.2432700673426</v>
       </c>
     </row>
     <row r="246">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>960.4552999429958</v>
+        <v>960.622718036319</v>
       </c>
     </row>
     <row r="247">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1066.016501385897</v>
+        <v>1067.005064121797</v>
       </c>
     </row>
     <row r="248">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>981.660829767583</v>
+        <v>981.5694396920467</v>
       </c>
     </row>
     <row r="249">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1034.887004650218</v>
+        <v>1035.023295401354</v>
       </c>
     </row>
     <row r="250">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>993.2172173284392</v>
+        <v>993.3211818012516</v>
       </c>
     </row>
     <row r="251">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>991.2838838926034</v>
+        <v>990.3304919409696</v>
       </c>
     </row>
     <row r="252">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>893.3887790433356</v>
+        <v>894.001369445282</v>
       </c>
     </row>
     <row r="253">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>953.9085142719223</v>
+        <v>953.8081337907324</v>
       </c>
     </row>
     <row r="254">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1024.446353104709</v>
+        <v>1026.522852472152</v>
       </c>
     </row>
     <row r="255">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1016.197420052447</v>
+        <v>1016.304021047857</v>
       </c>
     </row>
     <row r="256">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>916.4323076997808</v>
+        <v>916.9357128166163</v>
       </c>
     </row>
     <row r="257">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1052.563336970789</v>
+        <v>1052.579026293091</v>
       </c>
     </row>
     <row r="258">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>930.4125379657119</v>
+        <v>930.5798879092681</v>
       </c>
     </row>
     <row r="259">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1016.743027045304</v>
+        <v>1017.00431198439</v>
       </c>
     </row>
     <row r="260">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1011.868905943911</v>
+        <v>1011.669079872652</v>
       </c>
     </row>
     <row r="261">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>975.0388181845473</v>
+        <v>975.0902584087944</v>
       </c>
     </row>
     <row r="262">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>985.0150249043445</v>
+        <v>985.0319271613063</v>
       </c>
     </row>
     <row r="263">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>968.5567884362534</v>
+        <v>967.9555738825446</v>
       </c>
     </row>
     <row r="264">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>971.2896948080595</v>
+        <v>971.3539814939842</v>
       </c>
     </row>
     <row r="265">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>984.9437880214002</v>
+        <v>984.9686363053772</v>
       </c>
     </row>
     <row r="266">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>983.613317607456</v>
+        <v>984.7826682737763</v>
       </c>
     </row>
     <row r="267">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>919.8602461462267</v>
+        <v>920.2371778636008</v>
       </c>
     </row>
     <row r="269">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1029.660173606537</v>
+        <v>1029.643781932096</v>
       </c>
     </row>
     <row r="270">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>979.9696865817024</v>
+        <v>979.6716012769772</v>
       </c>
     </row>
     <row r="271">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>938.0683556174616</v>
+        <v>937.8605720752882</v>
       </c>
     </row>
     <row r="272">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>980.3416776757318</v>
+        <v>980.369064418868</v>
       </c>
     </row>
     <row r="273">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>986.4162773870777</v>
+        <v>986.5318500353817</v>
       </c>
     </row>
     <row r="274">
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1016.278905368787</v>
+        <v>1016.38208639295</v>
       </c>
     </row>
     <row r="275">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>945.4108160638369</v>
+        <v>945.4591844979373</v>
       </c>
     </row>
     <row r="276">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1077.863193376891</v>
+        <v>1078.326185654902</v>
       </c>
     </row>
     <row r="277">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1024.757853472367</v>
+        <v>1024.85944984649</v>
       </c>
     </row>
     <row r="278">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1060.805871557081</v>
+        <v>1061.654830545065</v>
       </c>
     </row>
     <row r="279">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1041.09883156033</v>
+        <v>1041.097580653753</v>
       </c>
     </row>
     <row r="280">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>874.4446106865807</v>
+        <v>874.4686990830361</v>
       </c>
     </row>
     <row r="282">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1030.765715062197</v>
+        <v>1030.766692354898</v>
       </c>
     </row>
     <row r="283">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1020.279726924043</v>
+        <v>1020.328519906906</v>
       </c>
     </row>
     <row r="284">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>996.7549309946063</v>
+        <v>996.808885090285</v>
       </c>
     </row>
     <row r="285">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1039.20112196834</v>
+        <v>1039.559063398783</v>
       </c>
     </row>
     <row r="286">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>993.1414757543425</v>
+        <v>993.3746853203188</v>
       </c>
     </row>
     <row r="287">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1031.242823441123</v>
+        <v>1031.285291621674</v>
       </c>
     </row>
     <row r="288">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1029.681669570844</v>
+        <v>1029.828667662297</v>
       </c>
     </row>
     <row r="290">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1012.234835393339</v>
+        <v>1011.838017232662</v>
       </c>
     </row>
     <row r="291">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>959.6359904541162</v>
+        <v>959.4805806870673</v>
       </c>
     </row>
     <row r="292">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1015.379135881907</v>
+        <v>1015.482700379503</v>
       </c>
     </row>
     <row r="293">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>987.7453826582718</v>
+        <v>987.9685811419097</v>
       </c>
     </row>
     <row r="294">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>952.3325845583186</v>
+        <v>952.9597538622045</v>
       </c>
     </row>
     <row r="295">
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>995.9850936058076</v>
+        <v>996.1329834312311</v>
       </c>
     </row>
     <row r="296">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>945.58166131538</v>
+        <v>945.7970600701673</v>
       </c>
     </row>
     <row r="297">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>976.3166833706669</v>
+        <v>976.3278154268787</v>
       </c>
     </row>
     <row r="298">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1041.511210584107</v>
+        <v>1041.534829462191</v>
       </c>
     </row>
     <row r="299">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1109.522923987689</v>
+        <v>1110.784142691375</v>
       </c>
     </row>
     <row r="300">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>965.6708951947695</v>
+        <v>965.4902299968799</v>
       </c>
     </row>
     <row r="303">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1022.763807779378</v>
+        <v>1023.249611313933</v>
       </c>
     </row>
     <row r="304">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1002.676366322461</v>
+        <v>1002.729789295167</v>
       </c>
     </row>
     <row r="305">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1058.029311550758</v>
+        <v>1058.44906408272</v>
       </c>
     </row>
     <row r="306">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1006.195893878942</v>
+        <v>1006.423632959615</v>
       </c>
     </row>
     <row r="307">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>978.2996860712078</v>
+        <v>979.2020997398266</v>
       </c>
     </row>
     <row r="308">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>978.7393946099636</v>
+        <v>979.0610614030327</v>
       </c>
     </row>
     <row r="309">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>978.6589199394507</v>
+        <v>978.0688052365413</v>
       </c>
     </row>
     <row r="310">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>939.0361544702608</v>
+        <v>939.4053746160309</v>
       </c>
     </row>
     <row r="311">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>998.9656103132481</v>
+        <v>999.0649849959577</v>
       </c>
     </row>
     <row r="312">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1054.822744035264</v>
+        <v>1054.88696183337</v>
       </c>
     </row>
     <row r="313">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>890.8169285858048</v>
+        <v>890.4448227570145</v>
       </c>
     </row>
     <row r="314">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>911.9462717860339</v>
+        <v>910.9772266781871</v>
       </c>
     </row>
     <row r="315">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1128.909719868716</v>
+        <v>1129.33727721139</v>
       </c>
     </row>
     <row r="316">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>972.4031016659508</v>
+        <v>972.0958490635318</v>
       </c>
     </row>
     <row r="317">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1014.90400477341</v>
+        <v>1014.780423937462</v>
       </c>
     </row>
     <row r="318">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>984.4537997494079</v>
+        <v>985.6833817196042</v>
       </c>
     </row>
     <row r="319">
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>968.3323665859198</v>
+        <v>968.3302452071778</v>
       </c>
     </row>
     <row r="320">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>979.9666188605596</v>
+        <v>979.9112149327127</v>
       </c>
     </row>
     <row r="321">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1001.323905560279</v>
+        <v>1002.296396686254</v>
       </c>
     </row>
     <row r="322">
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>960.2693313520315</v>
+        <v>960.342907302992</v>
       </c>
     </row>
     <row r="323">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1102.679432176221</v>
+        <v>1102.843178023184</v>
       </c>
     </row>
     <row r="324">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1015.525727319887</v>
+        <v>1015.579175737119</v>
       </c>
     </row>
     <row r="325">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1041.325549329685</v>
+        <v>1041.182314739081</v>
       </c>
     </row>
     <row r="326">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>987.4023158575509</v>
+        <v>987.2646376808763</v>
       </c>
     </row>
     <row r="327">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>978.2202643195474</v>
+        <v>978.1176578091454</v>
       </c>
     </row>
     <row r="328">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>922.7149472899273</v>
+        <v>923.3938131157431</v>
       </c>
     </row>
     <row r="329">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1056.982094732433</v>
+        <v>1057.374994929408</v>
       </c>
     </row>
     <row r="330">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1004.360986248022</v>
+        <v>1004.227268261363</v>
       </c>
     </row>
     <row r="331">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>962.2095047009047</v>
+        <v>963.6567113954532</v>
       </c>
     </row>
     <row r="332">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1017.07625268421</v>
+        <v>1017.02765480903</v>
       </c>
     </row>
     <row r="333">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1042.942354122807</v>
+        <v>1043.023717350183</v>
       </c>
     </row>
     <row r="334">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1041.722518644004</v>
+        <v>1041.996434546172</v>
       </c>
     </row>
     <row r="335">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>936.7678919840115</v>
+        <v>936.9185086514058</v>
       </c>
     </row>
     <row r="336">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>974.9103149467211</v>
+        <v>974.9396350053624</v>
       </c>
     </row>
     <row r="337">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>974.9756936878509</v>
+        <v>975.1094656395697</v>
       </c>
     </row>
     <row r="338">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1039.742401778023</v>
+        <v>1040.431645453081</v>
       </c>
     </row>
     <row r="339">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1017.998990448504</v>
+        <v>1007.681261758888</v>
       </c>
     </row>
     <row r="340">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>913.1239312846851</v>
+        <v>913.5954718442271</v>
       </c>
     </row>
     <row r="341">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>902.1369813551549</v>
+        <v>902.4174656214162</v>
       </c>
     </row>
     <row r="342">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>995.8983362549598</v>
+        <v>995.4244023198203</v>
       </c>
     </row>
     <row r="343">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>949.6964752877506</v>
+        <v>949.868324417022</v>
       </c>
     </row>
     <row r="344">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1005.614904032748</v>
+        <v>1005.653774069214</v>
       </c>
     </row>
     <row r="345">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>998.7040305841001</v>
+        <v>998.7273835203526</v>
       </c>
     </row>
     <row r="346">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1038.237388152259</v>
+        <v>1038.157885216647</v>
       </c>
     </row>
     <row r="347">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1089.004187140811</v>
+        <v>1089.003602461761</v>
       </c>
     </row>
     <row r="348">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>864.9744603297685</v>
+        <v>864.6236870128729</v>
       </c>
     </row>
     <row r="349">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1011.33813004303</v>
+        <v>1011.339229709805</v>
       </c>
     </row>
     <row r="350">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1010.88453699524</v>
+        <v>1010.885573157061</v>
       </c>
     </row>
     <row r="351">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1086.769346335223</v>
+        <v>1086.878636820387</v>
       </c>
     </row>
     <row r="352">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1137.996383019487</v>
+        <v>1138.529193423812</v>
       </c>
     </row>
     <row r="353">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1046.330465565745</v>
+        <v>1045.994619603701</v>
       </c>
     </row>
     <row r="354">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1033.024893800743</v>
+        <v>1032.525288775209</v>
       </c>
     </row>
     <row r="355">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>999.5570804218399</v>
+        <v>999.6250088759751</v>
       </c>
     </row>
     <row r="356">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1015.711213386321</v>
+        <v>1015.726699783108</v>
       </c>
     </row>
     <row r="357">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1118.245558197545</v>
+        <v>1113.218539145647</v>
       </c>
     </row>
     <row r="358">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>937.5577782133101</v>
+        <v>937.4349351629177</v>
       </c>
     </row>
     <row r="359">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1034.287674414657</v>
+        <v>1034.835089027951</v>
       </c>
     </row>
     <row r="360">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>900.7007346037583</v>
+        <v>901.0389861483187</v>
       </c>
     </row>
     <row r="361">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1028.612021142611</v>
+        <v>1028.952920798725</v>
       </c>
     </row>
     <row r="362">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>979.9356436540776</v>
+        <v>980.0345420911322</v>
       </c>
     </row>
     <row r="363">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>983.938659925951</v>
+        <v>983.9403383661164</v>
       </c>
     </row>
     <row r="364">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1037.275135048371</v>
+        <v>1037.525130883284</v>
       </c>
     </row>
     <row r="365">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1023.581568156007</v>
+        <v>1023.75122616886</v>
       </c>
     </row>
     <row r="366">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>991.1063261666442</v>
+        <v>991.1386562834183</v>
       </c>
     </row>
     <row r="367">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>981.8289702882531</v>
+        <v>981.8299802769661</v>
       </c>
     </row>
     <row r="368">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1013.198382238017</v>
+        <v>1013.1676811439</v>
       </c>
     </row>
     <row r="369">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>980.9857748973749</v>
+        <v>981.0013966083908</v>
       </c>
     </row>
     <row r="370">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>985.6605225933203</v>
+        <v>985.6960440557082</v>
       </c>
     </row>
     <row r="371">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1080.776108181339</v>
+        <v>1080.814626467018</v>
       </c>
     </row>
     <row r="372">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1149.107436851714</v>
+        <v>1148.331064734457</v>
       </c>
     </row>
     <row r="375">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1105.260421083282</v>
+        <v>1105.456734952046</v>
       </c>
     </row>
     <row r="376">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>885.4907320755458</v>
+        <v>886.2131502808963</v>
       </c>
     </row>
     <row r="377">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>974.6059778989111</v>
+        <v>974.7477353162409</v>
       </c>
     </row>
     <row r="378">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>969.2161144723577</v>
+        <v>969.2715168437823</v>
       </c>
     </row>
     <row r="379">
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1005.427938445602</v>
+        <v>1005.435343472163</v>
       </c>
     </row>
     <row r="380">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>987.7309583675541</v>
+        <v>987.7589002872203</v>
       </c>
     </row>
     <row r="381">
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1045.405345232014</v>
+        <v>1045.041419805124</v>
       </c>
     </row>
     <row r="382">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1000.244954223426</v>
+        <v>1000.240407110421</v>
       </c>
     </row>
     <row r="383">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1028.756838822098</v>
+        <v>1028.803042747402</v>
       </c>
     </row>
     <row r="384">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1106.453361468612</v>
+        <v>1106.900848263845</v>
       </c>
     </row>
     <row r="385">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>980.1484477449872</v>
+        <v>980.1780956780035</v>
       </c>
     </row>
     <row r="386">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>957.1577242648411</v>
+        <v>960.1368341566184</v>
       </c>
     </row>
     <row r="387">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1039.873717405397</v>
+        <v>1040.123078269972</v>
       </c>
     </row>
     <row r="388">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>949.5435336368954</v>
+        <v>950.4752637411658</v>
       </c>
     </row>
     <row r="389">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1028.638158818321</v>
+        <v>1028.784199386849</v>
       </c>
     </row>
     <row r="390">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1008.366255563911</v>
+        <v>1007.656918542706</v>
       </c>
     </row>
     <row r="391">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>984.0687015719127</v>
+        <v>984.0634946408717</v>
       </c>
     </row>
     <row r="392">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1031.47898022409</v>
+        <v>1031.481601646833</v>
       </c>
     </row>
     <row r="393">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1002.238907211961</v>
+        <v>1002.2421432277</v>
       </c>
     </row>
     <row r="394">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1006.954036419572</v>
+        <v>1007.649327117527</v>
       </c>
     </row>
     <row r="396">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1037.320045111182</v>
+        <v>1037.368386043914</v>
       </c>
     </row>
     <row r="397">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>942.5892367309594</v>
+        <v>942.6939584122948</v>
       </c>
     </row>
     <row r="398">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1065.133931590201</v>
+        <v>1065.248679164755</v>
       </c>
     </row>
     <row r="399">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>947.0954752171314</v>
+        <v>947.1104900761694</v>
       </c>
     </row>
     <row r="400">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1032.649026362746</v>
+        <v>1032.714096696696</v>
       </c>
     </row>
     <row r="401">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>928.2221957846908</v>
+        <v>928.2571865180776</v>
       </c>
     </row>
     <row r="403">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>962.0654095310492</v>
+        <v>962.0456782728936</v>
       </c>
     </row>
     <row r="404">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1016.664434112907</v>
+        <v>1016.625176727114</v>
       </c>
     </row>
     <row r="405">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1051.699229572865</v>
+        <v>1051.097820217395</v>
       </c>
     </row>
     <row r="406">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>881.0928696277562</v>
+        <v>881.3172204042237</v>
       </c>
     </row>
     <row r="407">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>961.5230797084938</v>
+        <v>961.524930317359</v>
       </c>
     </row>
     <row r="408">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1014.511756783986</v>
+        <v>1014.530249439084</v>
       </c>
     </row>
     <row r="409">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>982.4091695534355</v>
+        <v>982.900599059245</v>
       </c>
     </row>
     <row r="410">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>994.3220662823579</v>
+        <v>994.327324459229</v>
       </c>
     </row>
     <row r="412">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1030.626569081137</v>
+        <v>1030.627443028405</v>
       </c>
     </row>
     <row r="413">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>992.0341252981668</v>
+        <v>992.0887208510524</v>
       </c>
     </row>
     <row r="414">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>996.5829310772884</v>
+        <v>996.5873973654204</v>
       </c>
     </row>
     <row r="415">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>991.0831938169891</v>
+        <v>991.0850081875843</v>
       </c>
     </row>
     <row r="416">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>978.7567345054293</v>
+        <v>978.7687591137773</v>
       </c>
     </row>
     <row r="419">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1111.574356358772</v>
+        <v>1111.295995649194</v>
       </c>
     </row>
     <row r="420">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>984.9151089216585</v>
+        <v>984.9413757562943</v>
       </c>
     </row>
     <row r="421">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1011.266924758189</v>
+        <v>1011.3069907117</v>
       </c>
     </row>
     <row r="422">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>990.4005300371682</v>
+        <v>990.4021959539788</v>
       </c>
     </row>
     <row r="424">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1001.562809104062</v>
+        <v>1001.636585832597</v>
       </c>
     </row>
     <row r="425">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1006.20121796236</v>
+        <v>1006.215180413508</v>
       </c>
     </row>
     <row r="426">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1036.649064070695</v>
+        <v>1036.511849891064</v>
       </c>
     </row>
     <row r="427">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>987.4199540205746</v>
+        <v>987.4302381432204</v>
       </c>
     </row>
     <row r="428">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1105.507679732275</v>
+        <v>1105.314826957991</v>
       </c>
     </row>
     <row r="429">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>968.1997936765543</v>
+        <v>967.8883888072769</v>
       </c>
     </row>
     <row r="430">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1062.071747205848</v>
+        <v>1061.949164222503</v>
       </c>
     </row>
     <row r="431">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>985.4884146604835</v>
+        <v>985.7535910188477</v>
       </c>
     </row>
     <row r="432">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>979.4762093637225</v>
+        <v>979.5636445522692</v>
       </c>
     </row>
     <row r="433">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>967.0786152063724</v>
+        <v>967.1171225132815</v>
       </c>
     </row>
     <row r="434">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1003.335599994977</v>
+        <v>1003.158880316599</v>
       </c>
     </row>
     <row r="435">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1070.094707761371</v>
+        <v>1069.951521500936</v>
       </c>
     </row>
     <row r="436">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>864.7539939008623</v>
+        <v>864.7429431391921</v>
       </c>
     </row>
     <row r="437">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>958.2808655211934</v>
+        <v>958.1651871103131</v>
       </c>
     </row>
     <row r="438">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>972.7368061097451</v>
+        <v>973.6637640281873</v>
       </c>
     </row>
     <row r="439">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1064.516909730279</v>
+        <v>1064.508086974276</v>
       </c>
     </row>
     <row r="440">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1042.324080572232</v>
+        <v>1042.325129807358</v>
       </c>
     </row>
     <row r="441">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1080.184806090104</v>
+        <v>1080.116269328228</v>
       </c>
     </row>
     <row r="442">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1003.112551430526</v>
+        <v>1003.126508407826</v>
       </c>
     </row>
     <row r="443">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1005.758744243331</v>
+        <v>1005.759352231367</v>
       </c>
     </row>
     <row r="447">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>971.3942239326636</v>
+        <v>971.4089030689374</v>
       </c>
     </row>
     <row r="448">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>979.7870025773116</v>
+        <v>979.7865200893324</v>
       </c>
     </row>
     <row r="451">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>982.4747344465897</v>
+        <v>982.4951973753778</v>
       </c>
     </row>
     <row r="453">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>985.1045016008369</v>
+        <v>985.1006924424701</v>
       </c>
     </row>
     <row r="454">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>977.3601016653834</v>
+        <v>976.953505957599</v>
       </c>
     </row>
     <row r="455">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1011.952543564192</v>
+        <v>1012.484424524194</v>
       </c>
     </row>
     <row r="456">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1080.524166004814</v>
+        <v>1080.520113187549</v>
       </c>
     </row>
     <row r="457">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>889.3671353240395</v>
+        <v>889.6406675994348</v>
       </c>
     </row>
     <row r="458">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>983.1656905800845</v>
+        <v>983.181540263571</v>
       </c>
     </row>
     <row r="459">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>983.9045162544012</v>
+        <v>983.9197096372779</v>
       </c>
     </row>
     <row r="460">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1002.990439175066</v>
+        <v>1002.305131314761</v>
       </c>
     </row>
     <row r="461">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1035.782259366121</v>
+        <v>1035.771705763324</v>
       </c>
     </row>
     <row r="462">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>968.9085064990329</v>
+        <v>968.9229548541431</v>
       </c>
     </row>
     <row r="463">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1011.149256429517</v>
+        <v>1011.194276205619</v>
       </c>
     </row>
     <row r="464">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1018.590068737239</v>
+        <v>1018.176501141513</v>
       </c>
     </row>
     <row r="465">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>959.6750024560994</v>
+        <v>959.2964704861199</v>
       </c>
     </row>
     <row r="466">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>971.1523745164768</v>
+        <v>970.7634819041149</v>
       </c>
     </row>
     <row r="467">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1017.916667917447</v>
+        <v>1017.929803046577</v>
       </c>
     </row>
     <row r="468">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1002.463132823903</v>
+        <v>1002.45730701983</v>
       </c>
     </row>
     <row r="469">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1002.492562969582</v>
+        <v>1002.493078417672</v>
       </c>
     </row>
     <row r="470">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>986.5374594500253</v>
+        <v>986.5348291978997</v>
       </c>
     </row>
     <row r="471">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>984.6424852924273</v>
+        <v>984.6588731678406</v>
       </c>
     </row>
     <row r="472">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>991.3289559655709</v>
+        <v>991.3313655179057</v>
       </c>
     </row>
     <row r="473">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>981.5573667071096</v>
+        <v>981.5581350124291</v>
       </c>
     </row>
     <row r="475">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>982.3547939680708</v>
+        <v>982.3555384023366</v>
       </c>
     </row>
     <row r="476">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1025.33725287547</v>
+        <v>1024.918723551865</v>
       </c>
     </row>
     <row r="477">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1009.603957662198</v>
+        <v>1009.457589175229</v>
       </c>
     </row>
     <row r="478">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1017.466670055292</v>
+        <v>1017.617573326256</v>
       </c>
     </row>
     <row r="479">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>846.1747160879215</v>
+        <v>845.7698226763113</v>
       </c>
     </row>
     <row r="480">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1048.818916792347</v>
+        <v>1047.282999267283</v>
       </c>
     </row>
     <row r="481">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>987.266703424266</v>
+        <v>987.0618326642109</v>
       </c>
     </row>
     <row r="482">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>994.6207234912301</v>
+        <v>993.4124155426711</v>
       </c>
     </row>
     <row r="483">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>960.4836551134277</v>
+        <v>959.9387797916136</v>
       </c>
     </row>
     <row r="484">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1009.678660231407</v>
+        <v>1009.403601039386</v>
       </c>
     </row>
     <row r="485">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1008.443366168545</v>
+        <v>1008.146308059769</v>
       </c>
     </row>
     <row r="486">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>987.2375810222289</v>
+        <v>987.1905983529072</v>
       </c>
     </row>
     <row r="487">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>939.9761031007787</v>
+        <v>947.6545944071788</v>
       </c>
     </row>
     <row r="488">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>949.7186739815387</v>
+        <v>950.0108691013979</v>
       </c>
     </row>
     <row r="489">
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>997.1459465730132</v>
+        <v>997.2629765449335</v>
       </c>
     </row>
     <row r="491">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>982.383756181722</v>
+        <v>982.3569273367434</v>
       </c>
     </row>
     <row r="492">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>987.0580654127789</v>
+        <v>987.0149227712059</v>
       </c>
     </row>
     <row r="493">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>983.9007626129859</v>
+        <v>983.8759440908597</v>
       </c>
     </row>
     <row r="494">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>987.7725252891618</v>
+        <v>987.7281800880505</v>
       </c>
     </row>
     <row r="495">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>958.1618739669781</v>
+        <v>958.1225296054527</v>
       </c>
     </row>
     <row r="496">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>988.7013173276583</v>
+        <v>988.6617304023383</v>
       </c>
     </row>
     <row r="497">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>905.0093519766723</v>
+        <v>904.4703614371492</v>
       </c>
     </row>
     <row r="498">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>973.7409643776278</v>
+        <v>973.7076211900807</v>
       </c>
     </row>
     <row r="499">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1135.55926939275</v>
+        <v>1136.072253757147</v>
       </c>
     </row>
     <row r="500">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1026.209343346062</v>
+        <v>1026.142850186914</v>
       </c>
     </row>
     <row r="501">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>986.1698654602677</v>
+        <v>986.1694802194522</v>
       </c>
     </row>
     <row r="502">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1075.560845463545</v>
+        <v>1075.807399557665</v>
       </c>
     </row>
     <row r="503">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>988.2078304358193</v>
+        <v>988.0372897388216</v>
       </c>
     </row>
     <row r="504">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>984.6271947768266</v>
+        <v>984.6272475045525</v>
       </c>
     </row>
     <row r="505">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>985.3001129486179</v>
+        <v>985.300163119989</v>
       </c>
     </row>
     <row r="506">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>998.807185116595</v>
+        <v>1011.435259645456</v>
       </c>
     </row>
     <row r="507">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1016.183193262012</v>
+        <v>1014.625222855315</v>
       </c>
     </row>
     <row r="508">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>994.5174097661204</v>
+        <v>994.118653556647</v>
       </c>
     </row>
     <row r="509">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>983.464574953704</v>
+        <v>982.9074943949239</v>
       </c>
     </row>
     <row r="510">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>767.9741834570559</v>
+        <v>767.9742814014547</v>
       </c>
     </row>
     <row r="511">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>894.7737601164757</v>
+        <v>894.7737471113471</v>
       </c>
     </row>
     <row r="512">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1003.289931020656</v>
+        <v>1003.29004409748</v>
       </c>
     </row>
     <row r="514">
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>953.1045951373178</v>
+        <v>953.1046150433017</v>
       </c>
     </row>
     <row r="515">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>984.5150668479948</v>
+        <v>984.5151337503968</v>
       </c>
     </row>
     <row r="516">
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>973.0945169011845</v>
+        <v>973.0945262538943</v>
       </c>
     </row>
     <row r="517">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1122.114488496123</v>
+        <v>1122.1145630557</v>
       </c>
     </row>
     <row r="518">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1017.388915772532</v>
+        <v>1017.388921262919</v>
       </c>
     </row>
     <row r="519">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1081.430568390342</v>
+        <v>1081.430629908509</v>
       </c>
     </row>
     <row r="520">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1098.504510560105</v>
+        <v>1098.504500078052</v>
       </c>
     </row>
     <row r="521">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1082.662507856415</v>
+        <v>1082.662623826239</v>
       </c>
     </row>
     <row r="522">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1070.417566408988</v>
+        <v>1070.417616328069</v>
       </c>
     </row>
     <row r="523">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1016.395493793778</v>
+        <v>1016.395505176473</v>
       </c>
     </row>
     <row r="524">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>960.3582987209888</v>
+        <v>960.3583105991293</v>
       </c>
     </row>
     <row r="525">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>983.8233804755481</v>
+        <v>983.8235175957046</v>
       </c>
     </row>
     <row r="527">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>953.0930942844772</v>
+        <v>953.074418103984</v>
       </c>
     </row>
     <row r="528">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>977.6373571443114</v>
+        <v>977.6373728775491</v>
       </c>
     </row>
     <row r="529">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>996.5553078298658</v>
+        <v>996.555320285792</v>
       </c>
     </row>
     <row r="530">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>955.2791852302053</v>
+        <v>955.2790268150308</v>
       </c>
     </row>
     <row r="531">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1014.144166843552</v>
+        <v>1014.144166803841</v>
       </c>
     </row>
     <row r="532">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1005.144210762672</v>
+        <v>1005.144226104789</v>
       </c>
     </row>
     <row r="533">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>974.7708029917644</v>
+        <v>974.7706932534559</v>
       </c>
     </row>
     <row r="534">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1000.905326283862</v>
+        <v>1000.905238449362</v>
       </c>
     </row>
     <row r="535">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>989.0936744161182</v>
+        <v>989.0918606963087</v>
       </c>
     </row>
     <row r="536">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1029.951480278813</v>
+        <v>1029.951483739875</v>
       </c>
     </row>
     <row r="537">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>955.3129411191181</v>
+        <v>955.3128425714106</v>
       </c>
     </row>
     <row r="538">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>949.8788456582514</v>
+        <v>949.8786065417944</v>
       </c>
     </row>
     <row r="539">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>938.2968167026165</v>
+        <v>938.2967394182654</v>
       </c>
     </row>
     <row r="540">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>988.5764369666697</v>
+        <v>988.5764409820993</v>
       </c>
     </row>
     <row r="541">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>981.1362617912089</v>
+        <v>980.6577393215365</v>
       </c>
     </row>
     <row r="542">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>990.5244247322067</v>
+        <v>990.5351572998759</v>
       </c>
     </row>
     <row r="543">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>990.717427858695</v>
+        <v>990.6460831475677</v>
       </c>
     </row>
     <row r="544">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1018.100026058103</v>
+        <v>1018.094345042179</v>
       </c>
     </row>
     <row r="545">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1014.08101517027</v>
+        <v>1014.081759171306</v>
       </c>
     </row>
     <row r="546">
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>997.4738628721182</v>
+        <v>997.4745673833</v>
       </c>
     </row>
     <row r="548">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>945.4791113515834</v>
+        <v>944.6650012466459</v>
       </c>
     </row>
     <row r="549">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>960.7711556316667</v>
+        <v>961.4543842420927</v>
       </c>
     </row>
     <row r="551">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>991.589737144886</v>
+        <v>991.197610547202</v>
       </c>
     </row>
     <row r="552">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1037.666879261443</v>
+        <v>1037.615817045687</v>
       </c>
     </row>
     <row r="553">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>991.8760810086779</v>
+        <v>991.5057574463673</v>
       </c>
     </row>
     <row r="554">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1013.494964135854</v>
+        <v>1013.459070068343</v>
       </c>
     </row>
     <row r="555">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1012.136992817788</v>
+        <v>998.1091804662292</v>
       </c>
     </row>
     <row r="556">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>995.4993619030744</v>
+        <v>995.4992397761904</v>
       </c>
     </row>
     <row r="557">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>978.4325110305917</v>
+        <v>978.4323958855244</v>
       </c>
     </row>
     <row r="558">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1016.013384672042</v>
+        <v>1016.013387003959</v>
       </c>
     </row>
     <row r="559">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1004.981844665529</v>
+        <v>1004.981789783496</v>
       </c>
     </row>
     <row r="560">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1010.2915180333</v>
+        <v>1010.291464431512</v>
       </c>
     </row>
     <row r="561">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>999.4780801640335</v>
+        <v>999.4780897094935</v>
       </c>
     </row>
     <row r="562">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>972.1477350238879</v>
+        <v>972.1476757022251</v>
       </c>
     </row>
     <row r="563">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1009.113932492441</v>
+        <v>1009.113821104096</v>
       </c>
     </row>
     <row r="564">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>982.733855868243</v>
+        <v>982.7338634587049</v>
       </c>
     </row>
     <row r="565">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1013.016019610506</v>
+        <v>1013.016008858521</v>
       </c>
     </row>
     <row r="566">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1011.759915892125</v>
+        <v>1011.759917122992</v>
       </c>
     </row>
     <row r="567">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>946.8026685984248</v>
+        <v>948.0107785201226</v>
       </c>
     </row>
     <row r="568">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1014.426904817295</v>
+        <v>1014.440572022861</v>
       </c>
     </row>
     <row r="569">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>981.8015763447148</v>
+        <v>981.8145331506512</v>
       </c>
     </row>
     <row r="570">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>991.3154849917322</v>
+        <v>990.9551886490547</v>
       </c>
     </row>
     <row r="571">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>991.6170452737156</v>
+        <v>991.2769610458414</v>
       </c>
     </row>
     <row r="572">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>983.8541224329025</v>
+        <v>983.8350115815433</v>
       </c>
     </row>
     <row r="573">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>984.1701253612838</v>
+        <v>984.1807130757618</v>
       </c>
     </row>
     <row r="575">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1072.270543498219</v>
+        <v>1071.613431446202</v>
       </c>
     </row>
     <row r="579">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1098.947451103203</v>
+        <v>1098.748478555189</v>
       </c>
     </row>
     <row r="580">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1207.534665157384</v>
+        <v>1207.112203198265</v>
       </c>
     </row>
     <row r="581">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1063.551067104344</v>
+        <v>1062.675022972148</v>
       </c>
     </row>
     <row r="582">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>967.4614402744922</v>
+        <v>967.6060314749707</v>
       </c>
     </row>
     <row r="583">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1013.034999926918</v>
+        <v>1013.010331388299</v>
       </c>
     </row>
     <row r="584">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1018.758685212094</v>
+        <v>1018.405107363318</v>
       </c>
     </row>
     <row r="585">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>983.165709222268</v>
+        <v>982.8851566214522</v>
       </c>
     </row>
     <row r="588">
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1011.940927240365</v>
+        <v>1011.923333203094</v>
       </c>
     </row>
     <row r="590">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>901.4600862637107</v>
+        <v>901.3636974515241</v>
       </c>
     </row>
     <row r="591">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>960.562393742832</v>
+        <v>958.9768278862045</v>
       </c>
     </row>
     <row r="592">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1011.061995495177</v>
+        <v>1011.062007073964</v>
       </c>
     </row>
     <row r="593">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1034.45622473497</v>
+        <v>1034.456160635409</v>
       </c>
     </row>
     <row r="594">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1057.515660217814</v>
+        <v>1057.513900311093</v>
       </c>
     </row>
     <row r="595">
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1001.847486170681</v>
+        <v>1001.847435706193</v>
       </c>
     </row>
     <row r="596">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1012.528103115191</v>
+        <v>1012.528108274679</v>
       </c>
     </row>
     <row r="597">
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>963.0281694256622</v>
+        <v>963.0281172074041</v>
       </c>
     </row>
     <row r="598">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1005.883153203474</v>
+        <v>1005.883124093042</v>
       </c>
     </row>
     <row r="599">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>995.1003672866817</v>
+        <v>995.1003667211265</v>
       </c>
     </row>
     <row r="600">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>998.9245300931668</v>
+        <v>998.9245308474426</v>
       </c>
     </row>
     <row r="601">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1007.101932470273</v>
+        <v>1006.773286082481</v>
       </c>
     </row>
     <row r="602">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1013.18022260065</v>
+        <v>1012.55155507233</v>
       </c>
     </row>
     <row r="603">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>990.3628465938781</v>
+        <v>990.055629109264</v>
       </c>
     </row>
     <row r="604">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>990.7182888866612</v>
+        <v>990.4286965337828</v>
       </c>
     </row>
     <row r="605">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>991.0534691546303</v>
+        <v>990.7803734508308</v>
       </c>
     </row>
     <row r="606">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>991.3697053221757</v>
+        <v>991.1120317359546</v>
       </c>
     </row>
     <row r="607">
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1023.756720274916</v>
+        <v>1023.667881860361</v>
       </c>
     </row>
     <row r="608">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1041.018233046716</v>
+        <v>1040.288875583146</v>
       </c>
     </row>
     <row r="609">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1047.082946273054</v>
+        <v>1046.917072317373</v>
       </c>
     </row>
     <row r="610">
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1021.805221674038</v>
+        <v>1021.609184938893</v>
       </c>
     </row>
     <row r="611">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>957.1935606616945</v>
+        <v>958.0318177886267</v>
       </c>
     </row>
     <row r="612">
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1025.380263114681</v>
+        <v>1025.378533167854</v>
       </c>
     </row>
     <row r="613">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>969.9942082121254</v>
+        <v>969.9941180649865</v>
       </c>
     </row>
     <row r="614">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1009.647577698519</v>
+        <v>1009.647550016574</v>
       </c>
     </row>
     <row r="615">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>997.5503341254243</v>
+        <v>997.550335147179</v>
       </c>
     </row>
     <row r="616">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>992.4301196849356</v>
+        <v>992.4285190574892</v>
       </c>
     </row>
     <row r="617">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>997.7566205346326</v>
+        <v>997.7566214738762</v>
       </c>
     </row>
     <row r="618">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1003.746251275789</v>
+        <v>1003.533243849013</v>
       </c>
     </row>
     <row r="619">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>999.110299336404</v>
+        <v>999.1113065371746</v>
       </c>
     </row>
     <row r="620">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1170.367854848665</v>
+        <v>1169.92399946085</v>
       </c>
     </row>
     <row r="621">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>980.9028578536852</v>
+        <v>980.7259168566758</v>
       </c>
     </row>
     <row r="622">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1006.474763829963</v>
+        <v>1006.256314932286</v>
       </c>
     </row>
     <row r="623">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>999.7685642118824</v>
+        <v>1000.21478018628</v>
       </c>
     </row>
     <row r="624">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1013.944700187382</v>
+        <v>1013.782589519238</v>
       </c>
     </row>
     <row r="625">
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>963.6549797516933</v>
+        <v>963.5270428121626</v>
       </c>
     </row>
     <row r="626">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>953.1404191051607</v>
+        <v>953.0393815706241</v>
       </c>
     </row>
     <row r="627">
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>960.5585172563675</v>
+        <v>960.2483786795455</v>
       </c>
     </row>
     <row r="628">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1049.106394391867</v>
+        <v>1048.93859082447</v>
       </c>
     </row>
     <row r="629">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1035.236853467703</v>
+        <v>1035.236841787116</v>
       </c>
     </row>
     <row r="630">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1018.860472538667</v>
+        <v>1018.858987337261</v>
       </c>
     </row>
     <row r="631">
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>957.6307258687651</v>
+        <v>957.6306596922419</v>
       </c>
     </row>
     <row r="632">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>986.1931907344356</v>
+        <v>986.1931594957163</v>
       </c>
     </row>
     <row r="633">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>979.2499998891764</v>
+        <v>979.1655235999087</v>
       </c>
     </row>
     <row r="634">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>941.0899928025225</v>
+        <v>940.8918264435819</v>
       </c>
     </row>
     <row r="635">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>986.5210719005663</v>
+        <v>986.495180173133</v>
       </c>
     </row>
     <row r="637">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>965.7180609269186</v>
+        <v>966.2058077807151</v>
       </c>
     </row>
     <row r="638">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>982.8634960729904</v>
+        <v>983.3437196321428</v>
       </c>
     </row>
     <row r="639">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1023.906796865888</v>
+        <v>1023.870179584891</v>
       </c>
     </row>
     <row r="640">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1017.813272296362</v>
+        <v>1017.807109097255</v>
       </c>
     </row>
     <row r="641">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1035.223343014026</v>
+        <v>1034.726920257682</v>
       </c>
     </row>
     <row r="642">
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1003.8717980726</v>
+        <v>1003.647618445664</v>
       </c>
     </row>
     <row r="643">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1138.413771794211</v>
+        <v>1137.9710568929</v>
       </c>
     </row>
     <row r="644">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1017.681307463183</v>
+        <v>1017.34773611462</v>
       </c>
     </row>
     <row r="645">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>978.0464352528498</v>
+        <v>977.8115228155154</v>
       </c>
     </row>
     <row r="646">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>981.40612734016</v>
+        <v>981.2173738340153</v>
       </c>
     </row>
     <row r="647">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>996.6718803083746</v>
+        <v>996.6621341614493</v>
       </c>
     </row>
     <row r="648">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1160.707649986733</v>
+        <v>1160.56875691136</v>
       </c>
     </row>
     <row r="649">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>941.1142464244393</v>
+        <v>940.8244970222044</v>
       </c>
     </row>
     <row r="650">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>998.4164774743692</v>
+        <v>998.4116738618392</v>
       </c>
     </row>
     <row r="651">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1013.493114657243</v>
+        <v>1013.386124228433</v>
       </c>
     </row>
     <row r="652">
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>951.5852890594873</v>
+        <v>951.8230453432362</v>
       </c>
     </row>
     <row r="653">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1029.651828897963</v>
+        <v>1029.651806848634</v>
       </c>
     </row>
     <row r="655">
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>946.0756086998679</v>
+        <v>946.075579354949</v>
       </c>
     </row>
     <row r="656">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>999.3895711788984</v>
+        <v>999.3895408160441</v>
       </c>
     </row>
     <row r="657">
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1001.154050360422</v>
+        <v>1001.154006637631</v>
       </c>
     </row>
     <row r="658">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1032.382878674783</v>
+        <v>1032.382840387281</v>
       </c>
     </row>
     <row r="659">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1031.959406245548</v>
+        <v>1031.95814274036</v>
       </c>
     </row>
     <row r="660">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1010.812245278343</v>
+        <v>1010.812217246023</v>
       </c>
     </row>
     <row r="661">
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1062.025443174183</v>
+        <v>1061.850202182109</v>
       </c>
     </row>
     <row r="662">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>969.9851118422723</v>
+        <v>970.3346466192257</v>
       </c>
     </row>
     <row r="663">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1014.906437704306</v>
+        <v>1014.9000289933</v>
       </c>
     </row>
     <row r="664">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1128.365938567885</v>
+        <v>1128.066442238946</v>
       </c>
     </row>
     <row r="665">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1080.582538865114</v>
+        <v>1080.876071715594</v>
       </c>
     </row>
     <row r="666">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1029.100876391823</v>
+        <v>1029.419901834463</v>
       </c>
     </row>
     <row r="667">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>998.5905297452061</v>
+        <v>998.9512869142692</v>
       </c>
     </row>
     <row r="668">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>977.8939265336622</v>
+        <v>977.8768568095506</v>
       </c>
     </row>
     <row r="669">
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>998.2565670412309</v>
+        <v>998.2504809062832</v>
       </c>
     </row>
     <row r="670">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1078.17749671357</v>
+        <v>1078.030039654145</v>
       </c>
     </row>
     <row r="671">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>976.2061211924716</v>
+        <v>976.0574880726624</v>
       </c>
     </row>
     <row r="672">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>984.055366513144</v>
+        <v>1000.019675363666</v>
       </c>
     </row>
     <row r="673">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>998.8280452268233</v>
+        <v>998.7788490017921</v>
       </c>
     </row>
     <row r="674">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1022.438233273497</v>
+        <v>1022.436856817386</v>
       </c>
     </row>
     <row r="675">
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1007.571595518513</v>
+        <v>1007.571599221552</v>
       </c>
     </row>
     <row r="676">
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1051.54604026269</v>
+        <v>1051.544899462667</v>
       </c>
     </row>
     <row r="677">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1007.330664436999</v>
+        <v>1007.33066794379</v>
       </c>
     </row>
     <row r="678">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1016.177857209251</v>
+        <v>1016.177835741977</v>
       </c>
     </row>
     <row r="679">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>998.193731186332</v>
+        <v>998.1937233762472</v>
       </c>
     </row>
     <row r="680">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1021.986115539351</v>
+        <v>1021.986114188138</v>
       </c>
     </row>
     <row r="681">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>992.8808179649481</v>
+        <v>992.8093575035318</v>
       </c>
     </row>
     <row r="682">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>984.7552972087019</v>
+        <v>984.0188110075846</v>
       </c>
     </row>
     <row r="683">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1031.050964235332</v>
+        <v>1031.085175899981</v>
       </c>
     </row>
     <row r="684">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>983.2254307989949</v>
+        <v>983.242196563127</v>
       </c>
     </row>
     <row r="685">
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>983.9617754717827</v>
+        <v>983.9778414030418</v>
       </c>
     </row>
     <row r="686">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>984.6659852863606</v>
+        <v>984.6813196298805</v>
       </c>
     </row>
     <row r="687">
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1017.371337375881</v>
+        <v>1017.309044971311</v>
       </c>
     </row>
     <row r="688">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>897.0902773526373</v>
+        <v>896.991636939742</v>
       </c>
     </row>
     <row r="689">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>967.9455962332764</v>
+        <v>967.8495780189597</v>
       </c>
     </row>
     <row r="690">
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>999.8906277348842</v>
+        <v>999.6959982671805</v>
       </c>
     </row>
     <row r="691">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1000.864569625958</v>
+        <v>1000.806188928266</v>
       </c>
     </row>
     <row r="692">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>986.2627383387347</v>
+        <v>986.2250539719221</v>
       </c>
     </row>
     <row r="693">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>961.6085853661391</v>
+        <v>961.6073877213458</v>
       </c>
     </row>
     <row r="694">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1008.169050032714</v>
+        <v>1006.826667316348</v>
       </c>
     </row>
     <row r="695">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>986.4773054370849</v>
+        <v>986.4546533533921</v>
       </c>
     </row>
     <row r="696">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>990.6395286301422</v>
+        <v>990.627731518923</v>
       </c>
     </row>
     <row r="697">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1030.196753570388</v>
+        <v>1030.17831311317</v>
       </c>
     </row>
     <row r="698">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1008.382633329482</v>
+        <v>978.3666044059134</v>
       </c>
     </row>
     <row r="699">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>983.2600659878553</v>
+        <v>983.2507113835824</v>
       </c>
     </row>
     <row r="700">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1016.295239192638</v>
+        <v>1016.294022409087</v>
       </c>
     </row>
     <row r="701">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1014.70675866584</v>
+        <v>1014.705553938388</v>
       </c>
     </row>
     <row r="702">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1032.020710141981</v>
+        <v>1032.020679943832</v>
       </c>
     </row>
     <row r="703">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>996.8976500884793</v>
+        <v>996.8976072205796</v>
       </c>
     </row>
     <row r="704">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1026.649410369352</v>
+        <v>1026.565944268324</v>
       </c>
     </row>
     <row r="706">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>988.7898145713375</v>
+        <v>988.7762148524116</v>
       </c>
     </row>
     <row r="707">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>989.2360154412708</v>
+        <v>989.2232017647168</v>
       </c>
     </row>
     <row r="708">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>994.4367992948803</v>
+        <v>994.4493230722196</v>
       </c>
     </row>
     <row r="709">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1027.44748393286</v>
+        <v>1027.807632820255</v>
       </c>
     </row>
     <row r="710">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>985.2786017449869</v>
+        <v>985.2783810833149</v>
       </c>
     </row>
     <row r="713">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>957.2164052254719</v>
+        <v>957.2162135961901</v>
       </c>
     </row>
     <row r="714">
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>999.3111572579857</v>
+        <v>999.3106688015865</v>
       </c>
     </row>
     <row r="715">
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>985.6230095826774</v>
+        <v>985.6118714499861</v>
       </c>
     </row>
     <row r="716">
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>986.5262443417848</v>
+        <v>986.5260460479279</v>
       </c>
     </row>
     <row r="718">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>985.0327178889689</v>
+        <v>985.0220914826692</v>
       </c>
     </row>
     <row r="719">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>987.1006533821025</v>
+        <v>987.100465935684</v>
       </c>
     </row>
     <row r="720">
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1015.728708345841</v>
+        <v>1015.724422484397</v>
       </c>
     </row>
     <row r="721">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>989.0748155870165</v>
+        <v>989.0524487272708</v>
       </c>
     </row>
     <row r="722">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>997.553173064081</v>
+        <v>997.5267648617961</v>
       </c>
     </row>
     <row r="723">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>969.9312770069714</v>
+        <v>969.8938034520323</v>
       </c>
     </row>
     <row r="724">
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1041.855162060662</v>
+        <v>1041.802757699534</v>
       </c>
     </row>
     <row r="725">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1031.374501887275</v>
+        <v>1031.374482299646</v>
       </c>
     </row>
     <row r="726">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>990.5438008866395</v>
+        <v>990.3428732948828</v>
       </c>
     </row>
     <row r="727">
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>983.2506736268799</v>
+        <v>983.2478908446474</v>
       </c>
     </row>
     <row r="728">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1014.626780093426</v>
+        <v>1014.626754970034</v>
       </c>
     </row>
     <row r="730">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1030.695198569848</v>
+        <v>1030.694178990542</v>
       </c>
     </row>
     <row r="731">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>998.5587606706673</v>
+        <v>998.5587563650993</v>
       </c>
     </row>
     <row r="732">
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>989.6909270392847</v>
+        <v>989.6909279999838</v>
       </c>
     </row>
     <row r="733">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1028.662195515593</v>
+        <v>1028.662165017982</v>
       </c>
     </row>
     <row r="734">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>996.2816389355183</v>
+        <v>996.2805974441658</v>
       </c>
     </row>
     <row r="735">
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>997.589388870321</v>
+        <v>997.5892897075763</v>
       </c>
     </row>
     <row r="736">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>979.5666364927951</v>
+        <v>979.5331921061488</v>
       </c>
     </row>
     <row r="737">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>997.0734362177891</v>
+        <v>997.0698511229269</v>
       </c>
     </row>
     <row r="738">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>972.5986763222836</v>
+        <v>972.5875575511769</v>
       </c>
     </row>
     <row r="739">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>998.3201954236046</v>
+        <v>998.3363407147372</v>
       </c>
     </row>
     <row r="740">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>1010.474104452431</v>
+        <v>1010.450707055648</v>
       </c>
     </row>
     <row r="742">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>961.6155792994955</v>
+        <v>961.5002142977602</v>
       </c>
     </row>
     <row r="743">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>991.301018283136</v>
+        <v>991.2886047044442</v>
       </c>
     </row>
     <row r="744">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>986.5291002770883</v>
+        <v>986.5434588151587</v>
       </c>
     </row>
     <row r="745">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>987.1033530762819</v>
+        <v>987.1169257988643</v>
       </c>
     </row>
     <row r="746">
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>918.3358937920673</v>
+        <v>933.0961262454587</v>
       </c>
     </row>
     <row r="748">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>985.1497468044857</v>
+        <v>985.129588581558</v>
       </c>
     </row>
     <row r="749">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>995.3101357414665</v>
+        <v>1009.415945761065</v>
       </c>
     </row>
     <row r="750">
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>999.3840058918732</v>
+        <v>999.3839962898926</v>
       </c>
     </row>
     <row r="752">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>1015.411030562979</v>
+        <v>1015.411021381114</v>
       </c>
     </row>
     <row r="753">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>1028.628637794778</v>
+        <v>1028.628620020445</v>
       </c>
     </row>
     <row r="754">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>1014.736262200424</v>
+        <v>1014.736253462246</v>
       </c>
     </row>
     <row r="755">
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>983.451516945622</v>
+        <v>983.4407317116506</v>
       </c>
     </row>
     <row r="757">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>989.245039919511</v>
+        <v>989.221453723688</v>
       </c>
     </row>
     <row r="758">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>998.1592821303866</v>
+        <v>998.1592252359409</v>
       </c>
     </row>
     <row r="759">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>980.9703593204682</v>
+        <v>980.9813939100387</v>
       </c>
     </row>
     <row r="760">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>983.2541991089124</v>
+        <v>983.2756470581127</v>
       </c>
     </row>
     <row r="761">
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>990.6865030533463</v>
+        <v>990.7128178232654</v>
       </c>
     </row>
     <row r="763">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1000.266744035553</v>
+        <v>1000.329264766863</v>
       </c>
     </row>
     <row r="764">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>984.5607769634364</v>
+        <v>984.4845345295433</v>
       </c>
     </row>
     <row r="765">
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>987.5537568290152</v>
+        <v>987.5562118632728</v>
       </c>
     </row>
     <row r="766">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>990.3775742304193</v>
+        <v>990.3878735859835</v>
       </c>
     </row>
     <row r="767">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>1014.891575477291</v>
+        <v>1014.89055489433</v>
       </c>
     </row>
     <row r="768">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>1014.242453123155</v>
+        <v>1014.241483956374</v>
       </c>
     </row>
     <row r="769">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>1000.522491882031</v>
+        <v>1000.522487837002</v>
       </c>
     </row>
     <row r="770">
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>1011.031501772804</v>
+        <v>1011.030589184847</v>
       </c>
     </row>
     <row r="772">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>1011.284903308089</v>
+        <v>1011.284055000335</v>
       </c>
     </row>
     <row r="773">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>999.3963052859281</v>
+        <v>999.396300553894</v>
       </c>
     </row>
     <row r="774">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>976.7756449279098</v>
+        <v>976.7300678949579</v>
       </c>
     </row>
     <row r="775">
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>987.3108948646038</v>
+        <v>987.2866750087766</v>
       </c>
     </row>
     <row r="776">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>1004.911868430795</v>
+        <v>1004.903484782191</v>
       </c>
     </row>
     <row r="777">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>998.5422578550372</v>
+        <v>998.5402819458079</v>
       </c>
     </row>
     <row r="779">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>993.5570618541199</v>
+        <v>993.5095388157358</v>
       </c>
     </row>
     <row r="780">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>999.2851916049279</v>
+        <v>999.2842226458549</v>
       </c>
     </row>
     <row r="781">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>1015.566166259058</v>
+        <v>1015.516747762749</v>
       </c>
     </row>
     <row r="782">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>998.3949986570095</v>
+        <v>998.3905972986985</v>
       </c>
     </row>
     <row r="783">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>986.3081448434365</v>
+        <v>986.2668708984775</v>
       </c>
     </row>
     <row r="784">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>997.0210003880475</v>
+        <v>997.0158775359766</v>
       </c>
     </row>
     <row r="785">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>1018.655831857282</v>
+        <v>1018.672180813503</v>
       </c>
     </row>
     <row r="786">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>1047.502123119848</v>
+        <v>1047.409392808606</v>
       </c>
     </row>
     <row r="788">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>968.9835424277695</v>
+        <v>968.940152925917</v>
       </c>
     </row>
     <row r="789">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>1012.601876784531</v>
+        <v>1012.597268241342</v>
       </c>
     </row>
     <row r="790">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>972.8838680152409</v>
+        <v>972.8861747089084</v>
       </c>
     </row>
     <row r="791">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>990.9499413052885</v>
+        <v>990.9327433993247</v>
       </c>
     </row>
     <row r="792">
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>990.2066685514699</v>
+        <v>990.2008158427293</v>
       </c>
     </row>
     <row r="793">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>989.5413952001201</v>
+        <v>989.5629958089074</v>
       </c>
     </row>
     <row r="794">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>986.4806082441223</v>
+        <v>986.4399477914425</v>
       </c>
     </row>
     <row r="795">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>980.3119797512276</v>
+        <v>980.3119722089968</v>
       </c>
     </row>
     <row r="796">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>981.4984448496297</v>
+        <v>981.4984211488971</v>
       </c>
     </row>
     <row r="799">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>988.6328931994587</v>
+        <v>988.6328894078263</v>
       </c>
     </row>
     <row r="801">
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>1012.075973437846</v>
+        <v>1012.071625052286</v>
       </c>
     </row>
     <row r="802">
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>1019.061725119251</v>
+        <v>1019.05394378485</v>
       </c>
     </row>
     <row r="803">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>990.571059655916</v>
+        <v>990.5655427697023</v>
       </c>
     </row>
     <row r="804">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>982.2976900362627</v>
+        <v>982.2976670616887</v>
       </c>
     </row>
     <row r="806">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>1000.778611229198</v>
+        <v>1000.778610197713</v>
       </c>
     </row>
     <row r="807">
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>1017.945882982653</v>
+        <v>1017.926022320705</v>
       </c>
     </row>
     <row r="808">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>929.7264649750726</v>
+        <v>928.5337724566684</v>
       </c>
     </row>
     <row r="809">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>1021.268650917395</v>
+        <v>1021.924042988409</v>
       </c>
     </row>
     <row r="810">
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1025.950022088194</v>
+        <v>1026.014749195714</v>
       </c>
     </row>
     <row r="811">
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>959.2930275442337</v>
+        <v>959.5041758888873</v>
       </c>
     </row>
     <row r="812">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1104.341889535958</v>
+        <v>1104.686601755068</v>
       </c>
     </row>
     <row r="813">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>969.7573164995591</v>
+        <v>969.8043678321494</v>
       </c>
     </row>
     <row r="814">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>970.9817468756294</v>
+        <v>971.5796773083512</v>
       </c>
     </row>
     <row r="815">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>1006.185440832098</v>
+        <v>1008.286004152414</v>
       </c>
     </row>
     <row r="816">
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>997.3913812075817</v>
+        <v>997.4820898159828</v>
       </c>
     </row>
     <row r="817">
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>1023.501929207114</v>
+        <v>1024.881592146338</v>
       </c>
     </row>
     <row r="818">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>1007.131586598118</v>
+        <v>1009.17105240437</v>
       </c>
     </row>
     <row r="819">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>972.1820563413861</v>
+        <v>972.255734935788</v>
       </c>
     </row>
     <row r="820">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>1067.852042558074</v>
+        <v>1065.151211880306</v>
       </c>
     </row>
     <row r="822">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>950.1020094065021</v>
+        <v>950.0519405380036</v>
       </c>
     </row>
     <row r="823">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>897.207103176667</v>
+        <v>897.2762889663072</v>
       </c>
     </row>
     <row r="824">
@@ -8677,7 +8677,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>1027.750985202904</v>
+        <v>1027.422214568607</v>
       </c>
     </row>
     <row r="826">
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>1143.275398343802</v>
+        <v>1144.312593040194</v>
       </c>
     </row>
     <row r="827">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>969.9146509844237</v>
+        <v>969.9259516445004</v>
       </c>
     </row>
     <row r="828">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>991.3003241657105</v>
+        <v>990.8568844553307</v>
       </c>
     </row>
     <row r="829">
@@ -8717,7 +8717,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>973.2983538498361</v>
+        <v>973.1498601508828</v>
       </c>
     </row>
     <row r="830">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>1106.399892562896</v>
+        <v>1107.954310521904</v>
       </c>
     </row>
     <row r="831">
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>1005.066596941977</v>
+        <v>1004.031322266179</v>
       </c>
     </row>
     <row r="832">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>982.7752502440443</v>
+        <v>983.601857224638</v>
       </c>
     </row>
     <row r="833">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>985.5561149707941</v>
+        <v>985.4128377441154</v>
       </c>
     </row>
     <row r="834">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>1071.576230619455</v>
+        <v>1071.504117533462</v>
       </c>
     </row>
     <row r="835">
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>1027.609017589284</v>
+        <v>1026.5939094628</v>
       </c>
     </row>
     <row r="836">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>1016.548238058794</v>
+        <v>1016.78841439386</v>
       </c>
     </row>
     <row r="837">
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>852.0444264541559</v>
+        <v>851.716292913855</v>
       </c>
     </row>
     <row r="838">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>1129.046665284378</v>
+        <v>1128.98588565438</v>
       </c>
     </row>
     <row r="839">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>945.4463154061075</v>
+        <v>947.8357680661713</v>
       </c>
     </row>
     <row r="840">
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>1014.416324902683</v>
+        <v>1015.539111897545</v>
       </c>
     </row>
     <row r="841">
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>1042.394823302087</v>
+        <v>1042.510412429348</v>
       </c>
     </row>
     <row r="842">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>942.3731391543544</v>
+        <v>942.9219654629223</v>
       </c>
     </row>
     <row r="843">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>905.3276983610497</v>
+        <v>905.854653557982</v>
       </c>
     </row>
     <row r="844">
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>917.4098516333607</v>
+        <v>916.9309090417236</v>
       </c>
     </row>
     <row r="845">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>978.8086415673117</v>
+        <v>980.0941142690514</v>
       </c>
     </row>
     <row r="846">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>1010.868303648724</v>
+        <v>1011.983460552</v>
       </c>
     </row>
     <row r="847">
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>1079.338599242335</v>
+        <v>1079.870403629949</v>
       </c>
     </row>
     <row r="848">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>1142.889374630842</v>
+        <v>1143.785793603097</v>
       </c>
     </row>
     <row r="849">
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>972.3935092847832</v>
+        <v>973.0025074233768</v>
       </c>
     </row>
     <row r="850">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>940.6012497095351</v>
+        <v>940.5226681685998</v>
       </c>
     </row>
     <row r="851">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>1029.705954689941</v>
+        <v>1029.764588238584</v>
       </c>
     </row>
     <row r="852">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>970.6166550954608</v>
+        <v>971.1660655735348</v>
       </c>
     </row>
     <row r="853">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>967.7911670662327</v>
+        <v>967.6126745641365</v>
       </c>
     </row>
     <row r="854">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>1108.399369270165</v>
+        <v>1108.155997265782</v>
       </c>
     </row>
     <row r="855">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>1000.102188633376</v>
+        <v>1000.053302064128</v>
       </c>
     </row>
     <row r="856">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>964.894742786134</v>
+        <v>964.953262814803</v>
       </c>
     </row>
   </sheetData>
